--- a/Technology/Software/GitLab.xlsx
+++ b/Technology/Software/GitLab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCA6F3A-113E-7340-999A-FE6E0A9B323C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4462B449-18F3-C34E-8CB5-00FDEB8F541B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="162">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,17 +550,24 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forwrard P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -892,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -929,16 +936,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1011,6 +1009,24 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1051,6 +1067,1057 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>GTLB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8125775668769881E-2"/>
+          <c:y val="0.13019490127662531"/>
+          <c:w val="0.87816561505970692"/>
+          <c:h val="0.74865556821128754"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>81227000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152176000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>252653000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>424300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5A0-1447-B4D6-ED8CEF06D57A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EBITDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-129541000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-189140000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-154705000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-211411000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E5A0-1447-B4D6-ED8CEF06D57A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Free Cash Flow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$106:$E$106</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-60166000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-74513000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-53355000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-83478000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E5A0-1447-B4D6-ED8CEF06D57A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="676387935"/>
+        <c:axId val="676367695"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="676387935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676367695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="676367695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-250000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,###,,;\(#,###,,\);\ \-\ \-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676387935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35616926526568282"/>
+          <c:y val="0.91416703250905629"/>
+          <c:w val="0.30355550920373364"/>
+          <c:h val="5.4139335935233526E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCB6EE0-F6B9-6EB4-E6AF-335836E87AB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1174,37 +2241,34 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>70.959999999999994</v>
-    <v>30.92</v>
-    <v>2.5339999999999998</v>
-    <v>0.4</v>
-    <v>1.2296E-2</v>
-    <v>0.08</v>
-    <v>2.4290000000000002E-3</v>
+    <v>26.24</v>
+    <v>2.5249999999999999</v>
+    <v>-1.18</v>
+    <v>-3.4533000000000001E-2</v>
     <v>USD</v>
-    <v>GitLab Inc. operates a DevOps platform that offers a single application, which brings together development, operations, information technology, security and business teams. The DevOps Platform is built on a single codebase, unified data model, and user interface. The Company allows the organizations to deploy the DevOps platform as a self-managed offering in their own multi-cloud, hybrid-cloud, or on-premises environments, and as a software as a service (SaaS) offering in its own public cloud. The DevOps platform enables the customers to move their DevOps workflow across any hybrid or multi-cloud environment. It serves various organizations, such as consumer and business services, financial services and consulting, manufacturing, media/telecommunications, public sector and education and software. It offers the DevOps platform in three subscription plans, namely Free, Premium and Ultimate. Its free tier platform is for individual users and the paid tiers is for managers and executives.</v>
+    <v>GitLab Inc. provides DevSecOps Platform, a single application that brings together development, operations, information technology, security, and business teams. The DevSecOps Platform is built on a single codebase, unified data model, and user interface. The Company allows organizations to deploy the DevSecOps Platform as a self-managed offering in their own hybrid-cloud, or on-premises environments, and as a software as a service offering, it is hosted in either the public cloud or in a private cloud based on the customer’s preference. The DevSecOps Platform enables its customers to move their DevOps workflow across any hybrid or multi-cloud environment. Its DevSecOps platform is used by teams of all sizes across a range of industries. It offers the DevSecOps Platform in three different subscription tiers, namely Free, Premium and Ultimate. Its Free tier platform includes significant functionality for individual users and the paid tiers are for managers, directors, and executives.</v>
     <v>2170</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>268 BUSH STREET, #350, SAN FRANCISCO, CA, 94104 US</v>
-    <v>33.75</v>
+    <v>35.22</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.989290508594</v>
+    <v>45071.992910821093</v>
     <v>0</v>
-    <v>32.369999999999997</v>
-    <v>4998774000</v>
+    <v>32.655000000000001</v>
+    <v>5046034935</v>
     <v>Gitlab Inc.</v>
     <v>Gitlab Inc.</v>
-    <v>32.659999999999997</v>
-    <v>32.53</v>
-    <v>32.93</v>
-    <v>33.01</v>
-    <v>151800000</v>
+    <v>34.619999999999997</v>
+    <v>34.17</v>
+    <v>32.99</v>
+    <v>152956500</v>
     <v>GTLB</v>
     <v>Gitlab Inc. (XNAS:GTLB)</v>
-    <v>1757416</v>
-    <v>2655553</v>
+    <v>2006117</v>
+    <v>2316390</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -1236,8 +2300,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1257,7 +2319,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1274,7 +2335,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1285,16 +2346,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1358,19 +2416,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1414,9 +2466,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1424,9 +2473,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -1788,10 +2834,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G99" sqref="G99"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1883,19 +2929,19 @@
         <v>424300000</v>
       </c>
       <c r="F3" s="15">
-        <v>530000000</v>
+        <v>532300000</v>
       </c>
       <c r="G3" s="15">
-        <v>640000000</v>
+        <v>686000000</v>
       </c>
       <c r="H3" s="15">
-        <v>750000000</v>
+        <v>895500000</v>
       </c>
       <c r="I3" s="15">
-        <v>860000000</v>
+        <v>1335000000</v>
       </c>
       <c r="J3" s="15">
-        <v>970000000</v>
+        <v>1660000000</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>94</v>
@@ -1911,7 +2957,7 @@
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="1"/>
@@ -1929,23 +2975,23 @@
       </c>
       <c r="F4" s="18">
         <f t="shared" ref="F4:J4" si="0">(F3/E3)-1</f>
-        <v>0.24911619137402785</v>
+        <v>0.25453688427999066</v>
       </c>
       <c r="G4" s="18">
         <f t="shared" si="0"/>
-        <v>0.20754716981132071</v>
+        <v>0.28874694721021976</v>
       </c>
       <c r="H4" s="18">
         <f t="shared" si="0"/>
-        <v>0.171875</v>
+        <v>0.305393586005831</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="0"/>
-        <v>0.14666666666666672</v>
+        <v>0.49078726968174213</v>
       </c>
       <c r="J4" s="18">
         <f t="shared" si="0"/>
-        <v>0.12790697674418605</v>
+        <v>0.24344569288389506</v>
       </c>
       <c r="K4" s="19">
         <f>(E4+D4+C4)/3</f>
@@ -1977,10 +3023,10 @@
       <c r="AD4" s="18"/>
       <c r="AE4" s="18"/>
       <c r="AF4" s="18"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
     </row>
     <row r="5" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -2081,7 +3127,7 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="24" t="s">
         <v>116</v>
       </c>
       <c r="B9" s="21">
@@ -2196,7 +3242,7 @@
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="24" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="21">
@@ -2229,7 +3275,7 @@
         <f>E22/(E72+E56+E61)</f>
         <v>-0.25634120464397225</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="57">
         <f>E67/E72</f>
         <v>0.41768468277304555</v>
       </c>
@@ -2298,24 +3344,24 @@
         <f>E15+E5</f>
         <v>635747000</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="22">
         <f>(E35+D35+C35+B35)/4</f>
         <v>3.5630976026606309E-2</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="59">
         <f>M101/E3</f>
-        <v>11.781225547961348</v>
-      </c>
-      <c r="M16" s="24">
+        <v>11.892611206693378</v>
+      </c>
+      <c r="M16" s="59">
         <f>M101/E28</f>
-        <v>-30.494088796164124</v>
-      </c>
-      <c r="N16" s="25">
-        <f>M102/E106</f>
-        <v>-1.1979204101679484E-8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>-30.782395318619376</v>
+      </c>
+      <c r="N16" s="58">
+        <f>M101/E106</f>
+        <v>-60.447482390569974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -2332,7 +3378,7 @@
         <v>14496000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -2351,8 +3397,14 @@
       <c r="K18" s="16" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L18" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2368,13 +3420,36 @@
       <c r="E19" s="10">
         <v>-211411000</v>
       </c>
-      <c r="K19" s="26">
+      <c r="F19" s="63">
+        <v>-55971000</v>
+      </c>
+      <c r="G19" s="63">
+        <v>-6754000</v>
+      </c>
+      <c r="H19" s="63">
+        <v>48855000</v>
+      </c>
+      <c r="I19" s="63">
+        <v>172900000</v>
+      </c>
+      <c r="J19" s="63">
+        <v>298100000</v>
+      </c>
+      <c r="K19" s="23">
         <f>E40-E56-E61</f>
         <v>936651000</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="L19" s="59">
+        <f>M101/F3</f>
+        <v>9.4796823877512679</v>
+      </c>
+      <c r="M19" s="60">
+        <f>M101/F28</f>
+        <v>-122.83434603213243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>118</v>
       </c>
       <c r="B20" s="1"/>
@@ -2390,8 +3465,28 @@
         <f>(E19/D19)-1</f>
         <v>0.36654277495879262</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F20" s="18">
+        <f t="shared" ref="F20:J20" si="3">(F19/E19)-1</f>
+        <v>-0.73525029445014689</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" si="3"/>
+        <v>-0.8793303675117472</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="3"/>
+        <v>-8.2334912644358909</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" si="3"/>
+        <v>2.5390441101217891</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="3"/>
+        <v>0.72411798727588206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -2408,8 +3503,28 @@
         <f>E19/E3</f>
         <v>-0.49825830780108415</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F21" s="64">
+        <f t="shared" ref="F21:J21" si="4">F19/F3</f>
+        <v>-0.10514935186924666</v>
+      </c>
+      <c r="G21" s="64">
+        <f t="shared" si="4"/>
+        <v>-9.8454810495626818E-3</v>
+      </c>
+      <c r="H21" s="64">
+        <f t="shared" si="4"/>
+        <v>5.4556113902847571E-2</v>
+      </c>
+      <c r="I21" s="64">
+        <f t="shared" si="4"/>
+        <v>0.12951310861423221</v>
+      </c>
+      <c r="J21" s="64">
+        <f t="shared" si="4"/>
+        <v>0.17957831325301205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -2426,7 +3541,7 @@
         <v>-211411000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -2444,7 +3559,7 @@
         <v>-0.49825830780108415</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -2461,7 +3576,7 @@
         <v>36081000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -2478,7 +3593,7 @@
         <v>-177798000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -2496,7 +3611,7 @@
         <v>-0.41903841621494226</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -2513,7 +3628,7 @@
         <v>2898000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -2529,9 +3644,24 @@
       <c r="E28" s="11">
         <v>-163926000</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="F28" s="65">
+        <v>-41080000</v>
+      </c>
+      <c r="G28" s="65">
+        <v>2900000</v>
+      </c>
+      <c r="H28" s="65">
+        <v>65382000</v>
+      </c>
+      <c r="I28" s="65">
+        <v>264800000</v>
+      </c>
+      <c r="J28" s="65">
+        <v>468200000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
         <v>119</v>
       </c>
       <c r="B29" s="1"/>
@@ -2547,8 +3677,28 @@
         <f>(E28/D28)-1</f>
         <v>5.6646340677332541E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F29" s="18">
+        <f t="shared" ref="F29:J29" si="5">(F28/E28)-1</f>
+        <v>-0.74939911911472246</v>
+      </c>
+      <c r="G29" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.0705939629990262</v>
+      </c>
+      <c r="H29" s="18">
+        <f t="shared" si="5"/>
+        <v>21.545517241379311</v>
+      </c>
+      <c r="I29" s="18">
+        <f t="shared" si="5"/>
+        <v>3.0500443547153653</v>
+      </c>
+      <c r="J29" s="18">
+        <f t="shared" si="5"/>
+        <v>0.76812688821752273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -2565,8 +3715,28 @@
         <f>E28/E3</f>
         <v>-0.38634456752297902</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F30" s="64">
+        <f t="shared" ref="F30:J30" si="6">F28/F3</f>
+        <v>-7.7174525643434147E-2</v>
+      </c>
+      <c r="G30" s="64">
+        <f t="shared" si="6"/>
+        <v>4.2274052478134113E-3</v>
+      </c>
+      <c r="H30" s="64">
+        <f t="shared" si="6"/>
+        <v>7.3011725293132324E-2</v>
+      </c>
+      <c r="I30" s="64">
+        <f t="shared" si="6"/>
+        <v>0.19835205992509364</v>
+      </c>
+      <c r="J30" s="64">
+        <f t="shared" si="6"/>
+        <v>0.28204819277108434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -2583,8 +3753,23 @@
         <f>E28/E33</f>
         <v>-1.104570539125513</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F31" s="66">
+        <v>-0.27</v>
+      </c>
+      <c r="G31" s="66">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H31" s="66">
+        <v>0.43</v>
+      </c>
+      <c r="I31" s="66">
+        <v>1.73</v>
+      </c>
+      <c r="J31" s="66">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -2637,22 +3822,22 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="24" t="s">
         <v>120</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="26">
         <f>(C34-B34)/B34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="29">
-        <f t="shared" ref="D35:E35" si="3">(D34-C34)/C34</f>
+      <c r="D35" s="26">
+        <f t="shared" ref="D35:E35" si="7">(D34-C34)/C34</f>
         <v>0</v>
       </c>
-      <c r="E35" s="29">
-        <f t="shared" si="3"/>
+      <c r="E35" s="26">
+        <f t="shared" si="7"/>
         <v>0.14252390410642524</v>
       </c>
     </row>
@@ -3407,23 +4592,23 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A80" s="27" t="s">
+      <c r="A80" s="24" t="s">
         <v>121</v>
       </c>
       <c r="B80" s="21">
-        <f t="shared" ref="B80:E80" si="4">B79/B3</f>
+        <f t="shared" ref="B80:E80" si="8">B79/B3</f>
         <v>0.50318243933667373</v>
       </c>
       <c r="C80" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.73497792030280729</v>
       </c>
       <c r="D80" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.1187755538228321</v>
       </c>
       <c r="E80" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.2888687249587556</v>
       </c>
     </row>
@@ -3475,10 +4660,10 @@
       <c r="E83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L83" s="62" t="s">
+      <c r="L83" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="M83" s="63"/>
+      <c r="M83" s="70"/>
     </row>
     <row r="84" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -3496,10 +4681,10 @@
       <c r="E84" s="1">
         <v>5184000</v>
       </c>
-      <c r="L84" s="64" t="s">
+      <c r="L84" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="M84" s="65"/>
+      <c r="M84" s="72"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -3515,10 +4700,10 @@
         <v>56254000</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="L85" s="30" t="s">
+      <c r="L85" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="M85" s="31">
+      <c r="M85" s="28">
         <f>E17</f>
         <v>14496000</v>
       </c>
@@ -3539,10 +4724,10 @@
       <c r="E86" s="1">
         <v>-594000</v>
       </c>
-      <c r="L86" s="30" t="s">
+      <c r="L86" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="M86" s="31">
+      <c r="M86" s="28">
         <f>E56</f>
         <v>0</v>
       </c>
@@ -3563,10 +4748,10 @@
       <c r="E87" s="10">
         <v>-77408000</v>
       </c>
-      <c r="L87" s="30" t="s">
+      <c r="L87" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="M87" s="31">
+      <c r="M87" s="28">
         <f>E61</f>
         <v>0</v>
       </c>
@@ -3587,39 +4772,39 @@
       <c r="E88" s="1">
         <v>-6070000</v>
       </c>
-      <c r="L88" s="32" t="s">
+      <c r="L88" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="M88" s="33">
+      <c r="M88" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="24" t="s">
         <v>122</v>
       </c>
       <c r="B89" s="21" t="e">
-        <f t="shared" ref="B89:E89" si="5">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:E89" si="9">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="21" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="D89" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.4015269955235046E-2</v>
       </c>
       <c r="E89" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.4305915625736507E-2</v>
       </c>
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
-      <c r="L89" s="30" t="s">
+      <c r="L89" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="M89" s="31">
+      <c r="M89" s="28">
         <f>E27</f>
         <v>2898000</v>
       </c>
@@ -3640,10 +4825,10 @@
       <c r="E90" s="1">
         <v>0</v>
       </c>
-      <c r="L90" s="30" t="s">
+      <c r="L90" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="M90" s="31">
+      <c r="M90" s="28">
         <f>E25</f>
         <v>-177798000</v>
       </c>
@@ -3664,10 +4849,10 @@
       <c r="E91" s="1">
         <v>-821622000</v>
       </c>
-      <c r="L91" s="32" t="s">
+      <c r="L91" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="M91" s="33">
+      <c r="M91" s="30">
         <f>M89/M90</f>
         <v>-1.6299395943711402E-2</v>
       </c>
@@ -3688,10 +4873,10 @@
       <c r="E92" s="1">
         <v>231626000</v>
       </c>
-      <c r="L92" s="34" t="s">
+      <c r="L92" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="M92" s="35">
+      <c r="M92" s="32">
         <f>M88*(1-M91)</f>
         <v>0</v>
       </c>
@@ -3712,10 +4897,10 @@
       <c r="E93" s="1">
         <v>-9620000</v>
       </c>
-      <c r="L93" s="66" t="s">
+      <c r="L93" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="M93" s="67"/>
+      <c r="M93" s="74"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -3733,10 +4918,10 @@
       <c r="E94" s="10">
         <v>-605686000</v>
       </c>
-      <c r="L94" s="30" t="s">
+      <c r="L94" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="M94" s="36">
+      <c r="M94" s="33">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -3756,12 +4941,12 @@
       <c r="E95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L95" s="30" t="s">
+      <c r="L95" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="M95" s="37" cm="1">
+      <c r="M95" s="34" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.5339999999999998</v>
+        <v>2.5249999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3780,10 +4965,10 @@
       <c r="E96" s="1">
         <v>38983000</v>
       </c>
-      <c r="L96" s="30" t="s">
+      <c r="L96" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="M96" s="36">
+      <c r="M96" s="33">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -3803,12 +4988,12 @@
       <c r="E97" s="1">
         <v>0</v>
       </c>
-      <c r="L97" s="34" t="s">
+      <c r="L97" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="M97" s="35">
+      <c r="M97" s="32">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.15003870000000002</v>
+        <v>0.14965125000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3827,10 +5012,10 @@
       <c r="E98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L98" s="66" t="s">
+      <c r="L98" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="M98" s="67"/>
+      <c r="M98" s="74"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -3848,10 +5033,10 @@
       <c r="E99" s="1">
         <v>64863000</v>
       </c>
-      <c r="L99" s="30" t="s">
+      <c r="L99" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="M99" s="31">
+      <c r="M99" s="28">
         <f>M86+M87</f>
         <v>0</v>
       </c>
@@ -3872,10 +5057,10 @@
       <c r="E100" s="10">
         <v>97482000</v>
       </c>
-      <c r="L100" s="32" t="s">
+      <c r="L100" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="M100" s="33">
+      <c r="M100" s="30">
         <f>M99/M103</f>
         <v>0</v>
       </c>
@@ -3896,12 +5081,12 @@
       <c r="E101" s="1">
         <v>-3658000</v>
       </c>
-      <c r="L101" s="30" t="s">
+      <c r="L101" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="M101" s="38" cm="1">
+      <c r="M101" s="35" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4998774000</v>
+        <v>5046034935</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3920,10 +5105,10 @@
       <c r="E102" s="10">
         <v>-589270000</v>
       </c>
-      <c r="L102" s="32" t="s">
+      <c r="L102" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="M102" s="33">
+      <c r="M102" s="30">
         <f>M101/M103</f>
         <v>1</v>
       </c>
@@ -3944,12 +5129,12 @@
       <c r="E103" s="1">
         <v>887172000</v>
       </c>
-      <c r="L103" s="34" t="s">
+      <c r="L103" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="M103" s="39">
+      <c r="M103" s="36">
         <f>M99+M101</f>
-        <v>4998774000</v>
+        <v>5046034935</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3968,13 +5153,13 @@
       <c r="E104" s="11">
         <v>297902000</v>
       </c>
-      <c r="L104" s="66" t="s">
+      <c r="L104" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="M104" s="67"/>
+      <c r="M104" s="74"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="27" t="s">
+      <c r="A105" s="24" t="s">
         <v>123</v>
       </c>
       <c r="B105" s="1"/>
@@ -3990,18 +5175,28 @@
         <f>(E106/D106)-1</f>
         <v>0.56457689063817829</v>
       </c>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="21"/>
-      <c r="J105" s="21"/>
+      <c r="F105" s="61">
+        <v>-26537000</v>
+      </c>
+      <c r="G105" s="61">
+        <v>37560000</v>
+      </c>
+      <c r="H105" s="61">
+        <v>102500000</v>
+      </c>
+      <c r="I105" s="61">
+        <v>282900000</v>
+      </c>
+      <c r="J105" s="61">
+        <v>346700000</v>
+      </c>
       <c r="K105" s="21"/>
-      <c r="L105" s="40" t="s">
+      <c r="L105" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="M105" s="41">
+      <c r="M105" s="38">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.15003870000000002</v>
+        <v>0.14965125000000001</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4022,35 +5217,35 @@
         <f>+E87+E88</f>
         <v>-83478000</v>
       </c>
-      <c r="F106" s="42">
+      <c r="F106" s="39">
         <f>E106*(1+$M$106)</f>
-        <v>-98555996.783936337</v>
-      </c>
-      <c r="G106" s="42">
-        <f t="shared" ref="G106:J106" si="6">F106*(1+$M$106)</f>
-        <v>-116357417.54803984</v>
-      </c>
-      <c r="H106" s="42">
-        <f t="shared" si="6"/>
-        <v>-137374173.67032933</v>
-      </c>
-      <c r="I106" s="42">
-        <f t="shared" si="6"/>
-        <v>-162187026.7429609</v>
-      </c>
-      <c r="J106" s="42">
-        <f t="shared" si="6"/>
-        <v>-191481636.91122752</v>
-      </c>
-      <c r="K106" s="43" t="s">
+        <v>-109905638.54135776</v>
+      </c>
+      <c r="G106" s="39">
+        <f t="shared" ref="G106:J106" si="10">F106*(1+$M$106)</f>
+        <v>-144699793.75624216</v>
+      </c>
+      <c r="H106" s="39">
+        <f t="shared" si="10"/>
+        <v>-190509154.8621501</v>
+      </c>
+      <c r="I106" s="39">
+        <f t="shared" si="10"/>
+        <v>-250820938.60776514</v>
+      </c>
+      <c r="J106" s="39">
+        <f t="shared" si="10"/>
+        <v>-330226352.05957401</v>
+      </c>
+      <c r="K106" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="L106" s="44" t="s">
+      <c r="L106" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="M106" s="45">
+      <c r="M106" s="42">
         <f>(SUM(F4:J4)/5)</f>
-        <v>0.18062240091924026</v>
+        <v>0.31658207601233573</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4058,139 +5253,139 @@
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="46">
-        <f>J106*(1+M107)/(M108-M107)</f>
-        <v>-1569663454.8664384</v>
-      </c>
-      <c r="K107" s="47" t="s">
+      <c r="F107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="62">
+        <f>J105*(1+M107)/(M108-M107)</f>
+        <v>2850893994.2439399</v>
+      </c>
+      <c r="K107" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="L107" s="48" t="s">
+      <c r="L107" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="M107" s="49">
+      <c r="M107" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="46">
-        <f t="shared" ref="F108:H108" si="7">F107+F106</f>
-        <v>-98555996.783936337</v>
-      </c>
-      <c r="G108" s="46">
-        <f t="shared" si="7"/>
-        <v>-116357417.54803984</v>
-      </c>
-      <c r="H108" s="46">
-        <f t="shared" si="7"/>
-        <v>-137374173.67032933</v>
-      </c>
-      <c r="I108" s="46">
+      <c r="F108" s="43">
+        <f t="shared" ref="F108:H108" si="11">F107+F106</f>
+        <v>-109905638.54135776</v>
+      </c>
+      <c r="G108" s="43">
+        <f t="shared" si="11"/>
+        <v>-144699793.75624216</v>
+      </c>
+      <c r="H108" s="43">
+        <f t="shared" si="11"/>
+        <v>-190509154.8621501</v>
+      </c>
+      <c r="I108" s="43">
         <f>I107+I106</f>
-        <v>-162187026.7429609</v>
-      </c>
-      <c r="J108" s="46">
-        <f>J107+J106</f>
-        <v>-1761145091.7776659</v>
-      </c>
-      <c r="K108" s="47" t="s">
+        <v>-250820938.60776514</v>
+      </c>
+      <c r="J108" s="62">
+        <f>J107+J105</f>
+        <v>3197593994.2439399</v>
+      </c>
+      <c r="K108" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="L108" s="50" t="s">
+      <c r="L108" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="M108" s="51">
+      <c r="M108" s="48">
         <f>M105</f>
-        <v>0.15003870000000002</v>
+        <v>0.14965125000000001</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="60" t="s">
+      <c r="F109" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="G109" s="61"/>
+      <c r="G109" s="68"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="52" t="s">
+      <c r="F110" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="G110" s="38">
+      <c r="G110" s="35">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>-1232163146.9783289</v>
+        <v>1118144104.6544261</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="52" t="s">
+      <c r="F111" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="G111" s="38">
+      <c r="G111" s="35">
         <f>E40</f>
         <v>936651000</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="52" t="s">
+      <c r="F112" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="G112" s="38">
+      <c r="G112" s="35">
         <f>M99</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="52" t="s">
+      <c r="F113" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="G113" s="38">
+      <c r="G113" s="35">
         <f>G110+G111-G112</f>
-        <v>-295512146.97832894</v>
+        <v>2054795104.6544261</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="52" t="s">
+      <c r="F114" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="G114" s="53">
+      <c r="G114" s="50">
         <f>E34*(1+(5*K16))</f>
         <v>174846431.29590282</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="54" t="s">
+      <c r="F115" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="G115" s="55">
+      <c r="G115" s="52">
         <f>G113/G114</f>
-        <v>-1.6901239835900139</v>
+        <v>11.751999108160099</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="52" t="s">
+      <c r="F116" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="G116" s="56" cm="1">
+      <c r="G116" s="53" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>32.93</v>
+        <v>32.99</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="57" t="s">
+      <c r="F117" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="G117" s="58">
+      <c r="G117" s="55">
         <f>G115/G116-1</f>
-        <v>-1.0513247489702404</v>
+        <v>-0.64377086668202188</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="57" t="s">
+      <c r="F118" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="G118" s="59" t="str">
+      <c r="G118" s="56" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -4217,5 +5412,6 @@
     <hyperlink ref="F1" r:id="rId10" display="https://finbox.com/NASDAQGS:GTLB/explorer/revenue_proj" xr:uid="{F61AC281-E4D5-F942-A40A-39B98A43479A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/Technology/Software/GitLab.xlsx
+++ b/Technology/Software/GitLab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4462B449-18F3-C34E-8CB5-00FDEB8F541B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B42D31-4064-6E45-8068-7C620E41DC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,9 +2242,11 @@
     <v>Powered by Refinitiv</v>
     <v>70.959999999999994</v>
     <v>26.24</v>
-    <v>2.5249999999999999</v>
-    <v>-1.18</v>
-    <v>-3.4533000000000001E-2</v>
+    <v>2.552</v>
+    <v>1.66</v>
+    <v>5.0317999999999995E-2</v>
+    <v>0.28000000000000003</v>
+    <v>8.0809999999999996E-3</v>
     <v>USD</v>
     <v>GitLab Inc. provides DevSecOps Platform, a single application that brings together development, operations, information technology, security, and business teams. The DevSecOps Platform is built on a single codebase, unified data model, and user interface. The Company allows organizations to deploy the DevSecOps Platform as a self-managed offering in their own hybrid-cloud, or on-premises environments, and as a software as a service offering, it is hosted in either the public cloud or in a private cloud based on the customer’s preference. The DevSecOps Platform enables its customers to move their DevOps workflow across any hybrid or multi-cloud environment. Its DevSecOps platform is used by teams of all sizes across a range of industries. It offers the DevSecOps Platform in three different subscription tiers, namely Free, Premium and Ultimate. Its Free tier platform includes significant functionality for individual users and the paid tiers are for managers, directors, and executives.</v>
     <v>2170</v>
@@ -2252,23 +2254,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>268 BUSH STREET, #350, SAN FRANCISCO, CA, 94104 US</v>
-    <v>35.22</v>
+    <v>35.33</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45071.992910821093</v>
+    <v>45072.992559478909</v>
     <v>0</v>
-    <v>32.655000000000001</v>
-    <v>5046034935</v>
+    <v>33.06</v>
+    <v>5299943000</v>
     <v>Gitlab Inc.</v>
     <v>Gitlab Inc.</v>
-    <v>34.619999999999997</v>
-    <v>34.17</v>
+    <v>33.21</v>
     <v>32.99</v>
+    <v>34.65</v>
+    <v>34.93</v>
     <v>152956500</v>
     <v>GTLB</v>
     <v>Gitlab Inc. (XNAS:GTLB)</v>
-    <v>2006117</v>
-    <v>2316390</v>
+    <v>2288424</v>
+    <v>2337663</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2300,6 +2303,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2319,6 +2324,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2335,7 +2341,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2346,13 +2352,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2416,13 +2425,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2466,6 +2481,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2473,6 +2491,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2837,7 +2858,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3350,15 +3371,15 @@
       </c>
       <c r="L16" s="59">
         <f>M101/E3</f>
-        <v>11.892611206693378</v>
+        <v>12.491027574829131</v>
       </c>
       <c r="M16" s="59">
         <f>M101/E28</f>
-        <v>-30.782395318619376</v>
+        <v>-32.331314129546257</v>
       </c>
       <c r="N16" s="58">
         <f>M101/E106</f>
-        <v>-60.447482390569974</v>
+        <v>-63.489098924267473</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3441,11 +3462,11 @@
       </c>
       <c r="L19" s="59">
         <f>M101/F3</f>
-        <v>9.4796823877512679</v>
+        <v>9.9566842006387368</v>
       </c>
       <c r="M19" s="60">
         <f>M101/F28</f>
-        <v>-122.83434603213243</v>
+        <v>-129.01516553067185</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4946,7 +4967,7 @@
       </c>
       <c r="M95" s="34" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.5249999999999999</v>
+        <v>2.552</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4993,7 +5014,7 @@
       </c>
       <c r="M97" s="32">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.14965125000000001</v>
+        <v>0.15081360000000002</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5086,7 +5107,7 @@
       </c>
       <c r="M101" s="35" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>5046034935</v>
+        <v>5299943000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5134,7 +5155,7 @@
       </c>
       <c r="M103" s="36">
         <f>M99+M101</f>
-        <v>5046034935</v>
+        <v>5299943000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5196,7 +5217,7 @@
       </c>
       <c r="M105" s="38">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.14965125000000001</v>
+        <v>0.15081360000000002</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5259,7 +5280,7 @@
       <c r="I107" s="40"/>
       <c r="J107" s="62">
         <f>J105*(1+M107)/(M108-M107)</f>
-        <v>2850893994.2439399</v>
+        <v>2824555532.9471526</v>
       </c>
       <c r="K107" s="44" t="s">
         <v>148</v>
@@ -5290,7 +5311,7 @@
       </c>
       <c r="J108" s="62">
         <f>J107+J105</f>
-        <v>3197593994.2439399</v>
+        <v>3171255532.9471526</v>
       </c>
       <c r="K108" s="44" t="s">
         <v>143</v>
@@ -5300,7 +5321,7 @@
       </c>
       <c r="M108" s="48">
         <f>M105</f>
-        <v>0.14965125000000001</v>
+        <v>0.15081360000000002</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5315,7 +5336,7 @@
       </c>
       <c r="G110" s="35">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1118144104.6544261</v>
+        <v>1098347294.107646</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5342,7 +5363,7 @@
       </c>
       <c r="G113" s="35">
         <f>G110+G111-G112</f>
-        <v>2054795104.6544261</v>
+        <v>2034998294.107646</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5360,7 +5381,7 @@
       </c>
       <c r="G115" s="52">
         <f>G113/G114</f>
-        <v>11.751999108160099</v>
+        <v>11.638775118399183</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5369,7 +5390,7 @@
       </c>
       <c r="G116" s="53" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>32.99</v>
+        <v>34.65</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5378,7 +5399,7 @@
       </c>
       <c r="G117" s="55">
         <f>G115/G116-1</f>
-        <v>-0.64377086668202188</v>
+        <v>-0.66410461418761368</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/GitLab.xlsx
+++ b/Technology/Software/GitLab.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B42D31-4064-6E45-8068-7C620E41DC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B8CA1C-DDFD-C445-90F4-1B2EFB31B060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="164">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -441,9 +441,6 @@
     <t>CAPEX as % of Revenue</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>Weighted Average Cost of Capital</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -537,25 +531,40 @@
     <t>Equity Value</t>
   </si>
   <si>
+    <t>Intrinsic Value</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Upside/Downside</t>
+  </si>
+  <si>
+    <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forwrard P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
     <t>Shares</t>
-  </si>
-  <si>
-    <t>Intrinsic Value</t>
-  </si>
-  <si>
-    <t>Current Price</t>
-  </si>
-  <si>
-    <t>Upside/Downside</t>
-  </si>
-  <si>
-    <t>Buy/Sell</t>
-  </si>
-  <si>
-    <t>Forwrard P/S</t>
-  </si>
-  <si>
-    <t>Forward P/E</t>
   </si>
 </sst>
 </file>
@@ -977,7 +986,6 @@
     <xf numFmtId="10" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1027,6 +1035,9 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1303,11 +1314,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1347,7 +1358,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$E$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$E$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2086,13 +2097,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2118,6 +2129,66 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2242,11 +2313,9 @@
     <v>Powered by Refinitiv</v>
     <v>70.959999999999994</v>
     <v>26.24</v>
-    <v>2.552</v>
-    <v>1.66</v>
-    <v>5.0317999999999995E-2</v>
-    <v>0.28000000000000003</v>
-    <v>8.0809999999999996E-3</v>
+    <v>2.5630000000000002</v>
+    <v>2.84</v>
+    <v>6.071E-2</v>
     <v>USD</v>
     <v>GitLab Inc. provides DevSecOps Platform, a single application that brings together development, operations, information technology, security, and business teams. The DevSecOps Platform is built on a single codebase, unified data model, and user interface. The Company allows organizations to deploy the DevSecOps Platform as a self-managed offering in their own hybrid-cloud, or on-premises environments, and as a software as a service offering, it is hosted in either the public cloud or in a private cloud based on the customer’s preference. The DevSecOps Platform enables its customers to move their DevOps workflow across any hybrid or multi-cloud environment. Its DevSecOps platform is used by teams of all sizes across a range of industries. It offers the DevSecOps Platform in three different subscription tiers, namely Free, Premium and Ultimate. Its Free tier platform includes significant functionality for individual users and the paid tiers are for managers, directors, and executives.</v>
     <v>2170</v>
@@ -2254,24 +2323,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>268 BUSH STREET, #350, SAN FRANCISCO, CA, 94104 US</v>
-    <v>35.33</v>
+    <v>49.66</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.992559478909</v>
+    <v>45099.998005010937</v>
     <v>0</v>
-    <v>33.06</v>
-    <v>5299943000</v>
+    <v>46.46</v>
+    <v>7581936000</v>
     <v>Gitlab Inc.</v>
     <v>Gitlab Inc.</v>
-    <v>33.21</v>
-    <v>32.99</v>
-    <v>34.65</v>
-    <v>34.93</v>
-    <v>152956500</v>
+    <v>46.74</v>
+    <v>46.78</v>
+    <v>49.62</v>
+    <v>152800000</v>
     <v>GTLB</v>
     <v>Gitlab Inc. (XNAS:GTLB)</v>
-    <v>2288424</v>
-    <v>2337663</v>
+    <v>577</v>
+    <v>3775797</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2303,8 +2371,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2324,7 +2390,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2341,7 +2406,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2352,16 +2417,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2425,19 +2487,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2481,9 +2537,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2491,9 +2544,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2855,10 +2905,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
+      <selection pane="bottomRight" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2906,25 +2956,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -2965,21 +3015,21 @@
         <v>1660000000</v>
       </c>
       <c r="K3" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="M3" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="21">
@@ -3027,7 +3077,7 @@
         <v>0.11129244421654354</v>
       </c>
       <c r="N4" s="19">
-        <f>(E105+D105+C105)/3</f>
+        <f>(E106+D106+C106)/3</f>
         <v>0.17302779161668388</v>
       </c>
       <c r="S4" s="18"/>
@@ -3084,16 +3134,16 @@
         <v>372620000</v>
       </c>
       <c r="K6" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="M6" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="N6" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3126,7 +3176,7 @@
         <v>-0.38634456752297902</v>
       </c>
       <c r="N7" s="20">
-        <f>E106/E3</f>
+        <f>E107/E3</f>
         <v>-0.19674287061041715</v>
       </c>
     </row>
@@ -3149,7 +3199,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="21">
         <f>B8/B3</f>
@@ -3170,16 +3220,16 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="K9" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="M9" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="N9" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3250,21 +3300,21 @@
         <v>427924000</v>
       </c>
       <c r="K12" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="M12" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="N12" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="21">
         <f>B12/B3</f>
@@ -3296,7 +3346,7 @@
         <f>E22/(E72+E56+E61)</f>
         <v>-0.25634120464397225</v>
       </c>
-      <c r="N13" s="57">
+      <c r="N13" s="56">
         <f>E67/E72</f>
         <v>0.41768468277304555</v>
       </c>
@@ -3306,16 +3356,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3336,16 +3386,16 @@
         <v>584067000</v>
       </c>
       <c r="K15" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="M15" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="N15" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3369,17 +3419,17 @@
         <f>(E35+D35+C35+B35)/4</f>
         <v>3.5630976026606309E-2</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="58">
         <f>M101/E3</f>
-        <v>12.491027574829131</v>
-      </c>
-      <c r="M16" s="59">
+        <v>17.869281168984209</v>
+      </c>
+      <c r="M16" s="58">
         <f>M101/E28</f>
-        <v>-32.331314129546257</v>
-      </c>
-      <c r="N16" s="58">
-        <f>M101/E106</f>
-        <v>-63.489098924267473</v>
+        <v>-46.252186962409866</v>
+      </c>
+      <c r="N16" s="57">
+        <f>M101/E107</f>
+        <v>-90.825558829871341</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3387,10 +3437,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1">
         <v>736000</v>
@@ -3404,7 +3454,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1">
         <v>222000</v>
@@ -3416,13 +3466,13 @@
         <v>1208000</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -3441,37 +3491,37 @@
       <c r="E19" s="10">
         <v>-211411000</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="62">
         <v>-55971000</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="62">
         <v>-6754000</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="62">
         <v>48855000</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I19" s="62">
         <v>172900000</v>
       </c>
-      <c r="J19" s="63">
+      <c r="J19" s="62">
         <v>298100000</v>
       </c>
       <c r="K19" s="23">
         <f>E40-E56-E61</f>
         <v>936651000</v>
       </c>
-      <c r="L19" s="59">
+      <c r="L19" s="58">
         <f>M101/F3</f>
-        <v>9.9566842006387368</v>
-      </c>
-      <c r="M19" s="60">
+        <v>14.243727221491641</v>
+      </c>
+      <c r="M19" s="59">
         <f>M101/F28</f>
-        <v>-129.01516553067185</v>
+        <v>-184.565141187926</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="21">
@@ -3524,23 +3574,23 @@
         <f>E19/E3</f>
         <v>-0.49825830780108415</v>
       </c>
-      <c r="F21" s="64">
+      <c r="F21" s="63">
         <f t="shared" ref="F21:J21" si="4">F19/F3</f>
         <v>-0.10514935186924666</v>
       </c>
-      <c r="G21" s="64">
+      <c r="G21" s="63">
         <f t="shared" si="4"/>
         <v>-9.8454810495626818E-3</v>
       </c>
-      <c r="H21" s="64">
+      <c r="H21" s="63">
         <f t="shared" si="4"/>
         <v>5.4556113902847571E-2</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="63">
         <f t="shared" si="4"/>
         <v>0.12951310861423221</v>
       </c>
-      <c r="J21" s="64">
+      <c r="J21" s="63">
         <f t="shared" si="4"/>
         <v>0.17957831325301205</v>
       </c>
@@ -3665,25 +3715,25 @@
       <c r="E28" s="11">
         <v>-163926000</v>
       </c>
-      <c r="F28" s="65">
+      <c r="F28" s="64">
         <v>-41080000</v>
       </c>
-      <c r="G28" s="65">
+      <c r="G28" s="64">
         <v>2900000</v>
       </c>
-      <c r="H28" s="65">
+      <c r="H28" s="64">
         <v>65382000</v>
       </c>
-      <c r="I28" s="65">
+      <c r="I28" s="64">
         <v>264800000</v>
       </c>
-      <c r="J28" s="65">
+      <c r="J28" s="64">
         <v>468200000</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="21">
@@ -3736,23 +3786,23 @@
         <f>E28/E3</f>
         <v>-0.38634456752297902</v>
       </c>
-      <c r="F30" s="64">
+      <c r="F30" s="63">
         <f t="shared" ref="F30:J30" si="6">F28/F3</f>
         <v>-7.7174525643434147E-2</v>
       </c>
-      <c r="G30" s="64">
+      <c r="G30" s="63">
         <f t="shared" si="6"/>
         <v>4.2274052478134113E-3</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="63">
         <f t="shared" si="6"/>
         <v>7.3011725293132324E-2</v>
       </c>
-      <c r="I30" s="64">
+      <c r="I30" s="63">
         <f t="shared" si="6"/>
         <v>0.19835205992509364</v>
       </c>
-      <c r="J30" s="64">
+      <c r="J30" s="63">
         <f t="shared" si="6"/>
         <v>0.28204819277108434</v>
       </c>
@@ -3774,19 +3824,19 @@
         <f>E28/E33</f>
         <v>-1.104570539125513</v>
       </c>
-      <c r="F31" s="66">
+      <c r="F31" s="65">
         <v>-0.27</v>
       </c>
-      <c r="G31" s="66">
+      <c r="G31" s="65">
         <v>1.9E-2</v>
       </c>
-      <c r="H31" s="66">
+      <c r="H31" s="65">
         <v>0.43</v>
       </c>
-      <c r="I31" s="66">
+      <c r="I31" s="65">
         <v>1.73</v>
       </c>
-      <c r="J31" s="66">
+      <c r="J31" s="65">
         <v>3.06</v>
       </c>
     </row>
@@ -3844,7 +3894,7 @@
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -3867,16 +3917,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3884,16 +3934,16 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3918,10 +3968,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1">
         <v>50031000</v>
@@ -3970,16 +4020,16 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4021,10 +4071,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1">
         <v>3271000</v>
@@ -4038,10 +4088,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1">
         <v>8145000</v>
@@ -4055,10 +4105,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1">
         <v>6285000</v>
@@ -4072,10 +4122,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1">
         <v>14430000</v>
@@ -4090,16 +4140,16 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4107,16 +4157,16 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4158,16 +4208,16 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4209,10 +4259,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -4294,10 +4344,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -4328,10 +4378,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1">
         <v>379000</v>
@@ -4379,16 +4429,16 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4413,16 +4463,16 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4515,16 +4565,16 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4532,16 +4582,16 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4565,11 +4615,11 @@
       <c r="A77" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>92</v>
+      <c r="B77" s="1">
+        <v>0</v>
       </c>
       <c r="C77" s="1">
-        <v>222000</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
         <v>1208000</v>
@@ -4583,13 +4633,13 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1">
         <v>-2898000</v>
@@ -4614,7 +4664,7 @@
     </row>
     <row r="80" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" s="21">
         <f t="shared" ref="B80:E80" si="8">B79/B3</f>
@@ -4646,7 +4696,9 @@
       <c r="D81" s="1">
         <v>22575000</v>
       </c>
-      <c r="E81" s="1"/>
+      <c r="E81" s="1">
+        <v>22575000</v>
+      </c>
     </row>
     <row r="82" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -4670,19 +4722,19 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M83" s="70"/>
     </row>
@@ -4703,7 +4755,7 @@
         <v>5184000</v>
       </c>
       <c r="L84" s="71" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M84" s="72"/>
     </row>
@@ -4722,7 +4774,7 @@
       </c>
       <c r="E85" s="1"/>
       <c r="L85" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M85" s="28">
         <f>E17</f>
@@ -4746,7 +4798,7 @@
         <v>-594000</v>
       </c>
       <c r="L86" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M86" s="28">
         <f>E56</f>
@@ -4770,7 +4822,7 @@
         <v>-77408000</v>
       </c>
       <c r="L87" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M87" s="28">
         <f>E61</f>
@@ -4781,11 +4833,11 @@
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>92</v>
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
       </c>
       <c r="D88" s="1">
         <v>-3541000</v>
@@ -4794,7 +4846,7 @@
         <v>-6070000</v>
       </c>
       <c r="L88" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M88" s="30">
         <v>0</v>
@@ -4802,15 +4854,15 @@
     </row>
     <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B89" s="21" t="e">
+        <v>121</v>
+      </c>
+      <c r="B89" s="21">
         <f t="shared" ref="B89:E89" si="9">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="C89" s="21">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="D89" s="21">
         <f t="shared" si="9"/>
@@ -4823,7 +4875,7 @@
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
       <c r="L89" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M89" s="28">
         <f>E27</f>
@@ -4835,10 +4887,10 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1">
         <v>-323000</v>
@@ -4859,10 +4911,10 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1">
         <v>-100031000</v>
@@ -4871,7 +4923,7 @@
         <v>-821622000</v>
       </c>
       <c r="L91" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M91" s="30">
         <f>M89/M90</f>
@@ -4883,10 +4935,10 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1">
         <v>50000000</v>
@@ -4895,7 +4947,7 @@
         <v>231626000</v>
       </c>
       <c r="L92" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M92" s="32">
         <f>M88*(1-M91)</f>
@@ -4907,19 +4959,19 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>-842000</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1">
         <v>-9620000</v>
       </c>
       <c r="L93" s="73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M93" s="74"/>
     </row>
@@ -4928,7 +4980,7 @@
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10">
         <v>-842000</v>
@@ -4940,10 +4992,11 @@
         <v>-605686000</v>
       </c>
       <c r="L94" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M94" s="33">
-        <v>4.095E-2</v>
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4951,23 +5004,23 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M95" s="34" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.552</v>
+        <v>2.5630000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4975,10 +5028,10 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>654552000</v>
@@ -4987,7 +5040,7 @@
         <v>38983000</v>
       </c>
       <c r="L96" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M96" s="33">
         <v>8.4000000000000005E-2</v>
@@ -4998,7 +5051,7 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1">
         <v>-820000</v>
@@ -5010,11 +5063,11 @@
         <v>0</v>
       </c>
       <c r="L97" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M97" s="32">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.15081360000000002</v>
+        <v>0.15710151000000003</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5022,19 +5075,19 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M98" s="74"/>
     </row>
@@ -5055,7 +5108,7 @@
         <v>64863000</v>
       </c>
       <c r="L99" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M99" s="28">
         <f>M86+M87</f>
@@ -5079,7 +5132,7 @@
         <v>97482000</v>
       </c>
       <c r="L100" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M100" s="30">
         <f>M99/M103</f>
@@ -5103,11 +5156,11 @@
         <v>-3658000</v>
       </c>
       <c r="L101" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M101" s="35" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>5299943000</v>
+        <v>7581936000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5127,7 +5180,7 @@
         <v>-589270000</v>
       </c>
       <c r="L102" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M102" s="30">
         <f>M101/M103</f>
@@ -5151,11 +5204,11 @@
         <v>887172000</v>
       </c>
       <c r="L103" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M103" s="36">
         <f>M99+M101</f>
-        <v>5299943000</v>
+        <v>7581936000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5175,94 +5228,98 @@
         <v>297902000</v>
       </c>
       <c r="L104" s="73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M104" s="74"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="21">
-        <f>(C106/B106)-1</f>
-        <v>0.2384569358109232</v>
-      </c>
-      <c r="D105" s="21">
-        <f>(D106/C106)-1</f>
-        <v>-0.28395045159904986</v>
-      </c>
-      <c r="E105" s="21">
-        <f>(E106/D106)-1</f>
-        <v>0.56457689063817829</v>
-      </c>
-      <c r="F105" s="61">
-        <v>-26537000</v>
-      </c>
-      <c r="G105" s="61">
-        <v>37560000</v>
-      </c>
-      <c r="H105" s="61">
-        <v>102500000</v>
-      </c>
-      <c r="I105" s="61">
-        <v>282900000</v>
-      </c>
-      <c r="J105" s="61">
-        <v>346700000</v>
-      </c>
-      <c r="K105" s="21"/>
+        <v>158</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:D105" si="10">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>-85329600</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>-159166200</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>-82923600</v>
+      </c>
+      <c r="E105" s="1">
+        <f>(E22*(1-0.2))+E77+E88+E81</f>
+        <v>-102072800</v>
+      </c>
+      <c r="F105" s="39">
+        <f>E105*(1+$M$106)</f>
+        <v>-134387218.92839193</v>
+      </c>
+      <c r="G105" s="39">
+        <f t="shared" ref="G105:J105" si="11">F105*(1+$M$106)</f>
+        <v>-176931803.68626651</v>
+      </c>
+      <c r="H105" s="39">
+        <f t="shared" si="11"/>
+        <v>-232945241.40987179</v>
+      </c>
+      <c r="I105" s="39">
+        <f t="shared" si="11"/>
+        <v>-306691529.53260368</v>
+      </c>
+      <c r="J105" s="39">
+        <f t="shared" si="11"/>
+        <v>-403784570.64743394</v>
+      </c>
+      <c r="K105" s="40" t="s">
+        <v>161</v>
+      </c>
       <c r="L105" s="37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M105" s="38">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.15081360000000002</v>
+        <v>0.15710151000000003</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-60166000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-74513000</v>
-      </c>
-      <c r="D106" s="1">
-        <f>+D87+D88</f>
-        <v>-53355000</v>
-      </c>
-      <c r="E106" s="1">
-        <f>+E87+E88</f>
-        <v>-83478000</v>
-      </c>
-      <c r="F106" s="39">
-        <f>E106*(1+$M$106)</f>
-        <v>-109905638.54135776</v>
-      </c>
-      <c r="G106" s="39">
-        <f t="shared" ref="G106:J106" si="10">F106*(1+$M$106)</f>
-        <v>-144699793.75624216</v>
-      </c>
-      <c r="H106" s="39">
-        <f t="shared" si="10"/>
-        <v>-190509154.8621501</v>
-      </c>
-      <c r="I106" s="39">
-        <f t="shared" si="10"/>
-        <v>-250820938.60776514</v>
-      </c>
-      <c r="J106" s="39">
-        <f t="shared" si="10"/>
-        <v>-330226352.05957401</v>
+      <c r="A106" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="21">
+        <f>(C107/B107)-1</f>
+        <v>0.2384569358109232</v>
+      </c>
+      <c r="D106" s="21">
+        <f>(D107/C107)-1</f>
+        <v>-0.28395045159904986</v>
+      </c>
+      <c r="E106" s="21">
+        <f>(E107/D107)-1</f>
+        <v>0.56457689063817829</v>
+      </c>
+      <c r="F106" s="60">
+        <v>1412000</v>
+      </c>
+      <c r="G106" s="60">
+        <v>27482000</v>
+      </c>
+      <c r="H106" s="60">
+        <v>115500000</v>
+      </c>
+      <c r="I106" s="60">
+        <v>253500000</v>
+      </c>
+      <c r="J106" s="60">
+        <v>331300000</v>
       </c>
       <c r="K106" s="40" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="L106" s="41" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M106" s="42">
         <f>(SUM(F4:J4)/5)</f>
@@ -5270,78 +5327,91 @@
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
+      <c r="A107" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-60166000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-74513000</v>
+      </c>
+      <c r="D107" s="1">
+        <f>+D87+D88</f>
+        <v>-53355000</v>
+      </c>
+      <c r="E107" s="1">
+        <f>+E87+E88</f>
+        <v>-83478000</v>
+      </c>
       <c r="F107" s="40"/>
       <c r="G107" s="40"/>
       <c r="H107" s="40"/>
       <c r="I107" s="40"/>
-      <c r="J107" s="62">
-        <f>J105*(1+M107)/(M108-M107)</f>
-        <v>2824555532.9471526</v>
-      </c>
-      <c r="K107" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="L107" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="M107" s="46">
+      <c r="J107" s="61">
+        <f>J106*(1+M107)/(M108-M107)</f>
+        <v>2570617852.892067</v>
+      </c>
+      <c r="K107" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="L107" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="M107" s="45">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="43">
-        <f t="shared" ref="F108:H108" si="11">F107+F106</f>
-        <v>-109905638.54135776</v>
-      </c>
-      <c r="G108" s="43">
-        <f t="shared" si="11"/>
-        <v>-144699793.75624216</v>
-      </c>
-      <c r="H108" s="43">
-        <f t="shared" si="11"/>
-        <v>-190509154.8621501</v>
-      </c>
-      <c r="I108" s="43">
-        <f>I107+I106</f>
-        <v>-250820938.60776514</v>
-      </c>
-      <c r="J108" s="62">
-        <f>J107+J105</f>
-        <v>3171255532.9471526</v>
-      </c>
-      <c r="K108" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="L108" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="M108" s="48">
+      <c r="F108" s="61">
+        <f t="shared" ref="F108:I108" si="12">F107+F106</f>
+        <v>1412000</v>
+      </c>
+      <c r="G108" s="61">
+        <f t="shared" si="12"/>
+        <v>27482000</v>
+      </c>
+      <c r="H108" s="61">
+        <f t="shared" si="12"/>
+        <v>115500000</v>
+      </c>
+      <c r="I108" s="61">
+        <f t="shared" si="12"/>
+        <v>253500000</v>
+      </c>
+      <c r="J108" s="61">
+        <f>J107+J106</f>
+        <v>2901917852.892067</v>
+      </c>
+      <c r="K108" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="L108" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="M108" s="47">
         <f>M105</f>
-        <v>0.15081360000000002</v>
+        <v>0.15710151000000003</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="F109" s="67" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G109" s="68"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="49" t="s">
-        <v>152</v>
+      <c r="F110" s="48" t="s">
+        <v>149</v>
       </c>
       <c r="G110" s="35">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1098347294.107646</v>
+        <v>1636746204.7573295</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="49" t="s">
-        <v>153</v>
+      <c r="F111" s="48" t="s">
+        <v>150</v>
       </c>
       <c r="G111" s="35">
         <f>E40</f>
@@ -5349,8 +5419,8 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="49" t="s">
-        <v>139</v>
+      <c r="F112" s="48" t="s">
+        <v>137</v>
       </c>
       <c r="G112" s="35">
         <f>M99</f>
@@ -5358,55 +5428,55 @@
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="49" t="s">
-        <v>154</v>
+      <c r="F113" s="48" t="s">
+        <v>151</v>
       </c>
       <c r="G113" s="35">
         <f>G110+G111-G112</f>
-        <v>2034998294.107646</v>
+        <v>2573397204.7573295</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="49" t="s">
+      <c r="F114" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="G114" s="49">
+        <f>E34*(1+(K16*5))</f>
+        <v>174846431.29590282</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F115" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="G115" s="51">
+        <f>G113/G114</f>
+        <v>14.718042488394969</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F116" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="G116" s="52" cm="1">
+        <f t="array" ref="G116">_FV(A1,"Price")</f>
+        <v>49.62</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F117" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="G117" s="54">
+        <f>G115/G116-1</f>
+        <v>-0.70338487528426097</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="F118" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="G114" s="50">
-        <f>E34*(1+(5*K16))</f>
-        <v>174846431.29590282</v>
-      </c>
-    </row>
-    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="G115" s="52">
-        <f>G113/G114</f>
-        <v>11.638775118399183</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="G116" s="53" cm="1">
-        <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>34.65</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="G117" s="55">
-        <f>G115/G116-1</f>
-        <v>-0.66410461418761368</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="G118" s="56" t="str">
+      <c r="G118" s="55" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -5431,8 +5501,9 @@
     <hyperlink ref="E36" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1653482/000162828022008836/0001628280-22-008836-index.htm" xr:uid="{77B2AA91-8827-AC4D-AB5E-B49059783610}"/>
     <hyperlink ref="E74" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1653482/000162828022008836/0001628280-22-008836-index.htm" xr:uid="{D293EFDC-4382-7444-9697-0AC75A07AEA2}"/>
     <hyperlink ref="F1" r:id="rId10" display="https://finbox.com/NASDAQGS:GTLB/explorer/revenue_proj" xr:uid="{F61AC281-E4D5-F942-A40A-39B98A43479A}"/>
+    <hyperlink ref="K106" r:id="rId11" xr:uid="{1BF62182-3CD0-324D-8ADF-CE3D0CD9B98F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Technology/Software/GitLab.xlsx
+++ b/Technology/Software/GitLab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B8CA1C-DDFD-C445-90F4-1B2EFB31B060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D603F4-2F2B-FC4E-9AB3-CDB12AC39E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -565,18 +565,28 @@
   </si>
   <si>
     <t>Shares</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -908,7 +918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1061,6 +1071,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2149,12 +2165,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2171,14 +2188,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2186,6 +2203,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2313,9 +2331,11 @@
     <v>Powered by Refinitiv</v>
     <v>70.959999999999994</v>
     <v>26.24</v>
-    <v>2.5630000000000002</v>
-    <v>2.84</v>
-    <v>6.071E-2</v>
+    <v>2.5710000000000002</v>
+    <v>0.4</v>
+    <v>8.2199999999999999E-3</v>
+    <v>-0.06</v>
+    <v>-1.2230000000000001E-3</v>
     <v>USD</v>
     <v>GitLab Inc. provides DevSecOps Platform, a single application that brings together development, operations, information technology, security, and business teams. The DevSecOps Platform is built on a single codebase, unified data model, and user interface. The Company allows organizations to deploy the DevSecOps Platform as a self-managed offering in their own hybrid-cloud, or on-premises environments, and as a software as a service offering, it is hosted in either the public cloud or in a private cloud based on the customer’s preference. The DevSecOps Platform enables its customers to move their DevOps workflow across any hybrid or multi-cloud environment. Its DevSecOps platform is used by teams of all sizes across a range of industries. It offers the DevSecOps Platform in three different subscription tiers, namely Free, Premium and Ultimate. Its Free tier platform includes significant functionality for individual users and the paid tiers are for managers, directors, and executives.</v>
     <v>2170</v>
@@ -2323,23 +2343,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>268 BUSH STREET, #350, SAN FRANCISCO, CA, 94104 US</v>
-    <v>49.66</v>
+    <v>50.4099</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.998005010937</v>
+    <v>45103.922889907029</v>
     <v>0</v>
-    <v>46.46</v>
-    <v>7581936000</v>
+    <v>47.62</v>
+    <v>7496368000</v>
     <v>Gitlab Inc.</v>
     <v>Gitlab Inc.</v>
-    <v>46.74</v>
-    <v>46.78</v>
-    <v>49.62</v>
+    <v>47.94</v>
+    <v>48.66</v>
+    <v>49.06</v>
+    <v>49</v>
     <v>152800000</v>
     <v>GTLB</v>
     <v>Gitlab Inc. (XNAS:GTLB)</v>
-    <v>577</v>
-    <v>3775797</v>
+    <v>1834580</v>
+    <v>4037187</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2371,6 +2392,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2390,6 +2413,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2406,7 +2430,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2417,13 +2441,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2487,13 +2514,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2537,6 +2570,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2544,6 +2580,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2905,10 +2944,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H98" sqref="H98"/>
+      <selection pane="bottomRight" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3421,18 +3460,18 @@
       </c>
       <c r="L16" s="58">
         <f>M101/E3</f>
-        <v>17.869281168984209</v>
+        <v>17.667612538298375</v>
       </c>
       <c r="M16" s="58">
         <f>M101/E28</f>
-        <v>-46.252186962409866</v>
+        <v>-45.730195332040068</v>
       </c>
       <c r="N16" s="57">
         <f>M101/E107</f>
-        <v>-90.825558829871341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+        <v>-89.80052229329884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3449,7 +3488,7 @@
         <v>14496000</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3474,8 +3513,11 @@
       <c r="M18" s="17" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="N18" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3512,14 +3554,18 @@
       </c>
       <c r="L19" s="58">
         <f>M101/F3</f>
-        <v>14.243727221491641</v>
+        <v>14.082975765545745</v>
       </c>
       <c r="M19" s="59">
         <f>M101/F28</f>
-        <v>-184.565141187926</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-182.48218111002922</v>
+      </c>
+      <c r="N19" s="57">
+        <f>M101/F106</f>
+        <v>5309.0424929178471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>117</v>
       </c>
@@ -3557,7 +3603,7 @@
         <v>0.72411798727588206</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3594,8 +3640,14 @@
         <f t="shared" si="4"/>
         <v>0.17957831325301205</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="M21" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3611,8 +3663,16 @@
       <c r="E22" s="10">
         <v>-211411000</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="M22" s="75">
+        <f>(-1*E98)/M101</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="76">
+        <f>E107/M101</f>
+        <v>-1.1135792693208231E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3630,7 +3690,7 @@
         <v>-0.49825830780108415</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3647,7 +3707,7 @@
         <v>36081000</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3664,7 +3724,7 @@
         <v>-177798000</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3682,7 +3742,7 @@
         <v>-0.41903841621494226</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3699,7 +3759,7 @@
         <v>2898000</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3731,7 +3791,7 @@
         <v>468200000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>118</v>
       </c>
@@ -3769,7 +3829,7 @@
         <v>0.76812688821752273</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3807,7 +3867,7 @@
         <v>0.28204819277108434</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3840,7 +3900,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4996,7 +5056,7 @@
       </c>
       <c r="M94" s="33">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5020,7 +5080,7 @@
       </c>
       <c r="M95" s="34" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.5630000000000002</v>
+        <v>2.5710000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5067,7 +5127,7 @@
       </c>
       <c r="M97" s="32">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.15710151000000003</v>
+        <v>0.15722431000000003</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5083,8 +5143,8 @@
       <c r="D98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>91</v>
+      <c r="E98" s="1">
+        <v>0</v>
       </c>
       <c r="L98" s="73" t="s">
         <v>136</v>
@@ -5160,7 +5220,7 @@
       </c>
       <c r="M101" s="35" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>7581936000</v>
+        <v>7496368000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5208,7 +5268,7 @@
       </c>
       <c r="M103" s="36">
         <f>M99+M101</f>
-        <v>7581936000</v>
+        <v>7496368000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5280,7 +5340,7 @@
       </c>
       <c r="M105" s="38">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.15710151000000003</v>
+        <v>0.15722431000000003</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5350,7 +5410,7 @@
       <c r="I107" s="40"/>
       <c r="J107" s="61">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>2570617852.892067</v>
+        <v>2568230456.2602739</v>
       </c>
       <c r="K107" s="43" t="s">
         <v>145</v>
@@ -5381,7 +5441,7 @@
       </c>
       <c r="J108" s="61">
         <f>J107+J106</f>
-        <v>2901917852.892067</v>
+        <v>2899530456.2602739</v>
       </c>
       <c r="K108" s="43" t="s">
         <v>141</v>
@@ -5391,7 +5451,7 @@
       </c>
       <c r="M108" s="47">
         <f>M105</f>
-        <v>0.15710151000000003</v>
+        <v>0.15722431000000003</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5406,7 +5466,7 @@
       </c>
       <c r="G110" s="35">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1636746204.7573295</v>
+        <v>1634765463.0675325</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5433,7 +5493,7 @@
       </c>
       <c r="G113" s="35">
         <f>G110+G111-G112</f>
-        <v>2573397204.7573295</v>
+        <v>2571416463.0675325</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5451,7 +5511,7 @@
       </c>
       <c r="G115" s="51">
         <f>G113/G114</f>
-        <v>14.718042488394969</v>
+        <v>14.706714023323554</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5460,7 +5520,7 @@
       </c>
       <c r="G116" s="52" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>49.62</v>
+        <v>49.06</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5469,7 +5529,7 @@
       </c>
       <c r="G117" s="54">
         <f>G115/G116-1</f>
-        <v>-0.70338487528426097</v>
+        <v>-0.70023004436764058</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/GitLab.xlsx
+++ b/Technology/Software/GitLab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D603F4-2F2B-FC4E-9AB3-CDB12AC39E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F2D10C-FC9B-2047-93B2-9DB0D74977D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -749,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -860,65 +860,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -968,64 +915,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1048,35 +941,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1128,7 +1053,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>GTLB</a:t>
+              <a:t>GitLab</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2113,13 +2038,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2191,7 +2116,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2331,11 +2256,11 @@
     <v>Powered by Refinitiv</v>
     <v>70.959999999999994</v>
     <v>26.24</v>
-    <v>2.5710000000000002</v>
-    <v>0.4</v>
-    <v>8.2199999999999999E-3</v>
-    <v>-0.06</v>
-    <v>-1.2230000000000001E-3</v>
+    <v>2.5739999999999998</v>
+    <v>1.61</v>
+    <v>3.2524999999999998E-2</v>
+    <v>0.37</v>
+    <v>7.2389999999999998E-3</v>
     <v>USD</v>
     <v>GitLab Inc. provides DevSecOps Platform, a single application that brings together development, operations, information technology, security, and business teams. The DevSecOps Platform is built on a single codebase, unified data model, and user interface. The Company allows organizations to deploy the DevSecOps Platform as a self-managed offering in their own hybrid-cloud, or on-premises environments, and as a software as a service offering, it is hosted in either the public cloud or in a private cloud based on the customer’s preference. The DevSecOps Platform enables its customers to move their DevOps workflow across any hybrid or multi-cloud environment. Its DevSecOps platform is used by teams of all sizes across a range of industries. It offers the DevSecOps Platform in three different subscription tiers, namely Free, Premium and Ultimate. Its Free tier platform includes significant functionality for individual users and the paid tiers are for managers, directors, and executives.</v>
     <v>2170</v>
@@ -2343,24 +2268,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>268 BUSH STREET, #350, SAN FRANCISCO, CA, 94104 US</v>
-    <v>50.4099</v>
+    <v>51.45</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45103.922889907029</v>
+    <v>45107.975274733595</v>
     <v>0</v>
-    <v>47.62</v>
-    <v>7496368000</v>
+    <v>50.03</v>
+    <v>7809608000</v>
     <v>Gitlab Inc.</v>
     <v>Gitlab Inc.</v>
-    <v>47.94</v>
-    <v>48.66</v>
-    <v>49.06</v>
-    <v>49</v>
+    <v>50.03</v>
+    <v>49.5</v>
+    <v>51.11</v>
+    <v>51.48</v>
     <v>152800000</v>
     <v>GTLB</v>
     <v>Gitlab Inc. (XNAS:GTLB)</v>
-    <v>1834580</v>
-    <v>4037187</v>
+    <v>1791087</v>
+    <v>4009457</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2944,10 +2869,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H95" sqref="H95"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3385,7 +3310,7 @@
         <f>E22/(E72+E56+E61)</f>
         <v>-0.25634120464397225</v>
       </c>
-      <c r="N13" s="56">
+      <c r="N13" s="30">
         <f>E67/E72</f>
         <v>0.41768468277304555</v>
       </c>
@@ -3458,17 +3383,17 @@
         <f>(E35+D35+C35+B35)/4</f>
         <v>3.5630976026606309E-2</v>
       </c>
-      <c r="L16" s="58">
+      <c r="L16" s="32">
         <f>M101/E3</f>
-        <v>17.667612538298375</v>
-      </c>
-      <c r="M16" s="58">
+        <v>18.405863775630451</v>
+      </c>
+      <c r="M16" s="32">
         <f>M101/E28</f>
-        <v>-45.730195332040068</v>
-      </c>
-      <c r="N16" s="57">
+        <v>-47.641057550358092</v>
+      </c>
+      <c r="N16" s="31">
         <f>M101/E107</f>
-        <v>-89.80052229329884</v>
+        <v>-93.552888186108916</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3533,36 +3458,36 @@
       <c r="E19" s="10">
         <v>-211411000</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="36">
         <v>-55971000</v>
       </c>
-      <c r="G19" s="62">
+      <c r="G19" s="36">
         <v>-6754000</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="36">
         <v>48855000</v>
       </c>
-      <c r="I19" s="62">
+      <c r="I19" s="36">
         <v>172900000</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="36">
         <v>298100000</v>
       </c>
       <c r="K19" s="23">
         <f>E40-E56-E61</f>
         <v>936651000</v>
       </c>
-      <c r="L19" s="58">
+      <c r="L19" s="32">
         <f>M101/F3</f>
-        <v>14.082975765545745</v>
-      </c>
-      <c r="M19" s="59">
+        <v>14.671440916776254</v>
+      </c>
+      <c r="M19" s="33">
         <f>M101/F28</f>
-        <v>-182.48218111002922</v>
-      </c>
-      <c r="N19" s="57">
+        <v>-190.10730282375852</v>
+      </c>
+      <c r="N19" s="31">
         <f>M101/F106</f>
-        <v>5309.0424929178471</v>
+        <v>5530.8838526912177</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3620,23 +3545,23 @@
         <f>E19/E3</f>
         <v>-0.49825830780108415</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="37">
         <f t="shared" ref="F21:J21" si="4">F19/F3</f>
         <v>-0.10514935186924666</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="37">
         <f t="shared" si="4"/>
         <v>-9.8454810495626818E-3</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="37">
         <f t="shared" si="4"/>
         <v>5.4556113902847571E-2</v>
       </c>
-      <c r="I21" s="63">
+      <c r="I21" s="37">
         <f t="shared" si="4"/>
         <v>0.12951310861423221</v>
       </c>
-      <c r="J21" s="63">
+      <c r="J21" s="37">
         <f t="shared" si="4"/>
         <v>0.17957831325301205</v>
       </c>
@@ -3663,13 +3588,13 @@
       <c r="E22" s="10">
         <v>-211411000</v>
       </c>
-      <c r="M22" s="75">
+      <c r="M22" s="41">
         <f>(-1*E98)/M101</f>
         <v>0</v>
       </c>
-      <c r="N22" s="76">
+      <c r="N22" s="42">
         <f>E107/M101</f>
-        <v>-1.1135792693208231E-2</v>
+        <v>-1.0689140863408253E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3775,19 +3700,19 @@
       <c r="E28" s="11">
         <v>-163926000</v>
       </c>
-      <c r="F28" s="64">
+      <c r="F28" s="38">
         <v>-41080000</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="38">
         <v>2900000</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="38">
         <v>65382000</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="38">
         <v>264800000</v>
       </c>
-      <c r="J28" s="64">
+      <c r="J28" s="38">
         <v>468200000</v>
       </c>
     </row>
@@ -3846,23 +3771,23 @@
         <f>E28/E3</f>
         <v>-0.38634456752297902</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="37">
         <f t="shared" ref="F30:J30" si="6">F28/F3</f>
         <v>-7.7174525643434147E-2</v>
       </c>
-      <c r="G30" s="63">
+      <c r="G30" s="37">
         <f t="shared" si="6"/>
         <v>4.2274052478134113E-3</v>
       </c>
-      <c r="H30" s="63">
+      <c r="H30" s="37">
         <f t="shared" si="6"/>
         <v>7.3011725293132324E-2</v>
       </c>
-      <c r="I30" s="63">
+      <c r="I30" s="37">
         <f t="shared" si="6"/>
         <v>0.19835205992509364</v>
       </c>
-      <c r="J30" s="63">
+      <c r="J30" s="37">
         <f t="shared" si="6"/>
         <v>0.28204819277108434</v>
       </c>
@@ -3884,19 +3809,19 @@
         <f>E28/E33</f>
         <v>-1.104570539125513</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="39">
         <v>-0.27</v>
       </c>
-      <c r="G31" s="65">
+      <c r="G31" s="39">
         <v>1.9E-2</v>
       </c>
-      <c r="H31" s="65">
+      <c r="H31" s="39">
         <v>0.43</v>
       </c>
-      <c r="I31" s="65">
+      <c r="I31" s="39">
         <v>1.73</v>
       </c>
-      <c r="J31" s="65">
+      <c r="J31" s="39">
         <v>3.06</v>
       </c>
     </row>
@@ -4793,10 +4718,10 @@
       <c r="E83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L83" s="69" t="s">
+      <c r="L83" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="M83" s="70"/>
+      <c r="M83" s="66"/>
     </row>
     <row r="84" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4814,10 +4739,10 @@
       <c r="E84" s="1">
         <v>5184000</v>
       </c>
-      <c r="L84" s="71" t="s">
+      <c r="L84" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="M84" s="72"/>
+      <c r="M84" s="67"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4833,10 +4758,10 @@
         <v>56254000</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="L85" s="27" t="s">
+      <c r="L85" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="M85" s="28">
+      <c r="M85" s="51">
         <f>E17</f>
         <v>14496000</v>
       </c>
@@ -4857,10 +4782,10 @@
       <c r="E86" s="1">
         <v>-594000</v>
       </c>
-      <c r="L86" s="27" t="s">
+      <c r="L86" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="M86" s="28">
+      <c r="M86" s="51">
         <f>E56</f>
         <v>0</v>
       </c>
@@ -4881,10 +4806,10 @@
       <c r="E87" s="10">
         <v>-77408000</v>
       </c>
-      <c r="L87" s="27" t="s">
+      <c r="L87" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="M87" s="28">
+      <c r="M87" s="51">
         <f>E61</f>
         <v>0</v>
       </c>
@@ -4905,10 +4830,10 @@
       <c r="E88" s="1">
         <v>-6070000</v>
       </c>
-      <c r="L88" s="29" t="s">
+      <c r="L88" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="M88" s="30">
+      <c r="M88" s="53">
         <v>0</v>
       </c>
     </row>
@@ -4934,10 +4859,10 @@
       </c>
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
-      <c r="L89" s="27" t="s">
+      <c r="L89" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="M89" s="28">
+      <c r="M89" s="51">
         <f>E27</f>
         <v>2898000</v>
       </c>
@@ -4958,10 +4883,10 @@
       <c r="E90" s="1">
         <v>0</v>
       </c>
-      <c r="L90" s="27" t="s">
+      <c r="L90" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="M90" s="28">
+      <c r="M90" s="51">
         <f>E25</f>
         <v>-177798000</v>
       </c>
@@ -4982,10 +4907,10 @@
       <c r="E91" s="1">
         <v>-821622000</v>
       </c>
-      <c r="L91" s="29" t="s">
+      <c r="L91" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="M91" s="30">
+      <c r="M91" s="53">
         <f>M89/M90</f>
         <v>-1.6299395943711402E-2</v>
       </c>
@@ -5006,10 +4931,10 @@
       <c r="E92" s="1">
         <v>231626000</v>
       </c>
-      <c r="L92" s="31" t="s">
+      <c r="L92" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="M92" s="32">
+      <c r="M92" s="53">
         <f>M88*(1-M91)</f>
         <v>0</v>
       </c>
@@ -5030,10 +4955,10 @@
       <c r="E93" s="1">
         <v>-9620000</v>
       </c>
-      <c r="L93" s="73" t="s">
+      <c r="L93" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="M93" s="74"/>
+      <c r="M93" s="68"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5051,12 +4976,12 @@
       <c r="E94" s="10">
         <v>-605686000</v>
       </c>
-      <c r="L94" s="27" t="s">
+      <c r="L94" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="M94" s="33">
+      <c r="M94" s="54">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5075,12 +5000,12 @@
       <c r="E95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L95" s="27" t="s">
+      <c r="L95" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="M95" s="34" cm="1">
+      <c r="M95" s="55" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.5710000000000002</v>
+        <v>2.5739999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5099,10 +5024,10 @@
       <c r="E96" s="1">
         <v>38983000</v>
       </c>
-      <c r="L96" s="27" t="s">
+      <c r="L96" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="M96" s="33">
+      <c r="M96" s="54">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5122,12 +5047,12 @@
       <c r="E97" s="1">
         <v>0</v>
       </c>
-      <c r="L97" s="31" t="s">
+      <c r="L97" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="M97" s="32">
+      <c r="M97" s="53">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.15722431000000003</v>
+        <v>0.15555404</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5146,10 +5071,10 @@
       <c r="E98" s="1">
         <v>0</v>
       </c>
-      <c r="L98" s="73" t="s">
+      <c r="L98" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="M98" s="74"/>
+      <c r="M98" s="68"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5167,10 +5092,10 @@
       <c r="E99" s="1">
         <v>64863000</v>
       </c>
-      <c r="L99" s="27" t="s">
+      <c r="L99" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="M99" s="28">
+      <c r="M99" s="51">
         <f>M86+M87</f>
         <v>0</v>
       </c>
@@ -5191,10 +5116,10 @@
       <c r="E100" s="10">
         <v>97482000</v>
       </c>
-      <c r="L100" s="29" t="s">
+      <c r="L100" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="M100" s="30">
+      <c r="M100" s="53">
         <f>M99/M103</f>
         <v>0</v>
       </c>
@@ -5215,12 +5140,12 @@
       <c r="E101" s="1">
         <v>-3658000</v>
       </c>
-      <c r="L101" s="27" t="s">
+      <c r="L101" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="M101" s="35" cm="1">
+      <c r="M101" s="44" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>7496368000</v>
+        <v>7809608000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5239,10 +5164,10 @@
       <c r="E102" s="10">
         <v>-589270000</v>
       </c>
-      <c r="L102" s="29" t="s">
+      <c r="L102" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="M102" s="30">
+      <c r="M102" s="53">
         <f>M101/M103</f>
         <v>1</v>
       </c>
@@ -5263,12 +5188,12 @@
       <c r="E103" s="1">
         <v>887172000</v>
       </c>
-      <c r="L103" s="31" t="s">
+      <c r="L103" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="M103" s="36">
+      <c r="M103" s="56">
         <f>M99+M101</f>
-        <v>7496368000</v>
+        <v>7809608000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5287,10 +5212,10 @@
       <c r="E104" s="11">
         <v>297902000</v>
       </c>
-      <c r="L104" s="73" t="s">
+      <c r="L104" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="M104" s="74"/>
+      <c r="M104" s="68"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
@@ -5312,35 +5237,35 @@
         <f>(E22*(1-0.2))+E77+E88+E81</f>
         <v>-102072800</v>
       </c>
-      <c r="F105" s="39">
+      <c r="F105" s="27">
         <f>E105*(1+$M$106)</f>
         <v>-134387218.92839193</v>
       </c>
-      <c r="G105" s="39">
+      <c r="G105" s="27">
         <f t="shared" ref="G105:J105" si="11">F105*(1+$M$106)</f>
         <v>-176931803.68626651</v>
       </c>
-      <c r="H105" s="39">
+      <c r="H105" s="27">
         <f t="shared" si="11"/>
         <v>-232945241.40987179</v>
       </c>
-      <c r="I105" s="39">
+      <c r="I105" s="27">
         <f t="shared" si="11"/>
         <v>-306691529.53260368</v>
       </c>
-      <c r="J105" s="39">
+      <c r="J105" s="27">
         <f t="shared" si="11"/>
         <v>-403784570.64743394</v>
       </c>
-      <c r="K105" s="40" t="s">
+      <c r="K105" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="L105" s="37" t="s">
+      <c r="L105" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="M105" s="38">
+      <c r="M105" s="58">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.15722431000000003</v>
+        <v>0.15555404</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5360,34 +5285,34 @@
         <f>(E107/D107)-1</f>
         <v>0.56457689063817829</v>
       </c>
-      <c r="F106" s="60">
+      <c r="F106" s="34">
         <v>1412000</v>
       </c>
-      <c r="G106" s="60">
+      <c r="G106" s="34">
         <v>27482000</v>
       </c>
-      <c r="H106" s="60">
+      <c r="H106" s="34">
         <v>115500000</v>
       </c>
-      <c r="I106" s="60">
+      <c r="I106" s="34">
         <v>253500000</v>
       </c>
-      <c r="J106" s="60">
+      <c r="J106" s="34">
         <v>331300000</v>
       </c>
-      <c r="K106" s="40" t="s">
+      <c r="K106" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="L106" s="41" t="s">
+      <c r="L106" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="M106" s="42">
+      <c r="M106" s="60">
         <f>(SUM(F4:J4)/5)</f>
         <v>0.31658207601233573</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="66" t="s">
+      <c r="A107" s="40" t="s">
         <v>160</v>
       </c>
       <c r="B107" s="1">
@@ -5404,139 +5329,139 @@
         <f>+E87+E88</f>
         <v>-83478000</v>
       </c>
-      <c r="F107" s="40"/>
-      <c r="G107" s="40"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="61">
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="35">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>2568230456.2602739</v>
-      </c>
-      <c r="K107" s="43" t="s">
+        <v>2601087641.5620685</v>
+      </c>
+      <c r="K107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="L107" s="44" t="s">
+      <c r="L107" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="M107" s="45">
+      <c r="M107" s="62">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="61">
+      <c r="F108" s="35">
         <f t="shared" ref="F108:I108" si="12">F107+F106</f>
         <v>1412000</v>
       </c>
-      <c r="G108" s="61">
+      <c r="G108" s="35">
         <f t="shared" si="12"/>
         <v>27482000</v>
       </c>
-      <c r="H108" s="61">
+      <c r="H108" s="35">
         <f t="shared" si="12"/>
         <v>115500000</v>
       </c>
-      <c r="I108" s="61">
+      <c r="I108" s="35">
         <f t="shared" si="12"/>
         <v>253500000</v>
       </c>
-      <c r="J108" s="61">
+      <c r="J108" s="35">
         <f>J107+J106</f>
-        <v>2899530456.2602739</v>
-      </c>
-      <c r="K108" s="43" t="s">
+        <v>2932387641.5620685</v>
+      </c>
+      <c r="K108" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="L108" s="46" t="s">
+      <c r="L108" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="M108" s="47">
+      <c r="M108" s="60">
         <f>M105</f>
-        <v>0.15722431000000003</v>
+        <v>0.15555404</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="67" t="s">
+      <c r="F109" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="G109" s="68"/>
+      <c r="G109" s="64"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="48" t="s">
+      <c r="F110" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="G110" s="35">
+      <c r="G110" s="44">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1634765463.0675325</v>
+        <v>1662042845.101326</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="48" t="s">
+      <c r="F111" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="G111" s="35">
+      <c r="G111" s="44">
         <f>E40</f>
         <v>936651000</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="48" t="s">
+      <c r="F112" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="G112" s="35">
+      <c r="G112" s="44">
         <f>M99</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="48" t="s">
+      <c r="F113" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="G113" s="35">
+      <c r="G113" s="44">
         <f>G110+G111-G112</f>
-        <v>2571416463.0675325</v>
+        <v>2598693845.101326</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="48" t="s">
+      <c r="F114" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="G114" s="49">
+      <c r="G114" s="43">
         <f>E34*(1+(K16*5))</f>
         <v>174846431.29590282</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="50" t="s">
+      <c r="F115" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="G115" s="51">
+      <c r="G115" s="46">
         <f>G113/G114</f>
-        <v>14.706714023323554</v>
+        <v>14.862721680051935</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="48" t="s">
+      <c r="F116" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="G116" s="52" cm="1">
+      <c r="G116" s="47" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>49.06</v>
+        <v>51.11</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="53" t="s">
+      <c r="F117" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="G117" s="54">
+      <c r="G117" s="48">
         <f>G115/G116-1</f>
-        <v>-0.70023004436764058</v>
+        <v>-0.7092012975924098</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="53" t="s">
+      <c r="F118" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="G118" s="55" t="str">
+      <c r="G118" s="49" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/GitLab.xlsx
+++ b/Technology/Software/GitLab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F2D10C-FC9B-2047-93B2-9DB0D74977D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F1E9E6-AFBC-AD4B-9779-48C39B439E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2081,7 +2081,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2095,10 +2094,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2112,14 +2113,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2129,6 +2130,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2256,11 +2258,11 @@
     <v>Powered by Refinitiv</v>
     <v>70.959999999999994</v>
     <v>26.24</v>
-    <v>2.5739999999999998</v>
-    <v>1.61</v>
-    <v>3.2524999999999998E-2</v>
-    <v>0.37</v>
-    <v>7.2389999999999998E-3</v>
+    <v>2.5779999999999998</v>
+    <v>-0.8</v>
+    <v>-1.6084000000000001E-2</v>
+    <v>-0.15</v>
+    <v>-3.065E-3</v>
     <v>USD</v>
     <v>GitLab Inc. provides DevSecOps Platform, a single application that brings together development, operations, information technology, security, and business teams. The DevSecOps Platform is built on a single codebase, unified data model, and user interface. The Company allows organizations to deploy the DevSecOps Platform as a self-managed offering in their own hybrid-cloud, or on-premises environments, and as a software as a service offering, it is hosted in either the public cloud or in a private cloud based on the customer’s preference. The DevSecOps Platform enables its customers to move their DevOps workflow across any hybrid or multi-cloud environment. Its DevSecOps platform is used by teams of all sizes across a range of industries. It offers the DevSecOps Platform in three different subscription tiers, namely Free, Premium and Ultimate. Its Free tier platform includes significant functionality for individual users and the paid tiers are for managers, directors, and executives.</v>
     <v>2170</v>
@@ -2268,24 +2270,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>268 BUSH STREET, #350, SAN FRANCISCO, CA, 94104 US</v>
-    <v>51.45</v>
+    <v>50.58</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45107.975274733595</v>
+    <v>45114.980862916404</v>
     <v>0</v>
-    <v>50.03</v>
-    <v>7809608000</v>
+    <v>48.8</v>
+    <v>7478032000</v>
     <v>Gitlab Inc.</v>
     <v>Gitlab Inc.</v>
-    <v>50.03</v>
-    <v>49.5</v>
-    <v>51.11</v>
-    <v>51.48</v>
+    <v>50</v>
+    <v>49.74</v>
+    <v>48.94</v>
+    <v>48.79</v>
     <v>152800000</v>
     <v>GTLB</v>
     <v>Gitlab Inc. (XNAS:GTLB)</v>
-    <v>1791087</v>
-    <v>4009457</v>
+    <v>1259675</v>
+    <v>3895010</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2869,10 +2871,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3385,15 +3387,15 @@
       </c>
       <c r="L16" s="32">
         <f>M101/E3</f>
-        <v>18.405863775630451</v>
+        <v>17.624397831722838</v>
       </c>
       <c r="M16" s="32">
         <f>M101/E28</f>
-        <v>-47.641057550358092</v>
+        <v>-45.61833998267511</v>
       </c>
       <c r="N16" s="31">
         <f>M101/E107</f>
-        <v>-93.552888186108916</v>
+        <v>-89.58087160689044</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3479,15 +3481,15 @@
       </c>
       <c r="L19" s="32">
         <f>M101/F3</f>
-        <v>14.671440916776254</v>
+        <v>14.04852902498591</v>
       </c>
       <c r="M19" s="33">
         <f>M101/F28</f>
-        <v>-190.10730282375852</v>
+        <v>-182.03583252190847</v>
       </c>
       <c r="N19" s="31">
         <f>M101/F106</f>
-        <v>5530.8838526912177</v>
+        <v>5296.0566572237958</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3594,7 +3596,7 @@
       </c>
       <c r="N22" s="42">
         <f>E107/M101</f>
-        <v>-1.0689140863408253E-2</v>
+        <v>-1.1163097456657046E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4981,7 +4983,7 @@
       </c>
       <c r="M94" s="54">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5005,7 +5007,7 @@
       </c>
       <c r="M95" s="55" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.5739999999999998</v>
+        <v>2.5779999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5052,7 +5054,7 @@
       </c>
       <c r="M97" s="53">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.15555404</v>
+        <v>0.15278501999999999</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5145,7 +5147,7 @@
       </c>
       <c r="M101" s="44" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>7809608000</v>
+        <v>7478032000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5193,7 +5195,7 @@
       </c>
       <c r="M103" s="56">
         <f>M99+M101</f>
-        <v>7809608000</v>
+        <v>7478032000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5265,7 +5267,7 @@
       </c>
       <c r="M105" s="58">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.15555404</v>
+        <v>0.15278501999999999</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5335,7 +5337,7 @@
       <c r="I107" s="28"/>
       <c r="J107" s="35">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>2601087641.5620685</v>
+        <v>2657451554.1806073</v>
       </c>
       <c r="K107" s="29" t="s">
         <v>145</v>
@@ -5366,7 +5368,7 @@
       </c>
       <c r="J108" s="35">
         <f>J107+J106</f>
-        <v>2932387641.5620685</v>
+        <v>2988751554.1806073</v>
       </c>
       <c r="K108" s="29" t="s">
         <v>141</v>
@@ -5376,7 +5378,7 @@
       </c>
       <c r="M108" s="60">
         <f>M105</f>
-        <v>0.15555404</v>
+        <v>0.15278501999999999</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5391,7 +5393,7 @@
       </c>
       <c r="G110" s="44">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1662042845.101326</v>
+        <v>1708917660.3463485</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5418,7 +5420,7 @@
       </c>
       <c r="G113" s="44">
         <f>G110+G111-G112</f>
-        <v>2598693845.101326</v>
+        <v>2645568660.3463488</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5436,7 +5438,7 @@
       </c>
       <c r="G115" s="46">
         <f>G113/G114</f>
-        <v>14.862721680051935</v>
+        <v>15.130813026827516</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5445,7 +5447,7 @@
       </c>
       <c r="G116" s="47" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>51.11</v>
+        <v>48.94</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5454,7 +5456,7 @@
       </c>
       <c r="G117" s="48">
         <f>G115/G116-1</f>
-        <v>-0.7092012975924098</v>
+        <v>-0.69082932107013661</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/GitLab.xlsx
+++ b/Technology/Software/GitLab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F1E9E6-AFBC-AD4B-9779-48C39B439E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F24B1B-4115-0241-BE5F-B3B5A23A0C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -402,9 +402,6 @@
     <t>Debt to Equity</t>
   </si>
   <si>
-    <t>Share Dilution (5yr)</t>
-  </si>
-  <si>
     <t>P/S</t>
   </si>
   <si>
@@ -574,6 +571,9 @@
   </si>
   <si>
     <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Share Dilution (4yr)</t>
   </si>
 </sst>
 </file>
@@ -2043,8 +2043,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2079,8 +2079,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2089,21 +2088,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2113,24 +2113,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2259,10 +2247,8 @@
     <v>70.959999999999994</v>
     <v>26.24</v>
     <v>2.5779999999999998</v>
-    <v>-0.8</v>
-    <v>-1.6084000000000001E-2</v>
-    <v>-0.15</v>
-    <v>-3.065E-3</v>
+    <v>1.41</v>
+    <v>2.8811E-2</v>
     <v>USD</v>
     <v>GitLab Inc. provides DevSecOps Platform, a single application that brings together development, operations, information technology, security, and business teams. The DevSecOps Platform is built on a single codebase, unified data model, and user interface. The Company allows organizations to deploy the DevSecOps Platform as a self-managed offering in their own hybrid-cloud, or on-premises environments, and as a software as a service offering, it is hosted in either the public cloud or in a private cloud based on the customer’s preference. The DevSecOps Platform enables its customers to move their DevOps workflow across any hybrid or multi-cloud environment. Its DevSecOps platform is used by teams of all sizes across a range of industries. It offers the DevSecOps Platform in three different subscription tiers, namely Free, Premium and Ultimate. Its Free tier platform includes significant functionality for individual users and the paid tiers are for managers, directors, and executives.</v>
     <v>2170</v>
@@ -2270,24 +2256,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>268 BUSH STREET, #350, SAN FRANCISCO, CA, 94104 US</v>
-    <v>50.58</v>
+    <v>50.924999999999997</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.980862916404</v>
+    <v>45117.99322920078</v>
     <v>0</v>
-    <v>48.8</v>
-    <v>7478032000</v>
+    <v>48.25</v>
+    <v>7693480000</v>
     <v>Gitlab Inc.</v>
     <v>Gitlab Inc.</v>
-    <v>50</v>
-    <v>49.74</v>
+    <v>48.57</v>
     <v>48.94</v>
-    <v>48.79</v>
+    <v>50.35</v>
     <v>152800000</v>
     <v>GTLB</v>
     <v>Gitlab Inc. (XNAS:GTLB)</v>
-    <v>1259675</v>
-    <v>3895010</v>
+    <v>19</v>
+    <v>3818293</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2319,8 +2304,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2340,7 +2323,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2357,7 +2339,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2368,16 +2350,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2441,19 +2420,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2497,9 +2470,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2507,9 +2477,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2871,10 +2838,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G100" sqref="G100"/>
+      <selection pane="bottomRight" activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2966,10 +2933,10 @@
         <v>424300000</v>
       </c>
       <c r="F3" s="15">
-        <v>532300000</v>
+        <v>542100000</v>
       </c>
       <c r="G3" s="15">
-        <v>686000000</v>
+        <v>697000000</v>
       </c>
       <c r="H3" s="15">
         <v>895500000</v>
@@ -2995,7 +2962,7 @@
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="21">
@@ -3012,15 +2979,15 @@
       </c>
       <c r="F4" s="18">
         <f t="shared" ref="F4:J4" si="0">(F3/E3)-1</f>
-        <v>0.25453688427999066</v>
+        <v>0.27763374970539711</v>
       </c>
       <c r="G4" s="18">
         <f t="shared" si="0"/>
-        <v>0.28874694721021976</v>
+        <v>0.28574063825862384</v>
       </c>
       <c r="H4" s="18">
         <f t="shared" si="0"/>
-        <v>0.305393586005831</v>
+        <v>0.2847919655667146</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="0"/>
@@ -3165,7 +3132,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="21">
         <f>B8/B3</f>
@@ -3280,7 +3247,7 @@
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="21">
         <f>B12/B3</f>
@@ -3352,16 +3319,16 @@
         <v>584067000</v>
       </c>
       <c r="K15" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="M15" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="N15" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3387,15 +3354,15 @@
       </c>
       <c r="L16" s="32">
         <f>M101/E3</f>
-        <v>17.624397831722838</v>
+        <v>18.132170633985389</v>
       </c>
       <c r="M16" s="32">
         <f>M101/E28</f>
-        <v>-45.61833998267511</v>
+        <v>-46.932640337713359</v>
       </c>
       <c r="N16" s="31">
         <f>M101/E107</f>
-        <v>-89.58087160689044</v>
+        <v>-92.161767172189073</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3432,16 +3399,16 @@
         <v>1208000</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L18" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="M18" s="17" t="s">
-        <v>157</v>
-      </c>
       <c r="N18" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3461,10 +3428,10 @@
         <v>-211411000</v>
       </c>
       <c r="F19" s="36">
-        <v>-55971000</v>
+        <v>-30000000</v>
       </c>
       <c r="G19" s="36">
-        <v>-6754000</v>
+        <v>-12000000</v>
       </c>
       <c r="H19" s="36">
         <v>48855000</v>
@@ -3481,20 +3448,20 @@
       </c>
       <c r="L19" s="32">
         <f>M101/F3</f>
-        <v>14.04852902498591</v>
+        <v>14.191994097030069</v>
       </c>
       <c r="M19" s="33">
         <f>M101/F28</f>
-        <v>-182.03583252190847</v>
+        <v>-334.49913043478261</v>
       </c>
       <c r="N19" s="31">
         <f>M101/F106</f>
-        <v>5296.0566572237958</v>
+        <v>5690.4437869822486</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="21">
@@ -3511,15 +3478,15 @@
       </c>
       <c r="F20" s="18">
         <f t="shared" ref="F20:J20" si="3">(F19/E19)-1</f>
-        <v>-0.73525029445014689</v>
+        <v>-0.85809631476129433</v>
       </c>
       <c r="G20" s="18">
         <f t="shared" si="3"/>
-        <v>-0.8793303675117472</v>
+        <v>-0.6</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="3"/>
-        <v>-8.2334912644358909</v>
+        <v>-5.07125</v>
       </c>
       <c r="I20" s="18">
         <f t="shared" si="3"/>
@@ -3549,11 +3516,11 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" ref="F21:J21" si="4">F19/F3</f>
-        <v>-0.10514935186924666</v>
+        <v>-5.5340343110127282E-2</v>
       </c>
       <c r="G21" s="37">
         <f t="shared" si="4"/>
-        <v>-9.8454810495626818E-3</v>
+        <v>-1.721664275466284E-2</v>
       </c>
       <c r="H21" s="37">
         <f t="shared" si="4"/>
@@ -3568,10 +3535,10 @@
         <v>0.17957831325301205</v>
       </c>
       <c r="M21" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="N21" s="17" t="s">
         <v>165</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3596,7 +3563,7 @@
       </c>
       <c r="N22" s="42">
         <f>E107/M101</f>
-        <v>-1.1163097456657046E-2</v>
+        <v>-1.0850486385874793E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3703,24 +3670,24 @@
         <v>-163926000</v>
       </c>
       <c r="F28" s="38">
-        <v>-41080000</v>
+        <v>-23000000</v>
       </c>
       <c r="G28" s="38">
-        <v>2900000</v>
+        <v>6000000</v>
       </c>
       <c r="H28" s="38">
-        <v>65382000</v>
+        <v>92700000</v>
       </c>
       <c r="I28" s="38">
-        <v>264800000</v>
+        <v>317600000</v>
       </c>
       <c r="J28" s="38">
-        <v>468200000</v>
+        <v>547700000</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="21">
@@ -3737,23 +3704,23 @@
       </c>
       <c r="F29" s="18">
         <f t="shared" ref="F29:J29" si="5">(F28/E28)-1</f>
-        <v>-0.74939911911472246</v>
+        <v>-0.85969278820931394</v>
       </c>
       <c r="G29" s="18">
         <f t="shared" si="5"/>
-        <v>-1.0705939629990262</v>
+        <v>-1.2608695652173914</v>
       </c>
       <c r="H29" s="18">
         <f t="shared" si="5"/>
-        <v>21.545517241379311</v>
+        <v>14.45</v>
       </c>
       <c r="I29" s="18">
         <f t="shared" si="5"/>
-        <v>3.0500443547153653</v>
+        <v>2.4261057173678533</v>
       </c>
       <c r="J29" s="18">
         <f t="shared" si="5"/>
-        <v>0.76812688821752273</v>
+        <v>0.72449622166246841</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3775,23 +3742,23 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" ref="F30:J30" si="6">F28/F3</f>
-        <v>-7.7174525643434147E-2</v>
+        <v>-4.2427596384430916E-2</v>
       </c>
       <c r="G30" s="37">
         <f t="shared" si="6"/>
-        <v>4.2274052478134113E-3</v>
+        <v>8.60832137733142E-3</v>
       </c>
       <c r="H30" s="37">
         <f t="shared" si="6"/>
-        <v>7.3011725293132324E-2</v>
+        <v>0.10351758793969849</v>
       </c>
       <c r="I30" s="37">
         <f t="shared" si="6"/>
-        <v>0.19835205992509364</v>
+        <v>0.23790262172284643</v>
       </c>
       <c r="J30" s="37">
         <f t="shared" si="6"/>
-        <v>0.28204819277108434</v>
+        <v>0.32993975903614459</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3812,19 +3779,19 @@
         <v>-1.104570539125513</v>
       </c>
       <c r="F31" s="39">
-        <v>-0.27</v>
+        <v>-0.15</v>
       </c>
       <c r="G31" s="39">
-        <v>1.9E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H31" s="39">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
       <c r="I31" s="39">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="J31" s="39">
-        <v>3.06</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3881,9 +3848,9 @@
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="1">
+        <v>118</v>
+      </c>
+      <c r="B35" s="26">
         <v>0</v>
       </c>
       <c r="C35" s="26">
@@ -4651,7 +4618,7 @@
     </row>
     <row r="80" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80" s="21">
         <f t="shared" ref="B80:E80" si="8">B79/B3</f>
@@ -4721,7 +4688,7 @@
         <v>91</v>
       </c>
       <c r="L83" s="65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M83" s="66"/>
     </row>
@@ -4742,7 +4709,7 @@
         <v>5184000</v>
       </c>
       <c r="L84" s="67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M84" s="67"/>
     </row>
@@ -4761,7 +4728,7 @@
       </c>
       <c r="E85" s="1"/>
       <c r="L85" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M85" s="51">
         <f>E17</f>
@@ -4785,7 +4752,7 @@
         <v>-594000</v>
       </c>
       <c r="L86" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M86" s="51">
         <f>E56</f>
@@ -4809,7 +4776,7 @@
         <v>-77408000</v>
       </c>
       <c r="L87" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M87" s="51">
         <f>E61</f>
@@ -4833,7 +4800,7 @@
         <v>-6070000</v>
       </c>
       <c r="L88" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M88" s="53">
         <v>0</v>
@@ -4841,7 +4808,7 @@
     </row>
     <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B89" s="21">
         <f t="shared" ref="B89:E89" si="9">(-1*B88)/B3</f>
@@ -4862,7 +4829,7 @@
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
       <c r="L89" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M89" s="51">
         <f>E27</f>
@@ -4910,7 +4877,7 @@
         <v>-821622000</v>
       </c>
       <c r="L91" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M91" s="53">
         <f>M89/M90</f>
@@ -4934,7 +4901,7 @@
         <v>231626000</v>
       </c>
       <c r="L92" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M92" s="53">
         <f>M88*(1-M91)</f>
@@ -4958,7 +4925,7 @@
         <v>-9620000</v>
       </c>
       <c r="L93" s="68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M93" s="68"/>
     </row>
@@ -4979,11 +4946,11 @@
         <v>-605686000</v>
       </c>
       <c r="L94" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M94" s="54">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5003,7 +4970,7 @@
         <v>91</v>
       </c>
       <c r="L95" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M95" s="55" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
@@ -5027,7 +4994,7 @@
         <v>38983000</v>
       </c>
       <c r="L96" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M96" s="54">
         <v>8.4000000000000005E-2</v>
@@ -5050,11 +5017,11 @@
         <v>0</v>
       </c>
       <c r="L97" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M97" s="53">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.15278501999999999</v>
+        <v>0.15267456000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5074,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="L98" s="68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M98" s="68"/>
     </row>
@@ -5095,7 +5062,7 @@
         <v>64863000</v>
       </c>
       <c r="L99" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M99" s="51">
         <f>M86+M87</f>
@@ -5119,7 +5086,7 @@
         <v>97482000</v>
       </c>
       <c r="L100" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M100" s="53">
         <f>M99/M103</f>
@@ -5143,11 +5110,11 @@
         <v>-3658000</v>
       </c>
       <c r="L101" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M101" s="44" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>7478032000</v>
+        <v>7693480000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5167,7 +5134,7 @@
         <v>-589270000</v>
       </c>
       <c r="L102" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M102" s="53">
         <f>M101/M103</f>
@@ -5191,11 +5158,11 @@
         <v>887172000</v>
       </c>
       <c r="L103" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M103" s="56">
         <f>M99+M101</f>
-        <v>7478032000</v>
+        <v>7693480000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5215,13 +5182,13 @@
         <v>297902000</v>
       </c>
       <c r="L104" s="68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M104" s="68"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" ref="B105:D105" si="10">(B22*(1-0.2))+B77+B88+B81</f>
@@ -5241,38 +5208,38 @@
       </c>
       <c r="F105" s="27">
         <f>E105*(1+$M$106)</f>
-        <v>-134387218.92839193</v>
+        <v>-134376785.78240836</v>
       </c>
       <c r="G105" s="27">
         <f t="shared" ref="G105:J105" si="11">F105*(1+$M$106)</f>
-        <v>-176931803.68626651</v>
+        <v>-176904332.56667069</v>
       </c>
       <c r="H105" s="27">
         <f t="shared" si="11"/>
-        <v>-232945241.40987179</v>
+        <v>-232890991.54026768</v>
       </c>
       <c r="I105" s="27">
         <f t="shared" si="11"/>
-        <v>-306691529.53260368</v>
+        <v>-306596300.68793279</v>
       </c>
       <c r="J105" s="27">
         <f t="shared" si="11"/>
-        <v>-403784570.64743394</v>
+        <v>-403627855.99318528</v>
       </c>
       <c r="K105" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L105" s="57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M105" s="58">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.15278501999999999</v>
+        <v>0.15267456000000001</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="21">
@@ -5288,34 +5255,34 @@
         <v>0.56457689063817829</v>
       </c>
       <c r="F106" s="34">
-        <v>1412000</v>
+        <v>1352000</v>
       </c>
       <c r="G106" s="34">
-        <v>27482000</v>
+        <v>27000000</v>
       </c>
       <c r="H106" s="34">
-        <v>115500000</v>
+        <v>92000000</v>
       </c>
       <c r="I106" s="34">
-        <v>253500000</v>
+        <v>265000000</v>
       </c>
       <c r="J106" s="34">
-        <v>331300000</v>
+        <v>333000000</v>
       </c>
       <c r="K106" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L106" s="59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M106" s="60">
         <f>(SUM(F4:J4)/5)</f>
-        <v>0.31658207601233573</v>
+        <v>0.31647986321927457</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B107" s="1">
         <v>-60166000</v>
@@ -5337,13 +5304,13 @@
       <c r="I107" s="28"/>
       <c r="J107" s="35">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>2657451554.1806073</v>
+        <v>2673398678.6404428</v>
       </c>
       <c r="K107" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="L107" s="61" t="s">
         <v>145</v>
-      </c>
-      <c r="L107" s="61" t="s">
-        <v>146</v>
       </c>
       <c r="M107" s="62">
         <v>2.5000000000000001E-2</v>
@@ -5352,53 +5319,53 @@
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="F108" s="35">
         <f t="shared" ref="F108:I108" si="12">F107+F106</f>
-        <v>1412000</v>
+        <v>1352000</v>
       </c>
       <c r="G108" s="35">
         <f t="shared" si="12"/>
-        <v>27482000</v>
+        <v>27000000</v>
       </c>
       <c r="H108" s="35">
         <f t="shared" si="12"/>
-        <v>115500000</v>
+        <v>92000000</v>
       </c>
       <c r="I108" s="35">
         <f t="shared" si="12"/>
-        <v>253500000</v>
+        <v>265000000</v>
       </c>
       <c r="J108" s="35">
         <f>J107+J106</f>
-        <v>2988751554.1806073</v>
+        <v>3006398678.6404428</v>
       </c>
       <c r="K108" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L108" s="63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M108" s="60">
         <f>M105</f>
-        <v>0.15278501999999999</v>
+        <v>0.15267456000000001</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="F109" s="64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G109" s="64"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F110" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G110" s="44">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1708917660.3463485</v>
+        <v>1709129629.8416996</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F111" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G111" s="44">
         <f>E40</f>
@@ -5407,7 +5374,7 @@
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F112" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G112" s="44">
         <f>M99</f>
@@ -5416,16 +5383,16 @@
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F113" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G113" s="44">
         <f>G110+G111-G112</f>
-        <v>2645568660.3463488</v>
+        <v>2645780629.8416996</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F114" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G114" s="43">
         <f>E34*(1+(K16*5))</f>
@@ -5434,34 +5401,34 @@
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F115" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G115" s="46">
         <f>G113/G114</f>
-        <v>15.130813026827516</v>
+        <v>15.132025344938786</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F116" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G116" s="47" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>48.94</v>
+        <v>50.35</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F117" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G117" s="48">
         <f>G115/G116-1</f>
-        <v>-0.69082932107013661</v>
+        <v>-0.69946325034878276</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F118" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G118" s="49" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>

--- a/Technology/Software/GitLab.xlsx
+++ b/Technology/Software/GitLab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F24B1B-4115-0241-BE5F-B3B5A23A0C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DDD490-B463-374F-9796-5F5DF44CA5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -865,7 +865,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -998,9 +998,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2089,6 +2086,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2100,7 +2098,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2119,6 +2117,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2246,9 +2245,11 @@
     <v>Powered by Refinitiv</v>
     <v>70.959999999999994</v>
     <v>26.24</v>
-    <v>2.5779999999999998</v>
-    <v>1.41</v>
-    <v>2.8811E-2</v>
+    <v>2.5739999999999998</v>
+    <v>-0.41</v>
+    <v>-8.3199999999999993E-3</v>
+    <v>-0.27</v>
+    <v>-5.5249999999999995E-3</v>
     <v>USD</v>
     <v>GitLab Inc. provides DevSecOps Platform, a single application that brings together development, operations, information technology, security, and business teams. The DevSecOps Platform is built on a single codebase, unified data model, and user interface. The Company allows organizations to deploy the DevSecOps Platform as a self-managed offering in their own hybrid-cloud, or on-premises environments, and as a software as a service offering, it is hosted in either the public cloud or in a private cloud based on the customer’s preference. The DevSecOps Platform enables its customers to move their DevOps workflow across any hybrid or multi-cloud environment. Its DevSecOps platform is used by teams of all sizes across a range of industries. It offers the DevSecOps Platform in three different subscription tiers, namely Free, Premium and Ultimate. Its Free tier platform includes significant functionality for individual users and the paid tiers are for managers, directors, and executives.</v>
     <v>2170</v>
@@ -2256,23 +2257,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>268 BUSH STREET, #350, SAN FRANCISCO, CA, 94104 US</v>
-    <v>50.924999999999997</v>
+    <v>50.31</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45117.99322920078</v>
+    <v>45132.938633378908</v>
     <v>0</v>
-    <v>48.25</v>
-    <v>7693480000</v>
+    <v>48.685000000000002</v>
+    <v>7467336000</v>
     <v>Gitlab Inc.</v>
     <v>Gitlab Inc.</v>
-    <v>48.57</v>
-    <v>48.94</v>
-    <v>50.35</v>
+    <v>50.05</v>
+    <v>49.28</v>
+    <v>48.87</v>
+    <v>48.6</v>
     <v>152800000</v>
     <v>GTLB</v>
     <v>Gitlab Inc. (XNAS:GTLB)</v>
-    <v>19</v>
-    <v>3818293</v>
+    <v>936633</v>
+    <v>2166119</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2304,6 +2306,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2323,6 +2327,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2339,7 +2344,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2350,13 +2355,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2420,13 +2428,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2470,6 +2484,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2477,6 +2494,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2838,10 +2858,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H99" sqref="H99"/>
+      <selection pane="bottomRight" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3354,15 +3374,15 @@
       </c>
       <c r="L16" s="32">
         <f>M101/E3</f>
-        <v>18.132170633985389</v>
+        <v>17.599189252887108</v>
       </c>
       <c r="M16" s="32">
         <f>M101/E28</f>
-        <v>-46.932640337713359</v>
+        <v>-45.553091028878882</v>
       </c>
       <c r="N16" s="31">
         <f>M101/E107</f>
-        <v>-92.161767172189073</v>
+        <v>-89.452742039818872</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3448,15 +3468,15 @@
       </c>
       <c r="L19" s="32">
         <f>M101/F3</f>
-        <v>14.191994097030069</v>
+        <v>13.774831211953513</v>
       </c>
       <c r="M19" s="33">
         <f>M101/F28</f>
-        <v>-334.49913043478261</v>
+        <v>-324.66678260869566</v>
       </c>
       <c r="N19" s="31">
         <f>M101/F106</f>
-        <v>5690.4437869822486</v>
+        <v>5523.1775147928993</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3563,7 +3583,7 @@
       </c>
       <c r="N22" s="42">
         <f>E107/M101</f>
-        <v>-1.0850486385874793E-2</v>
+        <v>-1.1179087160400978E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4924,10 +4944,10 @@
       <c r="E93" s="1">
         <v>-9620000</v>
       </c>
-      <c r="L93" s="68" t="s">
+      <c r="L93" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="M93" s="68"/>
+      <c r="M93" s="67"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4950,7 +4970,7 @@
       </c>
       <c r="M94" s="54">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4974,7 +4994,7 @@
       </c>
       <c r="M95" s="55" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.5779999999999998</v>
+        <v>2.5739999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5021,7 +5041,7 @@
       </c>
       <c r="M97" s="53">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.15267456000000001</v>
+        <v>0.15464112000000002</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5040,10 +5060,10 @@
       <c r="E98" s="1">
         <v>0</v>
       </c>
-      <c r="L98" s="68" t="s">
+      <c r="L98" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="M98" s="68"/>
+      <c r="M98" s="67"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5114,7 +5134,7 @@
       </c>
       <c r="M101" s="44" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>7693480000</v>
+        <v>7467336000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5162,7 +5182,7 @@
       </c>
       <c r="M103" s="56">
         <f>M99+M101</f>
-        <v>7693480000</v>
+        <v>7467336000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5181,10 +5201,10 @@
       <c r="E104" s="11">
         <v>297902000</v>
       </c>
-      <c r="L104" s="68" t="s">
+      <c r="L104" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="M104" s="68"/>
+      <c r="M104" s="67"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
@@ -5234,7 +5254,7 @@
       </c>
       <c r="M105" s="58">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.15267456000000001</v>
+        <v>0.15464112000000002</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5304,7 +5324,7 @@
       <c r="I107" s="28"/>
       <c r="J107" s="35">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>2673398678.6404428</v>
+        <v>2632845196.0303946</v>
       </c>
       <c r="K107" s="29" t="s">
         <v>144</v>
@@ -5335,7 +5355,7 @@
       </c>
       <c r="J108" s="35">
         <f>J107+J106</f>
-        <v>3006398678.6404428</v>
+        <v>2965845196.0303946</v>
       </c>
       <c r="K108" s="29" t="s">
         <v>140</v>
@@ -5345,7 +5365,7 @@
       </c>
       <c r="M108" s="60">
         <f>M105</f>
-        <v>0.15267456000000001</v>
+        <v>0.15464112000000002</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5360,7 +5380,7 @@
       </c>
       <c r="G110" s="44">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1709129629.8416996</v>
+        <v>1675432680.4436343</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5387,7 +5407,7 @@
       </c>
       <c r="G113" s="44">
         <f>G110+G111-G112</f>
-        <v>2645780629.8416996</v>
+        <v>2612083680.443634</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5405,7 +5425,7 @@
       </c>
       <c r="G115" s="46">
         <f>G113/G114</f>
-        <v>15.132025344938786</v>
+        <v>14.939302227010012</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5414,7 +5434,7 @@
       </c>
       <c r="G116" s="47" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>50.35</v>
+        <v>48.87</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5423,7 +5443,7 @@
       </c>
       <c r="G117" s="48">
         <f>G115/G116-1</f>
-        <v>-0.69946325034878276</v>
+        <v>-0.69430525420482891</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/GitLab.xlsx
+++ b/Technology/Software/GitLab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DDD490-B463-374F-9796-5F5DF44CA5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766E0003-2E1D-BA4E-8DF4-5DA7C1506798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -555,9 +555,6 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
@@ -570,10 +567,19 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
     <t>Share Dilution (4yr)</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -588,7 +594,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -705,6 +711,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -749,7 +762,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -860,12 +873,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -915,11 +937,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -932,8 +949,6 @@
     <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -947,58 +962,128 @@
     <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1056,6 +1141,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45361449752883032"/>
+          <c:y val="2.8927283692629768E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1089,15 +1182,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.8125775668769881E-2"/>
-          <c:y val="0.13019490127662531"/>
-          <c:w val="0.87816561505970692"/>
-          <c:h val="0.74865556821128754"/>
+          <c:x val="9.0056013179571667E-2"/>
+          <c:y val="0.15919648458843919"/>
+          <c:w val="0.84272817133443167"/>
+          <c:h val="0.64515789412411706"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1146,12 +1239,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$E$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>81227000</c:v>
                 </c:pt>
@@ -1164,12 +1293,27 @@
                 <c:pt idx="3">
                   <c:v>424300000</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>542100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>697000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>895500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1335000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1660000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E5A0-1447-B4D6-ED8CEF06D57A}"/>
+              <c16:uniqueId val="{00000000-F1F0-6F45-8FD1-E1036D9B8BE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1178,11 +1322,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1220,30 +1364,81 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$E$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-129541000</c:v>
+                  <c:v>-130741000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-189140000</c:v>
+                  <c:v>-192194000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-154705000</c:v>
+                  <c:v>-155138000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-211411000</c:v>
+                  <c:v>-163926000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-23000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>317600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>547700000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E5A0-1447-B4D6-ED8CEF06D57A}"/>
+              <c16:uniqueId val="{00000001-F1F0-6F45-8FD1-E1036D9B8BE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1294,12 +1489,48 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$E$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$J$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>-60166000</c:v>
                 </c:pt>
@@ -1312,12 +1543,27 @@
                 <c:pt idx="3">
                   <c:v>-83478000</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>14000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>182000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>463000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E5A0-1447-B4D6-ED8CEF06D57A}"/>
+              <c16:uniqueId val="{00000002-F1F0-6F45-8FD1-E1036D9B8BE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1329,13 +1575,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="676387935"/>
-        <c:axId val="676367695"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1648883632"/>
+        <c:axId val="2130761376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="676387935"/>
+        <c:axId val="1648883632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,7 +1609,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1375,7 +1621,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="676367695"/>
+        <c:crossAx val="2130761376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1383,10 +1629,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="676367695"/>
+        <c:axId val="2130761376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-250000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1432,7 +1677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="676387935"/>
+        <c:crossAx val="1648883632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1450,10 +1695,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35616926526568282"/>
-          <c:y val="0.91416703250905629"/>
-          <c:w val="0.30355550920373364"/>
-          <c:h val="5.4139335935233526E-2"/>
+          <c:x val="0.34494467433745418"/>
+          <c:y val="0.87626031720803887"/>
+          <c:w val="0.31274646188172112"/>
+          <c:h val="6.5885115406701666E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1560,7 +1805,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1798,7 +2043,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2033,22 +2277,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>1587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>31749</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCB6EE0-F6B9-6EB4-E6AF-335836E87AB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2126FC-36F4-EFF2-9B67-D1CD25EED631}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,38 +2320,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2243,13 +2487,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>70.959999999999994</v>
+    <v>58.7</v>
     <v>26.24</v>
-    <v>2.5739999999999998</v>
-    <v>-0.41</v>
-    <v>-8.3199999999999993E-3</v>
-    <v>-0.27</v>
-    <v>-5.5249999999999995E-3</v>
+    <v>2.5179999999999998</v>
+    <v>0.19</v>
+    <v>4.0829999999999998E-3</v>
+    <v>-0.48</v>
+    <v>-1.0271999999999998E-2</v>
     <v>USD</v>
     <v>GitLab Inc. provides DevSecOps Platform, a single application that brings together development, operations, information technology, security, and business teams. The DevSecOps Platform is built on a single codebase, unified data model, and user interface. The Company allows organizations to deploy the DevSecOps Platform as a self-managed offering in their own hybrid-cloud, or on-premises environments, and as a software as a service offering, it is hosted in either the public cloud or in a private cloud based on the customer’s preference. The DevSecOps Platform enables its customers to move their DevOps workflow across any hybrid or multi-cloud environment. Its DevSecOps platform is used by teams of all sizes across a range of industries. It offers the DevSecOps Platform in three different subscription tiers, namely Free, Premium and Ultimate. Its Free tier platform includes significant functionality for individual users and the paid tiers are for managers, directors, and executives.</v>
     <v>2170</v>
@@ -2257,24 +2501,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>268 BUSH STREET, #350, SAN FRANCISCO, CA, 94104 US</v>
-    <v>50.31</v>
+    <v>48.14</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45132.938633378908</v>
+    <v>45218.99602079844</v>
     <v>0</v>
-    <v>48.685000000000002</v>
-    <v>7467336000</v>
+    <v>46.594999999999999</v>
+    <v>7229130999</v>
     <v>Gitlab Inc.</v>
     <v>Gitlab Inc.</v>
-    <v>50.05</v>
-    <v>49.28</v>
-    <v>48.87</v>
-    <v>48.6</v>
-    <v>152800000</v>
+    <v>46.99</v>
+    <v>46.54</v>
+    <v>46.73</v>
+    <v>46.25</v>
+    <v>154700000</v>
     <v>GTLB</v>
     <v>Gitlab Inc. (XNAS:GTLB)</v>
-    <v>936633</v>
-    <v>2166119</v>
+    <v>1022385</v>
+    <v>1784852</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2855,13 +3099,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL118"/>
+  <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F94" sqref="F94"/>
+      <selection pane="bottomRight" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3086,16 +3330,20 @@
         <f>E3-E5</f>
         <v>372620000</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="F6" s="31">
+        <f>F3*F7</f>
+        <v>485016870</v>
+      </c>
+      <c r="K6" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="70" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3112,25 +3360,28 @@
       <c r="D7" s="2">
         <v>0.88129999999999997</v>
       </c>
-      <c r="E7" s="2">
-        <f>E6/E3</f>
-        <v>0.87819938722601931</v>
+      <c r="E7" s="68">
+        <f>0.8782</f>
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.89470000000000005</v>
       </c>
       <c r="K7" s="19">
-        <f>E7</f>
-        <v>0.87819938722601931</v>
+        <f>F7</f>
+        <v>0.89470000000000005</v>
       </c>
       <c r="L7" s="20">
-        <f>E21</f>
-        <v>-0.49825830780108415</v>
+        <f>F21</f>
+        <v>-5.5340343110127282E-2</v>
       </c>
       <c r="M7" s="20">
-        <f>E30</f>
-        <v>-0.38634456752297902</v>
+        <f>F30</f>
+        <v>-4.2427596384430916E-2</v>
       </c>
       <c r="N7" s="20">
-        <f>E107/E3</f>
-        <v>-0.19674287061041715</v>
+        <f>F107/F3</f>
+        <v>2.5825493451392734E-2</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3299,7 +3550,7 @@
         <f>E22/(E72+E56+E61)</f>
         <v>-0.25634120464397225</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="27">
         <f>E67/E72</f>
         <v>0.41768468277304555</v>
       </c>
@@ -3339,7 +3590,7 @@
         <v>584067000</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L15" s="17" t="s">
         <v>109</v>
@@ -3372,17 +3623,17 @@
         <f>(E35+D35+C35+B35)/4</f>
         <v>3.5630976026606309E-2</v>
       </c>
-      <c r="L16" s="32">
-        <f>M101/E3</f>
-        <v>17.599189252887108</v>
-      </c>
-      <c r="M16" s="32">
-        <f>M101/E28</f>
-        <v>-45.553091028878882</v>
-      </c>
-      <c r="N16" s="31">
-        <f>M101/E107</f>
-        <v>-89.452742039818872</v>
+      <c r="L16" s="29">
+        <f>M102/E3</f>
+        <v>17.037782227197738</v>
+      </c>
+      <c r="M16" s="29">
+        <f>M102/E28</f>
+        <v>-44.099965832143774</v>
+      </c>
+      <c r="N16" s="28">
+        <f>M102/E107</f>
+        <v>-86.599235714799107</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3428,7 +3679,7 @@
         <v>156</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3447,36 +3698,35 @@
       <c r="E19" s="10">
         <v>-211411000</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="31">
         <v>-30000000</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="31">
         <v>-12000000</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="31">
         <v>48855000</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="31">
         <v>172900000</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="31">
         <v>298100000</v>
       </c>
       <c r="K19" s="23">
         <f>E40-E56-E61</f>
         <v>936651000</v>
       </c>
-      <c r="L19" s="32">
-        <f>M101/F3</f>
-        <v>13.774831211953513</v>
-      </c>
-      <c r="M19" s="33">
-        <f>M101/F28</f>
-        <v>-324.66678260869566</v>
-      </c>
-      <c r="N19" s="31">
-        <f>M101/F106</f>
-        <v>5523.1775147928993</v>
+      <c r="L19" s="29">
+        <f>M102/F3</f>
+        <v>13.335419662423908</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="N19" s="28">
+        <f>M102/F107</f>
+        <v>516.36649992857144</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3534,31 +3784,34 @@
         <f>E19/E3</f>
         <v>-0.49825830780108415</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="71">
         <f t="shared" ref="F21:J21" si="4">F19/F3</f>
         <v>-5.5340343110127282E-2</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="71">
         <f t="shared" si="4"/>
         <v>-1.721664275466284E-2</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="71">
         <f t="shared" si="4"/>
         <v>5.4556113902847571E-2</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="71">
         <f t="shared" si="4"/>
         <v>0.12951310861423221</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="71">
         <f t="shared" si="4"/>
         <v>0.17957831325301205</v>
       </c>
+      <c r="L21" s="43" t="s">
+        <v>168</v>
+      </c>
       <c r="M21" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3577,13 +3830,16 @@
       <c r="E22" s="10">
         <v>-211411000</v>
       </c>
-      <c r="M22" s="41">
-        <f>(-1*E98)/M101</f>
+      <c r="L22" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" s="36">
+        <f>(-1*E98)/M102</f>
         <v>0</v>
       </c>
-      <c r="N22" s="42">
-        <f>E107/M101</f>
-        <v>-1.1179087160400978E-2</v>
+      <c r="N22" s="37">
+        <f>F107/M102</f>
+        <v>1.936608978580774E-3</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3689,19 +3945,19 @@
       <c r="E28" s="11">
         <v>-163926000</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="33">
         <v>-23000000</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="33">
         <v>6000000</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="33">
         <v>92700000</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="33">
         <v>317600000</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="33">
         <v>547700000</v>
       </c>
     </row>
@@ -3760,23 +4016,23 @@
         <f>E28/E3</f>
         <v>-0.38634456752297902</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="32">
         <f t="shared" ref="F30:J30" si="6">F28/F3</f>
         <v>-4.2427596384430916E-2</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="32">
         <f t="shared" si="6"/>
         <v>8.60832137733142E-3</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="32">
         <f t="shared" si="6"/>
         <v>0.10351758793969849</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="32">
         <f t="shared" si="6"/>
         <v>0.23790262172284643</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30" s="32">
         <f t="shared" si="6"/>
         <v>0.32993975903614459</v>
       </c>
@@ -3798,19 +4054,19 @@
         <f>E28/E33</f>
         <v>-1.104570539125513</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="34">
         <v>-0.15</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="34">
         <v>0.04</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="34">
         <v>0.61</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="34">
         <v>2.08</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="34">
         <v>3.58</v>
       </c>
     </row>
@@ -3832,7 +4088,7 @@
         <v>-1.104570539125513</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -3848,8 +4104,12 @@
       <c r="E33" s="1">
         <v>148407000</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" cm="1">
+        <f t="array" ref="F33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>154700000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -3865,8 +4125,12 @@
       <c r="E34" s="1">
         <v>148407000</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" cm="1">
+        <f t="array" ref="F34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>154700000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>118</v>
       </c>
@@ -3878,15 +4142,19 @@
         <v>0</v>
       </c>
       <c r="D35" s="26">
-        <f t="shared" ref="D35:E35" si="7">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:F35" si="7">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="26">
         <f t="shared" si="7"/>
         <v>0.14252390410642524</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F35" s="26">
+        <f t="shared" si="7"/>
+        <v>4.2403660204707323E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -3903,7 +4171,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -3920,7 +4188,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -3937,7 +4205,7 @@
         <v>295402000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -3954,7 +4222,7 @@
         <v>641249000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -3972,7 +4240,7 @@
         <v>936651000</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -3989,7 +4257,7 @@
         <v>130479000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -4006,7 +4274,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -4023,7 +4291,7 @@
         <v>50832000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4040,7 +4308,7 @@
         <v>1117962000</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -4057,7 +4325,7 @@
         <v>5797000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -4074,7 +4342,7 @@
         <v>8145000</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -4091,7 +4359,7 @@
         <v>3901000</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -4707,10 +4975,6 @@
       <c r="E83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L83" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="M83" s="66"/>
     </row>
     <row r="84" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4728,12 +4992,18 @@
       <c r="E84" s="1">
         <v>5184000</v>
       </c>
-      <c r="L84" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="M84" s="67"/>
-    </row>
-    <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="M84" s="77"/>
+    </row>
+    <row r="85" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -4747,13 +5017,16 @@
         <v>56254000</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="L85" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="M85" s="51">
-        <f>E17</f>
-        <v>14496000</v>
-      </c>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="M85" s="78"/>
     </row>
     <row r="86" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -4771,12 +5044,18 @@
       <c r="E86" s="1">
         <v>-594000</v>
       </c>
-      <c r="L86" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="M86" s="51">
-        <f>E56</f>
-        <v>0</v>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="M86" s="45">
+        <f>E17</f>
+        <v>14496000</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4795,11 +5074,17 @@
       <c r="E87" s="10">
         <v>-77408000</v>
       </c>
-      <c r="L87" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="M87" s="51">
-        <f>E61</f>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="M87" s="45">
+        <f>E56</f>
         <v>0</v>
       </c>
     </row>
@@ -4819,10 +5104,17 @@
       <c r="E88" s="1">
         <v>-6070000</v>
       </c>
-      <c r="L88" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="M88" s="53">
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="M88" s="45">
+        <f>E61</f>
         <v>0</v>
       </c>
     </row>
@@ -4846,14 +5138,17 @@
         <f t="shared" si="9"/>
         <v>1.4305915625736507E-2</v>
       </c>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
-      <c r="L89" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="M89" s="51">
-        <f>E27</f>
-        <v>2898000</v>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="M89" s="46">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4872,12 +5167,18 @@
       <c r="E90" s="1">
         <v>0</v>
       </c>
-      <c r="L90" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="M90" s="51">
-        <f>E25</f>
-        <v>-177798000</v>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="M90" s="45">
+        <f>E27</f>
+        <v>2898000</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4896,12 +5197,18 @@
       <c r="E91" s="1">
         <v>-821622000</v>
       </c>
-      <c r="L91" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="M91" s="53">
-        <f>M89/M90</f>
-        <v>-1.6299395943711402E-2</v>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" s="45">
+        <f>E25</f>
+        <v>-177798000</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4920,12 +5227,18 @@
       <c r="E92" s="1">
         <v>231626000</v>
       </c>
-      <c r="L92" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="M92" s="53">
-        <f>M88*(1-M91)</f>
-        <v>0</v>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="M92" s="46">
+        <f>M90/M91</f>
+        <v>-1.6299395943711402E-2</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4944,12 +5257,21 @@
       <c r="E93" s="1">
         <v>-9620000</v>
       </c>
-      <c r="L93" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="M93" s="67"/>
-    </row>
-    <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="M93" s="46">
+        <f>M89*(1-M92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -4965,13 +5287,16 @@
       <c r="E94" s="10">
         <v>-605686000</v>
       </c>
-      <c r="L94" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="M94" s="54">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="M94" s="78"/>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -4989,12 +5314,18 @@
       <c r="E95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L95" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="M95" s="55" cm="1">
-        <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>2.5739999999999998</v>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="M95" s="72">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5013,11 +5344,18 @@
       <c r="E96" s="1">
         <v>38983000</v>
       </c>
-      <c r="L96" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="M96" s="54">
-        <v>8.4000000000000005E-2</v>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="44"/>
+      <c r="L96" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="M96" s="49" cm="1">
+        <f t="array" ref="M96">_FV(A1,"Beta")</f>
+        <v>2.5179999999999998</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5036,12 +5374,17 @@
       <c r="E97" s="1">
         <v>0</v>
       </c>
-      <c r="L97" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="M97" s="53">
-        <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.15464112000000002</v>
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="44"/>
+      <c r="L97" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="M97" s="48">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5060,12 +5403,21 @@
       <c r="E98" s="1">
         <v>0</v>
       </c>
-      <c r="L98" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="M98" s="67"/>
-    </row>
-    <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="44"/>
+      <c r="L98" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="M98" s="46">
+        <f>(M95)+((M96)*(M97-M95))</f>
+        <v>0.13709963999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -5081,13 +5433,16 @@
       <c r="E99" s="1">
         <v>64863000</v>
       </c>
-      <c r="L99" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="M99" s="51">
-        <f>M86+M87</f>
-        <v>0</v>
-      </c>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="M99" s="78"/>
     </row>
     <row r="100" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -5105,11 +5460,17 @@
       <c r="E100" s="10">
         <v>97482000</v>
       </c>
-      <c r="L100" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="M100" s="53">
-        <f>M99/M103</f>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="44"/>
+      <c r="L100" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="M100" s="45">
+        <f>M87+M88</f>
         <v>0</v>
       </c>
     </row>
@@ -5129,12 +5490,18 @@
       <c r="E101" s="1">
         <v>-3658000</v>
       </c>
-      <c r="L101" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="M101" s="44" cm="1">
-        <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>7467336000</v>
+      <c r="F101" s="44"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44"/>
+      <c r="K101" s="44"/>
+      <c r="L101" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="M101" s="46">
+        <f>M100/M104</f>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5153,12 +5520,18 @@
       <c r="E102" s="10">
         <v>-589270000</v>
       </c>
-      <c r="L102" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="M102" s="53">
-        <f>M101/M103</f>
-        <v>1</v>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="M102" s="50" cm="1">
+        <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
+        <v>7229130999</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5177,12 +5550,18 @@
       <c r="E103" s="1">
         <v>887172000</v>
       </c>
-      <c r="L103" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="M103" s="56">
-        <f>M99+M101</f>
-        <v>7467336000</v>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="44"/>
+      <c r="L103" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="M103" s="46">
+        <f>M102/M104</f>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5201,12 +5580,23 @@
       <c r="E104" s="11">
         <v>297902000</v>
       </c>
-      <c r="L104" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="M104" s="67"/>
-    </row>
-    <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="G104" s="80"/>
+      <c r="H104" s="80"/>
+      <c r="I104" s="80"/>
+      <c r="J104" s="80"/>
+      <c r="K104" s="44"/>
+      <c r="L104" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="M104" s="51">
+        <f>M100+M102</f>
+        <v>7229130999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
         <v>157</v>
       </c>
@@ -5226,38 +5616,35 @@
         <f>(E22*(1-0.2))+E77+E88+E81</f>
         <v>-102072800</v>
       </c>
-      <c r="F105" s="27">
-        <f>E105*(1+$M$106)</f>
-        <v>-134376785.78240836</v>
-      </c>
-      <c r="G105" s="27">
-        <f t="shared" ref="G105:J105" si="11">F105*(1+$M$106)</f>
-        <v>-176904332.56667069</v>
-      </c>
-      <c r="H105" s="27">
-        <f t="shared" si="11"/>
-        <v>-232890991.54026768</v>
-      </c>
-      <c r="I105" s="27">
-        <f t="shared" si="11"/>
-        <v>-306596300.68793279</v>
-      </c>
-      <c r="J105" s="27">
-        <f t="shared" si="11"/>
-        <v>-403627855.99318528</v>
-      </c>
-      <c r="K105" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="L105" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="M105" s="58">
-        <f>(M100*M92)+(M102*M97)</f>
-        <v>0.15464112000000002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F105" s="73">
+        <f>F107/F3</f>
+        <v>2.5825493451392734E-2</v>
+      </c>
+      <c r="G105" s="73">
+        <f>G107/G3</f>
+        <v>9.6126255380200865E-2</v>
+      </c>
+      <c r="H105" s="73">
+        <f>H107/H3</f>
+        <v>0.13958682300390843</v>
+      </c>
+      <c r="I105" s="73">
+        <f>I107/I3</f>
+        <v>0.13632958801498127</v>
+      </c>
+      <c r="J105" s="73">
+        <f>J107/J3</f>
+        <v>0.27891566265060241</v>
+      </c>
+      <c r="K105" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="L105" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="M105" s="78"/>
+    </row>
+    <row r="106" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>158</v>
       </c>
@@ -5274,34 +5661,40 @@
         <f>(E107/D107)-1</f>
         <v>0.56457689063817829</v>
       </c>
-      <c r="F106" s="34">
-        <v>1352000</v>
-      </c>
-      <c r="G106" s="34">
-        <v>27000000</v>
-      </c>
-      <c r="H106" s="34">
-        <v>92000000</v>
-      </c>
-      <c r="I106" s="34">
-        <v>265000000</v>
-      </c>
-      <c r="J106" s="34">
-        <v>333000000</v>
-      </c>
-      <c r="K106" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="L106" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="M106" s="60">
-        <f>(SUM(F4:J4)/5)</f>
-        <v>0.31647986321927457</v>
+      <c r="F106" s="53">
+        <f>(F107/E107)/4</f>
+        <v>-4.1927214355878192E-2</v>
+      </c>
+      <c r="G106" s="53">
+        <f>(G107/F107)-1</f>
+        <v>3.7857142857142856</v>
+      </c>
+      <c r="H106" s="53">
+        <f>(H107/G107)-1</f>
+        <v>0.86567164179104483</v>
+      </c>
+      <c r="I106" s="53">
+        <f>(I107/H107)-1</f>
+        <v>0.45599999999999996</v>
+      </c>
+      <c r="J106" s="53">
+        <f>(J107/I107)-1</f>
+        <v>1.5439560439560438</v>
+      </c>
+      <c r="K106" s="54">
+        <f>SUM(F106:J106)/5</f>
+        <v>1.3218829514210992</v>
+      </c>
+      <c r="L106" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="M106" s="55">
+        <f>(M101*M93)+(M103*M98)</f>
+        <v>0.13709963999999999</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="40" t="s">
+      <c r="A107" s="35" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1">
@@ -5318,151 +5711,239 @@
         <f>+E87+E88</f>
         <v>-83478000</v>
       </c>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="35">
-        <f>J106*(1+M107)/(M108-M107)</f>
-        <v>2632845196.0303946</v>
-      </c>
-      <c r="K107" s="29" t="s">
+      <c r="F107" s="56">
+        <v>14000000</v>
+      </c>
+      <c r="G107" s="56">
+        <v>67000000</v>
+      </c>
+      <c r="H107" s="56">
+        <v>125000000</v>
+      </c>
+      <c r="I107" s="56">
+        <v>182000000</v>
+      </c>
+      <c r="J107" s="56">
+        <v>463000000</v>
+      </c>
+      <c r="K107" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="L107" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="M107" s="41">
+        <f>(SUM(F4:J4)/5)</f>
+        <v>0.31647986321927457</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="F108" s="75"/>
+      <c r="G108" s="75"/>
+      <c r="H108" s="75"/>
+      <c r="I108" s="75"/>
+      <c r="J108" s="58">
+        <f>J107*(1+M108)/(M109-M108)</f>
+        <v>4233510473.3610201</v>
+      </c>
+      <c r="K108" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="L107" s="61" t="s">
+      <c r="L108" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="M107" s="62">
+      <c r="M108" s="42">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="35">
-        <f t="shared" ref="F108:I108" si="12">F107+F106</f>
-        <v>1352000</v>
-      </c>
-      <c r="G108" s="35">
-        <f t="shared" si="12"/>
-        <v>27000000</v>
-      </c>
-      <c r="H108" s="35">
-        <f t="shared" si="12"/>
-        <v>92000000</v>
-      </c>
-      <c r="I108" s="35">
-        <f t="shared" si="12"/>
-        <v>265000000</v>
-      </c>
-      <c r="J108" s="35">
-        <f>J107+J106</f>
-        <v>2965845196.0303946</v>
-      </c>
-      <c r="K108" s="29" t="s">
+    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="F109" s="58">
+        <f t="shared" ref="F109:I109" si="11">F108+F107</f>
+        <v>14000000</v>
+      </c>
+      <c r="G109" s="58">
+        <f t="shared" si="11"/>
+        <v>67000000</v>
+      </c>
+      <c r="H109" s="58">
+        <f t="shared" si="11"/>
+        <v>125000000</v>
+      </c>
+      <c r="I109" s="58">
+        <f t="shared" si="11"/>
+        <v>182000000</v>
+      </c>
+      <c r="J109" s="58">
+        <f>J108+J107</f>
+        <v>4696510473.3610201</v>
+      </c>
+      <c r="K109" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="L108" s="63" t="s">
+      <c r="L109" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="M108" s="60">
-        <f>M105</f>
-        <v>0.15464112000000002</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="64" t="s">
+      <c r="M109" s="41">
+        <f>M106</f>
+        <v>0.13709963999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="F110" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="G109" s="64"/>
-    </row>
-    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="43" t="s">
+      <c r="G110" s="79"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
+      <c r="K110" s="44"/>
+      <c r="L110" s="44"/>
+      <c r="M110" s="44"/>
+    </row>
+    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F111" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="G110" s="44">
-        <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1675432680.4436343</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="43" t="s">
+      <c r="G111" s="50">
+        <f>NPV(M109,F109,G109,H109,I109,J109)</f>
+        <v>2728498264.394362</v>
+      </c>
+      <c r="H111" s="44"/>
+      <c r="I111" s="44"/>
+      <c r="J111" s="44"/>
+      <c r="K111" s="44"/>
+      <c r="L111" s="44"/>
+      <c r="M111" s="44"/>
+    </row>
+    <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F112" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="G111" s="44">
+      <c r="G112" s="50">
         <f>E40</f>
         <v>936651000</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="43" t="s">
+      <c r="H112" s="44"/>
+      <c r="I112" s="44"/>
+      <c r="J112" s="44"/>
+      <c r="K112" s="44"/>
+      <c r="L112" s="44"/>
+      <c r="M112" s="44"/>
+    </row>
+    <row r="113" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F113" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="G112" s="44">
-        <f>M99</f>
+      <c r="G113" s="50">
+        <f>M100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="43" t="s">
+      <c r="H113" s="44"/>
+      <c r="I113" s="44"/>
+      <c r="J113" s="44"/>
+      <c r="K113" s="44"/>
+      <c r="L113" s="44"/>
+      <c r="M113" s="44"/>
+    </row>
+    <row r="114" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F114" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="G113" s="44">
-        <f>G110+G111-G112</f>
-        <v>2612083680.443634</v>
-      </c>
-    </row>
-    <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="G114" s="43">
+      <c r="G114" s="50">
+        <f>G111+G112-G113</f>
+        <v>3665149264.394362</v>
+      </c>
+      <c r="H114" s="44"/>
+      <c r="I114" s="44"/>
+      <c r="J114" s="44"/>
+      <c r="K114" s="44"/>
+      <c r="L114" s="44"/>
+      <c r="M114" s="44"/>
+    </row>
+    <row r="115" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F115" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G115" s="62">
         <f>E34*(1+(K16*5))</f>
         <v>174846431.29590282</v>
       </c>
-    </row>
-    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="45" t="s">
+      <c r="H115" s="44"/>
+      <c r="I115" s="44"/>
+      <c r="J115" s="44"/>
+      <c r="K115" s="44"/>
+      <c r="L115" s="44"/>
+      <c r="M115" s="44"/>
+    </row>
+    <row r="116" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F116" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="G115" s="46">
-        <f>G113/G114</f>
-        <v>14.939302227010012</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="43" t="s">
+      <c r="G116" s="64">
+        <f>G114/G115</f>
+        <v>20.962105072602917</v>
+      </c>
+      <c r="H116" s="44"/>
+      <c r="I116" s="44"/>
+      <c r="J116" s="44"/>
+      <c r="K116" s="44"/>
+      <c r="L116" s="44"/>
+      <c r="M116" s="44"/>
+    </row>
+    <row r="117" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F117" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="G116" s="47" cm="1">
-        <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>48.87</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="45" t="s">
+      <c r="G117" s="65" cm="1">
+        <f t="array" ref="G117">_FV(A1,"Price")</f>
+        <v>46.73</v>
+      </c>
+      <c r="H117" s="44"/>
+      <c r="I117" s="44"/>
+      <c r="J117" s="44"/>
+      <c r="K117" s="44"/>
+      <c r="L117" s="44"/>
+      <c r="M117" s="44"/>
+    </row>
+    <row r="118" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F118" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="G117" s="48">
-        <f>G115/G116-1</f>
-        <v>-0.69430525420482891</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="45" t="s">
+      <c r="G118" s="66">
+        <f>G116/G117-1</f>
+        <v>-0.55142082018825334</v>
+      </c>
+      <c r="H118" s="44"/>
+      <c r="I118" s="44"/>
+      <c r="J118" s="44"/>
+      <c r="K118" s="44"/>
+      <c r="L118" s="44"/>
+      <c r="M118" s="44"/>
+    </row>
+    <row r="119" spans="6:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="F119" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="G118" s="49" t="str">
-        <f>IF(G115&gt;G116,"BUY","SELL")</f>
+      <c r="G119" s="67" t="str">
+        <f>IF(G116&gt;G117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="H119" s="44"/>
+      <c r="I119" s="44"/>
+      <c r="J119" s="44"/>
+      <c r="K119" s="44"/>
+      <c r="L119" s="44"/>
+      <c r="M119" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="L83:M83"/>
+  <mergeCells count="7">
     <mergeCell ref="L84:M84"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F104:J104"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="L94:M94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/GTLB" display="ROIC.AI | GTLB" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5475,7 +5956,7 @@
     <hyperlink ref="E36" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1653482/000162828022008836/0001628280-22-008836-index.htm" xr:uid="{77B2AA91-8827-AC4D-AB5E-B49059783610}"/>
     <hyperlink ref="E74" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1653482/000162828022008836/0001628280-22-008836-index.htm" xr:uid="{D293EFDC-4382-7444-9697-0AC75A07AEA2}"/>
     <hyperlink ref="F1" r:id="rId10" display="https://finbox.com/NASDAQGS:GTLB/explorer/revenue_proj" xr:uid="{F61AC281-E4D5-F942-A40A-39B98A43479A}"/>
-    <hyperlink ref="K106" r:id="rId11" xr:uid="{1BF62182-3CD0-324D-8ADF-CE3D0CD9B98F}"/>
+    <hyperlink ref="K107" r:id="rId11" xr:uid="{1BF62182-3CD0-324D-8ADF-CE3D0CD9B98F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId12"/>

--- a/Technology/Software/GitLab.xlsx
+++ b/Technology/Software/GitLab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766E0003-2E1D-BA4E-8DF4-5DA7C1506798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E2827C-D570-0243-B670-5A8291D93DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,9 +937,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1069,6 +1066,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2323,13 +2323,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2345,14 +2347,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2362,6 +2364,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2489,11 +2493,11 @@
     <v>Powered by Refinitiv</v>
     <v>58.7</v>
     <v>26.24</v>
-    <v>2.5179999999999998</v>
-    <v>0.19</v>
-    <v>4.0829999999999998E-3</v>
-    <v>-0.48</v>
-    <v>-1.0271999999999998E-2</v>
+    <v>2.5139999999999998</v>
+    <v>0.97</v>
+    <v>2.3504000000000001E-2</v>
+    <v>-0.38</v>
+    <v>-8.9959999999999988E-3</v>
     <v>USD</v>
     <v>GitLab Inc. provides DevSecOps Platform, a single application that brings together development, operations, information technology, security, and business teams. The DevSecOps Platform is built on a single codebase, unified data model, and user interface. The Company allows organizations to deploy the DevSecOps Platform as a self-managed offering in their own hybrid-cloud, or on-premises environments, and as a software as a service offering, it is hosted in either the public cloud or in a private cloud based on the customer’s preference. The DevSecOps Platform enables its customers to move their DevOps workflow across any hybrid or multi-cloud environment. Its DevSecOps platform is used by teams of all sizes across a range of industries. It offers the DevSecOps Platform in three different subscription tiers, namely Free, Premium and Ultimate. Its Free tier platform includes significant functionality for individual users and the paid tiers are for managers, directors, and executives.</v>
     <v>2170</v>
@@ -2501,24 +2505,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>268 BUSH STREET, #350, SAN FRANCISCO, CA, 94104 US</v>
-    <v>48.14</v>
+    <v>42.954999999999998</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.99602079844</v>
+    <v>45226.986490925781</v>
     <v>0</v>
-    <v>46.594999999999999</v>
-    <v>7229130999</v>
+    <v>41.38</v>
+    <v>6534528000</v>
     <v>Gitlab Inc.</v>
     <v>Gitlab Inc.</v>
-    <v>46.99</v>
-    <v>46.54</v>
-    <v>46.73</v>
-    <v>46.25</v>
+    <v>41.88</v>
+    <v>41.27</v>
+    <v>42.24</v>
+    <v>41.86</v>
     <v>154700000</v>
     <v>GTLB</v>
     <v>Gitlab Inc. (XNAS:GTLB)</v>
-    <v>1022385</v>
-    <v>1784852</v>
+    <v>1350679</v>
+    <v>1367858</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2680,9 +2684,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3102,10 +3106,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G100" sqref="G100"/>
+      <selection pane="bottomRight" activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3330,20 +3334,20 @@
         <f>E3-E5</f>
         <v>372620000</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <f>F3*F7</f>
         <v>485016870</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="70" t="s">
+      <c r="L6" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="M6" s="70" t="s">
+      <c r="M6" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="70" t="s">
+      <c r="N6" s="69" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3360,7 +3364,7 @@
       <c r="D7" s="2">
         <v>0.88129999999999997</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="67">
         <f>0.8782</f>
         <v>0.87819999999999998</v>
       </c>
@@ -3550,7 +3554,7 @@
         <f>E22/(E72+E56+E61)</f>
         <v>-0.25634120464397225</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="75">
         <f>E67/E72</f>
         <v>0.41768468277304555</v>
       </c>
@@ -3620,20 +3624,20 @@
         <v>635747000</v>
       </c>
       <c r="K16" s="22">
-        <f>(E35+D35+C35+B35)/4</f>
-        <v>3.5630976026606309E-2</v>
-      </c>
-      <c r="L16" s="29">
+        <f>AVERAGE(B35:F35)</f>
+        <v>3.6985512862226511E-2</v>
+      </c>
+      <c r="L16" s="28">
         <f>M102/E3</f>
-        <v>17.037782227197738</v>
-      </c>
-      <c r="M16" s="29">
+        <v>15.400725901484799</v>
+      </c>
+      <c r="M16" s="28">
         <f>M102/E28</f>
-        <v>-44.099965832143774</v>
-      </c>
-      <c r="N16" s="28">
+        <v>-39.8626697412247</v>
+      </c>
+      <c r="N16" s="27">
         <f>M102/E107</f>
-        <v>-86.599235714799107</v>
+        <v>-78.278444620139439</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3698,35 +3702,35 @@
       <c r="E19" s="10">
         <v>-211411000</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="30">
         <v>-30000000</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="30">
         <v>-12000000</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="30">
         <v>48855000</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="30">
         <v>172900000</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="30">
         <v>298100000</v>
       </c>
       <c r="K19" s="23">
         <f>E40-E56-E61</f>
         <v>936651000</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="28">
         <f>M102/F3</f>
-        <v>13.335419662423908</v>
-      </c>
-      <c r="M19" s="30" t="s">
+        <v>12.05410071942446</v>
+      </c>
+      <c r="M19" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="27">
         <f>M102/F107</f>
-        <v>516.36649992857144</v>
+        <v>466.75200000000001</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3784,27 +3788,27 @@
         <f>E19/E3</f>
         <v>-0.49825830780108415</v>
       </c>
-      <c r="F21" s="71">
+      <c r="F21" s="70">
         <f t="shared" ref="F21:J21" si="4">F19/F3</f>
         <v>-5.5340343110127282E-2</v>
       </c>
-      <c r="G21" s="71">
+      <c r="G21" s="70">
         <f t="shared" si="4"/>
         <v>-1.721664275466284E-2</v>
       </c>
-      <c r="H21" s="71">
+      <c r="H21" s="70">
         <f t="shared" si="4"/>
         <v>5.4556113902847571E-2</v>
       </c>
-      <c r="I21" s="71">
+      <c r="I21" s="70">
         <f t="shared" si="4"/>
         <v>0.12951310861423221</v>
       </c>
-      <c r="J21" s="71">
+      <c r="J21" s="70">
         <f t="shared" si="4"/>
         <v>0.17957831325301205</v>
       </c>
-      <c r="L21" s="43" t="s">
+      <c r="L21" s="42" t="s">
         <v>168</v>
       </c>
       <c r="M21" s="16" t="s">
@@ -3833,13 +3837,13 @@
       <c r="L22" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="M22" s="36">
+      <c r="M22" s="35">
         <f>(-1*E98)/M102</f>
         <v>0</v>
       </c>
-      <c r="N22" s="37">
+      <c r="N22" s="36">
         <f>F107/M102</f>
-        <v>1.936608978580774E-3</v>
+        <v>2.1424653777594952E-3</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3945,19 +3949,19 @@
       <c r="E28" s="11">
         <v>-163926000</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="32">
         <v>-23000000</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="32">
         <v>6000000</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="32">
         <v>92700000</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="32">
         <v>317600000</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="32">
         <v>547700000</v>
       </c>
     </row>
@@ -4016,23 +4020,23 @@
         <f>E28/E3</f>
         <v>-0.38634456752297902</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="31">
         <f t="shared" ref="F30:J30" si="6">F28/F3</f>
         <v>-4.2427596384430916E-2</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="31">
         <f t="shared" si="6"/>
         <v>8.60832137733142E-3</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="31">
         <f t="shared" si="6"/>
         <v>0.10351758793969849</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="31">
         <f t="shared" si="6"/>
         <v>0.23790262172284643</v>
       </c>
-      <c r="J30" s="32">
+      <c r="J30" s="31">
         <f t="shared" si="6"/>
         <v>0.32993975903614459</v>
       </c>
@@ -4054,19 +4058,19 @@
         <f>E28/E33</f>
         <v>-1.104570539125513</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="33">
         <v>-0.15</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="33">
         <v>0.04</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="33">
         <v>0.61</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="33">
         <v>2.08</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="33">
         <v>3.58</v>
       </c>
     </row>
@@ -4992,12 +4996,12 @@
       <c r="E84" s="1">
         <v>5184000</v>
       </c>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="44"/>
-      <c r="K84" s="44"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="43"/>
       <c r="L84" s="76" t="s">
         <v>121</v>
       </c>
@@ -5017,12 +5021,12 @@
         <v>56254000</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="44"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="43"/>
       <c r="L85" s="78" t="s">
         <v>122</v>
       </c>
@@ -5044,16 +5048,16 @@
       <c r="E86" s="1">
         <v>-594000</v>
       </c>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="44"/>
-      <c r="K86" s="44"/>
-      <c r="L86" s="38" t="s">
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="M86" s="45">
+      <c r="M86" s="44">
         <f>E17</f>
         <v>14496000</v>
       </c>
@@ -5074,16 +5078,16 @@
       <c r="E87" s="10">
         <v>-77408000</v>
       </c>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="38" t="s">
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="M87" s="45">
+      <c r="M87" s="44">
         <f>E56</f>
         <v>0</v>
       </c>
@@ -5104,16 +5108,16 @@
       <c r="E88" s="1">
         <v>-6070000</v>
       </c>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="44"/>
-      <c r="L88" s="38" t="s">
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="M88" s="45">
+      <c r="M88" s="44">
         <f>E61</f>
         <v>0</v>
       </c>
@@ -5138,16 +5142,16 @@
         <f t="shared" si="9"/>
         <v>1.4305915625736507E-2</v>
       </c>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="44"/>
-      <c r="K89" s="44"/>
-      <c r="L89" s="39" t="s">
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="43"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="M89" s="46">
+      <c r="M89" s="45">
         <v>0</v>
       </c>
     </row>
@@ -5167,16 +5171,16 @@
       <c r="E90" s="1">
         <v>0</v>
       </c>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="44"/>
-      <c r="K90" s="44"/>
-      <c r="L90" s="38" t="s">
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="M90" s="45">
+      <c r="M90" s="44">
         <f>E27</f>
         <v>2898000</v>
       </c>
@@ -5197,16 +5201,16 @@
       <c r="E91" s="1">
         <v>-821622000</v>
       </c>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
-      <c r="K91" s="44"/>
-      <c r="L91" s="38" t="s">
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="M91" s="45">
+      <c r="M91" s="44">
         <f>E25</f>
         <v>-177798000</v>
       </c>
@@ -5227,16 +5231,16 @@
       <c r="E92" s="1">
         <v>231626000</v>
       </c>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="44"/>
-      <c r="K92" s="44"/>
-      <c r="L92" s="39" t="s">
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="M92" s="46">
+      <c r="M92" s="45">
         <f>M90/M91</f>
         <v>-1.6299395943711402E-2</v>
       </c>
@@ -5257,16 +5261,16 @@
       <c r="E93" s="1">
         <v>-9620000</v>
       </c>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="44"/>
-      <c r="K93" s="44"/>
-      <c r="L93" s="39" t="s">
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="M93" s="46">
+      <c r="M93" s="45">
         <f>M89*(1-M92)</f>
         <v>0</v>
       </c>
@@ -5287,12 +5291,12 @@
       <c r="E94" s="10">
         <v>-605686000</v>
       </c>
-      <c r="F94" s="44"/>
-      <c r="G94" s="44"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="44"/>
-      <c r="J94" s="44"/>
-      <c r="K94" s="44"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="43"/>
       <c r="L94" s="78" t="s">
         <v>130</v>
       </c>
@@ -5314,18 +5318,18 @@
       <c r="E95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F95" s="44"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="44"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="44"/>
-      <c r="K95" s="44"/>
-      <c r="L95" s="38" t="s">
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="43"/>
+      <c r="J95" s="43"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="M95" s="72">
+      <c r="M95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5344,18 +5348,18 @@
       <c r="E96" s="1">
         <v>38983000</v>
       </c>
-      <c r="F96" s="44"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="44"/>
-      <c r="I96" s="44"/>
-      <c r="J96" s="44"/>
-      <c r="K96" s="44"/>
-      <c r="L96" s="38" t="s">
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="M96" s="49" cm="1">
+      <c r="M96" s="48" cm="1">
         <f t="array" ref="M96">_FV(A1,"Beta")</f>
-        <v>2.5179999999999998</v>
+        <v>2.5139999999999998</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5374,16 +5378,16 @@
       <c r="E97" s="1">
         <v>0</v>
       </c>
-      <c r="F97" s="44"/>
-      <c r="G97" s="44"/>
-      <c r="H97" s="44"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="44"/>
-      <c r="K97" s="44"/>
-      <c r="L97" s="38" t="s">
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="43"/>
+      <c r="J97" s="43"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="M97" s="48">
+      <c r="M97" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5403,18 +5407,18 @@
       <c r="E98" s="1">
         <v>0</v>
       </c>
-      <c r="F98" s="44"/>
-      <c r="G98" s="44"/>
-      <c r="H98" s="44"/>
-      <c r="I98" s="44"/>
-      <c r="J98" s="44"/>
-      <c r="K98" s="44"/>
-      <c r="L98" s="39" t="s">
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="43"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="M98" s="46">
+      <c r="M98" s="45">
         <f>(M95)+((M96)*(M97-M95))</f>
-        <v>0.13709963999999999</v>
+        <v>0.13782269999999999</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5433,12 +5437,12 @@
       <c r="E99" s="1">
         <v>64863000</v>
       </c>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="44"/>
-      <c r="I99" s="44"/>
-      <c r="J99" s="44"/>
-      <c r="K99" s="44"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="43"/>
       <c r="L99" s="78" t="s">
         <v>135</v>
       </c>
@@ -5460,16 +5464,16 @@
       <c r="E100" s="10">
         <v>97482000</v>
       </c>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="44"/>
-      <c r="I100" s="44"/>
-      <c r="J100" s="44"/>
-      <c r="K100" s="44"/>
-      <c r="L100" s="38" t="s">
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="M100" s="45">
+      <c r="M100" s="44">
         <f>M87+M88</f>
         <v>0</v>
       </c>
@@ -5490,16 +5494,16 @@
       <c r="E101" s="1">
         <v>-3658000</v>
       </c>
-      <c r="F101" s="44"/>
-      <c r="G101" s="44"/>
-      <c r="H101" s="44"/>
-      <c r="I101" s="44"/>
-      <c r="J101" s="44"/>
-      <c r="K101" s="44"/>
-      <c r="L101" s="39" t="s">
+      <c r="F101" s="43"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="43"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="M101" s="46">
+      <c r="M101" s="45">
         <f>M100/M104</f>
         <v>0</v>
       </c>
@@ -5520,18 +5524,18 @@
       <c r="E102" s="10">
         <v>-589270000</v>
       </c>
-      <c r="F102" s="44"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="44"/>
-      <c r="J102" s="44"/>
-      <c r="K102" s="44"/>
-      <c r="L102" s="38" t="s">
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="43"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="M102" s="50" cm="1">
+      <c r="M102" s="49" cm="1">
         <f t="array" ref="M102">_FV(A1,"Market cap",TRUE)</f>
-        <v>7229130999</v>
+        <v>6534528000</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5550,16 +5554,16 @@
       <c r="E103" s="1">
         <v>887172000</v>
       </c>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="44"/>
-      <c r="J103" s="44"/>
-      <c r="K103" s="44"/>
-      <c r="L103" s="39" t="s">
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="43"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="M103" s="46">
+      <c r="M103" s="45">
         <f>M102/M104</f>
         <v>1</v>
       </c>
@@ -5587,13 +5591,13 @@
       <c r="H104" s="80"/>
       <c r="I104" s="80"/>
       <c r="J104" s="80"/>
-      <c r="K104" s="44"/>
-      <c r="L104" s="39" t="s">
+      <c r="K104" s="43"/>
+      <c r="L104" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="M104" s="51">
+      <c r="M104" s="50">
         <f>M100+M102</f>
-        <v>7229130999</v>
+        <v>6534528000</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5616,27 +5620,27 @@
         <f>(E22*(1-0.2))+E77+E88+E81</f>
         <v>-102072800</v>
       </c>
-      <c r="F105" s="73">
+      <c r="F105" s="72">
         <f>F107/F3</f>
         <v>2.5825493451392734E-2</v>
       </c>
-      <c r="G105" s="73">
+      <c r="G105" s="72">
         <f>G107/G3</f>
         <v>9.6126255380200865E-2</v>
       </c>
-      <c r="H105" s="73">
+      <c r="H105" s="72">
         <f>H107/H3</f>
         <v>0.13958682300390843</v>
       </c>
-      <c r="I105" s="73">
+      <c r="I105" s="72">
         <f>I107/I3</f>
         <v>0.13632958801498127</v>
       </c>
-      <c r="J105" s="73">
+      <c r="J105" s="72">
         <f>J107/J3</f>
         <v>0.27891566265060241</v>
       </c>
-      <c r="K105" s="74" t="s">
+      <c r="K105" s="73" t="s">
         <v>165</v>
       </c>
       <c r="L105" s="78" t="s">
@@ -5661,40 +5665,40 @@
         <f>(E107/D107)-1</f>
         <v>0.56457689063817829</v>
       </c>
-      <c r="F106" s="53">
+      <c r="F106" s="52">
         <f>(F107/E107)/4</f>
         <v>-4.1927214355878192E-2</v>
       </c>
-      <c r="G106" s="53">
+      <c r="G106" s="52">
         <f>(G107/F107)-1</f>
         <v>3.7857142857142856</v>
       </c>
-      <c r="H106" s="53">
+      <c r="H106" s="52">
         <f>(H107/G107)-1</f>
         <v>0.86567164179104483</v>
       </c>
-      <c r="I106" s="53">
+      <c r="I106" s="52">
         <f>(I107/H107)-1</f>
         <v>0.45599999999999996</v>
       </c>
-      <c r="J106" s="53">
+      <c r="J106" s="52">
         <f>(J107/I107)-1</f>
         <v>1.5439560439560438</v>
       </c>
-      <c r="K106" s="54">
+      <c r="K106" s="53">
         <f>SUM(F106:J106)/5</f>
         <v>1.3218829514210992</v>
       </c>
-      <c r="L106" s="40" t="s">
+      <c r="L106" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="M106" s="55">
+      <c r="M106" s="54">
         <f>(M101*M93)+(M103*M98)</f>
-        <v>0.13709963999999999</v>
+        <v>0.13782269999999999</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="35" t="s">
+      <c r="A107" s="34" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1">
@@ -5711,81 +5715,81 @@
         <f>+E87+E88</f>
         <v>-83478000</v>
       </c>
-      <c r="F107" s="56">
+      <c r="F107" s="55">
         <v>14000000</v>
       </c>
-      <c r="G107" s="56">
+      <c r="G107" s="55">
         <v>67000000</v>
       </c>
-      <c r="H107" s="56">
+      <c r="H107" s="55">
         <v>125000000</v>
       </c>
-      <c r="I107" s="56">
+      <c r="I107" s="55">
         <v>182000000</v>
       </c>
-      <c r="J107" s="56">
+      <c r="J107" s="55">
         <v>463000000</v>
       </c>
-      <c r="K107" s="52" t="s">
+      <c r="K107" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="L107" s="57" t="s">
+      <c r="L107" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="M107" s="41">
+      <c r="M107" s="40">
         <f>(SUM(F4:J4)/5)</f>
         <v>0.31647986321927457</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="F108" s="75"/>
-      <c r="G108" s="75"/>
-      <c r="H108" s="75"/>
-      <c r="I108" s="75"/>
-      <c r="J108" s="58">
+      <c r="F108" s="74"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="74"/>
+      <c r="I108" s="74"/>
+      <c r="J108" s="57">
         <f>J107*(1+M108)/(M109-M108)</f>
-        <v>4233510473.3610201</v>
-      </c>
-      <c r="K108" s="59" t="s">
+        <v>4206378680.8860269</v>
+      </c>
+      <c r="K108" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="L108" s="60" t="s">
+      <c r="L108" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="M108" s="42">
+      <c r="M108" s="41">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="F109" s="58">
+      <c r="F109" s="57">
         <f t="shared" ref="F109:I109" si="11">F108+F107</f>
         <v>14000000</v>
       </c>
-      <c r="G109" s="58">
+      <c r="G109" s="57">
         <f t="shared" si="11"/>
         <v>67000000</v>
       </c>
-      <c r="H109" s="58">
+      <c r="H109" s="57">
         <f t="shared" si="11"/>
         <v>125000000</v>
       </c>
-      <c r="I109" s="58">
+      <c r="I109" s="57">
         <f t="shared" si="11"/>
         <v>182000000</v>
       </c>
-      <c r="J109" s="58">
+      <c r="J109" s="57">
         <f>J108+J107</f>
-        <v>4696510473.3610201</v>
-      </c>
-      <c r="K109" s="59" t="s">
+        <v>4669378680.8860264</v>
+      </c>
+      <c r="K109" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="L109" s="61" t="s">
+      <c r="L109" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="M109" s="41">
+      <c r="M109" s="40">
         <f>M106</f>
-        <v>0.13709963999999999</v>
+        <v>0.13782269999999999</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -5793,147 +5797,147 @@
         <v>147</v>
       </c>
       <c r="G110" s="79"/>
-      <c r="H110" s="44"/>
-      <c r="I110" s="44"/>
-      <c r="J110" s="44"/>
-      <c r="K110" s="44"/>
-      <c r="L110" s="44"/>
-      <c r="M110" s="44"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="43"/>
+      <c r="K110" s="43"/>
+      <c r="L110" s="43"/>
+      <c r="M110" s="43"/>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="F111" s="62" t="s">
+      <c r="F111" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="G111" s="50">
+      <c r="G111" s="49">
         <f>NPV(M109,F109,G109,H109,I109,J109)</f>
-        <v>2728498264.394362</v>
-      </c>
-      <c r="H111" s="44"/>
-      <c r="I111" s="44"/>
-      <c r="J111" s="44"/>
-      <c r="K111" s="44"/>
-      <c r="L111" s="44"/>
-      <c r="M111" s="44"/>
+        <v>2705919707.6690207</v>
+      </c>
+      <c r="H111" s="43"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="43"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="43"/>
+      <c r="M111" s="43"/>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="F112" s="62" t="s">
+      <c r="F112" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="G112" s="50">
+      <c r="G112" s="49">
         <f>E40</f>
         <v>936651000</v>
       </c>
-      <c r="H112" s="44"/>
-      <c r="I112" s="44"/>
-      <c r="J112" s="44"/>
-      <c r="K112" s="44"/>
-      <c r="L112" s="44"/>
-      <c r="M112" s="44"/>
+      <c r="H112" s="43"/>
+      <c r="I112" s="43"/>
+      <c r="J112" s="43"/>
+      <c r="K112" s="43"/>
+      <c r="L112" s="43"/>
+      <c r="M112" s="43"/>
     </row>
     <row r="113" spans="6:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="F113" s="62" t="s">
+      <c r="F113" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="G113" s="50">
+      <c r="G113" s="49">
         <f>M100</f>
         <v>0</v>
       </c>
-      <c r="H113" s="44"/>
-      <c r="I113" s="44"/>
-      <c r="J113" s="44"/>
-      <c r="K113" s="44"/>
-      <c r="L113" s="44"/>
-      <c r="M113" s="44"/>
+      <c r="H113" s="43"/>
+      <c r="I113" s="43"/>
+      <c r="J113" s="43"/>
+      <c r="K113" s="43"/>
+      <c r="L113" s="43"/>
+      <c r="M113" s="43"/>
     </row>
     <row r="114" spans="6:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="F114" s="62" t="s">
+      <c r="F114" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="G114" s="50">
+      <c r="G114" s="49">
         <f>G111+G112-G113</f>
-        <v>3665149264.394362</v>
-      </c>
-      <c r="H114" s="44"/>
-      <c r="I114" s="44"/>
-      <c r="J114" s="44"/>
-      <c r="K114" s="44"/>
-      <c r="L114" s="44"/>
-      <c r="M114" s="44"/>
+        <v>3642570707.6690207</v>
+      </c>
+      <c r="H114" s="43"/>
+      <c r="I114" s="43"/>
+      <c r="J114" s="43"/>
+      <c r="K114" s="43"/>
+      <c r="L114" s="43"/>
+      <c r="M114" s="43"/>
     </row>
     <row r="115" spans="6:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="F115" s="62" t="s">
+      <c r="F115" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="G115" s="62">
+      <c r="G115" s="61">
         <f>E34*(1+(K16*5))</f>
-        <v>174846431.29590282</v>
-      </c>
-      <c r="H115" s="44"/>
-      <c r="I115" s="44"/>
-      <c r="J115" s="44"/>
-      <c r="K115" s="44"/>
-      <c r="L115" s="44"/>
-      <c r="M115" s="44"/>
+        <v>175851545.03672224</v>
+      </c>
+      <c r="H115" s="43"/>
+      <c r="I115" s="43"/>
+      <c r="J115" s="43"/>
+      <c r="K115" s="43"/>
+      <c r="L115" s="43"/>
+      <c r="M115" s="43"/>
     </row>
     <row r="116" spans="6:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="F116" s="63" t="s">
+      <c r="F116" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="G116" s="64">
+      <c r="G116" s="63">
         <f>G114/G115</f>
-        <v>20.962105072602917</v>
-      </c>
-      <c r="H116" s="44"/>
-      <c r="I116" s="44"/>
-      <c r="J116" s="44"/>
-      <c r="K116" s="44"/>
-      <c r="L116" s="44"/>
-      <c r="M116" s="44"/>
+        <v>20.713896525096551</v>
+      </c>
+      <c r="H116" s="43"/>
+      <c r="I116" s="43"/>
+      <c r="J116" s="43"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="43"/>
+      <c r="M116" s="43"/>
     </row>
     <row r="117" spans="6:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="F117" s="62" t="s">
+      <c r="F117" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="G117" s="65" cm="1">
+      <c r="G117" s="64" cm="1">
         <f t="array" ref="G117">_FV(A1,"Price")</f>
-        <v>46.73</v>
-      </c>
-      <c r="H117" s="44"/>
-      <c r="I117" s="44"/>
-      <c r="J117" s="44"/>
-      <c r="K117" s="44"/>
-      <c r="L117" s="44"/>
-      <c r="M117" s="44"/>
+        <v>42.24</v>
+      </c>
+      <c r="H117" s="43"/>
+      <c r="I117" s="43"/>
+      <c r="J117" s="43"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="43"/>
+      <c r="M117" s="43"/>
     </row>
     <row r="118" spans="6:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="F118" s="63" t="s">
+      <c r="F118" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="G118" s="66">
+      <c r="G118" s="65">
         <f>G116/G117-1</f>
-        <v>-0.55142082018825334</v>
-      </c>
-      <c r="H118" s="44"/>
-      <c r="I118" s="44"/>
-      <c r="J118" s="44"/>
-      <c r="K118" s="44"/>
-      <c r="L118" s="44"/>
-      <c r="M118" s="44"/>
+        <v>-0.50961419211419146</v>
+      </c>
+      <c r="H118" s="43"/>
+      <c r="I118" s="43"/>
+      <c r="J118" s="43"/>
+      <c r="K118" s="43"/>
+      <c r="L118" s="43"/>
+      <c r="M118" s="43"/>
     </row>
     <row r="119" spans="6:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="F119" s="63" t="s">
+      <c r="F119" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G119" s="67" t="str">
+      <c r="G119" s="66" t="str">
         <f>IF(G116&gt;G117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
-      <c r="H119" s="44"/>
-      <c r="I119" s="44"/>
-      <c r="J119" s="44"/>
-      <c r="K119" s="44"/>
-      <c r="L119" s="44"/>
-      <c r="M119" s="44"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="43"/>
+      <c r="J119" s="43"/>
+      <c r="K119" s="43"/>
+      <c r="L119" s="43"/>
+      <c r="M119" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Technology/Software/GitLab.xlsx
+++ b/Technology/Software/GitLab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A863206-0F02-0B41-A2D1-EFA792D8D1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD04524D-C92B-EB46-B162-A8E89E6A24D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1456,6 +1456,12 @@
     <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -1491,12 +1497,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1551,7 +1551,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6689999999999995E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1690,11 +1690,11 @@
     <v>Powered by Refinitiv</v>
     <v>58.7</v>
     <v>26.24</v>
-    <v>2.504</v>
-    <v>0.71</v>
-    <v>1.7047E-2</v>
-    <v>-0.22</v>
-    <v>-5.1939999999999998E-3</v>
+    <v>2.4169999999999998</v>
+    <v>-1.47</v>
+    <v>-3.2856999999999997E-2</v>
+    <v>-0.11</v>
+    <v>-2.542E-3</v>
     <v>USD</v>
     <v>GitLab Inc. provides DevSecOps Platform, a single application that brings together development, operations, information technology, security, and business teams. The DevSecOps Platform is built on a single codebase, unified data model, and user interface. The Company allows organizations to deploy the DevSecOps Platform as a self-managed offering in their own hybrid-cloud, or on-premises environments, and as a software as a service offering, it is hosted in either the public cloud or in a private cloud based on the customer’s preference. The DevSecOps Platform enables its customers to move their DevOps workflow across any hybrid or multi-cloud environment. Its DevSecOps platform is used by teams of all sizes across a range of industries. It offers the DevSecOps Platform in three different subscription tiers, namely Free, Premium and Ultimate. Its Free tier platform includes significant functionality for individual users and the paid tiers are for managers, directors, and executives.</v>
     <v>2170</v>
@@ -1702,24 +1702,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>268 BUSH STREET, #350, SAN FRANCISCO, CA, 94104 US</v>
-    <v>42.72</v>
+    <v>45.49</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45233.996945914063</v>
+    <v>45239.966375312499</v>
     <v>0</v>
-    <v>40.85</v>
-    <v>6553092000</v>
+    <v>43.19</v>
+    <v>6693869000</v>
     <v>Gitlab Inc.</v>
     <v>Gitlab Inc.</v>
-    <v>41.43</v>
-    <v>41.65</v>
-    <v>42.36</v>
-    <v>42.14</v>
+    <v>45.3</v>
+    <v>44.74</v>
+    <v>43.27</v>
+    <v>43.16</v>
     <v>154700000</v>
     <v>GTLB</v>
     <v>Gitlab Inc. (XNAS:GTLB)</v>
-    <v>3047016</v>
-    <v>1283574</v>
+    <v>1245238</v>
+    <v>1390489</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -1881,9 +1881,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -8563,7 +8563,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8571,48 +8571,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="109" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="e" vm="1">
+    <row r="1" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="110" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-    </row>
-    <row r="2" spans="1:16" s="109" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+    </row>
+    <row r="2" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>6553092000</v>
+        <v>6693869000</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>192</v>
@@ -8640,12 +8640,12 @@
       </c>
       <c r="I3" s="39">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>4292513036.0375857</v>
+        <v>4362052608.9186964</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="115">
+      <c r="K3" s="103">
         <f>(Financials!F172*-1)/Model!A3</f>
         <v>0</v>
       </c>
@@ -8653,10 +8653,10 @@
         <v>203</v>
       </c>
       <c r="M3" s="41"/>
-      <c r="N3" s="110" t="s">
+      <c r="N3" s="112" t="s">
         <v>197</v>
       </c>
-      <c r="O3" s="111"/>
+      <c r="O3" s="113"/>
       <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -8690,23 +8690,23 @@
       </c>
       <c r="I4" s="48">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>2775962470.2566605</v>
+        <v>2833965370.813848</v>
       </c>
       <c r="J4" s="45" t="s">
         <v>202</v>
       </c>
       <c r="K4" s="54" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.7047E-2</v>
+        <v>-3.2856999999999997E-2</v>
       </c>
       <c r="L4" s="47" t="s">
         <v>242</v>
       </c>
       <c r="M4" s="41"/>
-      <c r="N4" s="112" t="s">
+      <c r="N4" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="O4" s="113"/>
+      <c r="O4" s="115"/>
       <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -8740,14 +8740,14 @@
       </c>
       <c r="I5" s="48">
         <f>I4+G5-G6</f>
-        <v>3761490470.2566605</v>
+        <v>3819493370.813848</v>
       </c>
       <c r="J5" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="116" cm="1">
+      <c r="K5" s="104" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>42.36</v>
+        <v>43.27</v>
       </c>
       <c r="L5" s="43" t="s">
         <v>210</v>
@@ -8765,7 +8765,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52">
         <f>O20/F10</f>
-        <v>11.786136690647481</v>
+        <v>12.03933273381295</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>212</v>
@@ -8793,14 +8793,14 @@
       </c>
       <c r="I6" s="54">
         <f>N25</f>
-        <v>0.13579756683488742</v>
+        <v>0.13403123887767501</v>
       </c>
       <c r="J6" s="47" t="s">
         <v>215</v>
       </c>
       <c r="K6" s="55">
         <f>I5/G4</f>
-        <v>22.134112777658476</v>
+        <v>22.475425018780943</v>
       </c>
       <c r="L6" s="56" t="s">
         <v>216</v>
@@ -8818,14 +8818,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59">
         <f>O20/F12</f>
-        <v>-655.30920000000003</v>
+        <v>-669.38689999999997</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>218</v>
       </c>
       <c r="C7" s="61">
         <f>F14/A3</f>
-        <v>2.1363960707403468E-3</v>
+        <v>2.091466086354543E-3</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>219</v>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="K7" s="68">
         <f>K6/K5-1</f>
-        <v>-0.47747609117897838</v>
+        <v>-0.48057718930480842</v>
       </c>
       <c r="L7" s="69" t="s">
         <v>222</v>
@@ -9110,10 +9110,10 @@
       </c>
       <c r="L13" s="78"/>
       <c r="M13" s="78"/>
-      <c r="N13" s="112" t="s">
+      <c r="N13" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="O13" s="113"/>
+      <c r="O13" s="115"/>
       <c r="P13" s="41"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -9157,7 +9157,7 @@
       </c>
       <c r="O14" s="87">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6689999999999995E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="P14" s="41"/>
     </row>
@@ -9207,7 +9207,7 @@
       </c>
       <c r="O15" s="91" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>2.504</v>
+        <v>2.4169999999999998</v>
       </c>
       <c r="P15" s="41"/>
     </row>
@@ -9262,7 +9262,7 @@
       </c>
       <c r="O17" s="98">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.14011424</v>
+        <v>0.13825693</v>
       </c>
       <c r="P17" s="41"/>
     </row>
@@ -9280,23 +9280,23 @@
       <c r="K18" s="78"/>
       <c r="L18" s="78"/>
       <c r="M18" s="78"/>
-      <c r="N18" s="112" t="s">
+      <c r="N18" s="114" t="s">
         <v>236</v>
       </c>
-      <c r="O18" s="113"/>
+      <c r="O18" s="115"/>
       <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="103" t="str" cm="1">
+      <c r="A19" s="105" t="str" cm="1">
         <f t="array" ref="A19">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="114" cm="1">
+      <c r="B19" s="105"/>
+      <c r="C19" s="116" cm="1">
         <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2014</v>
       </c>
-      <c r="D19" s="114"/>
+      <c r="D19" s="116"/>
       <c r="E19" s="99"/>
       <c r="F19" s="78" t="s">
         <v>237</v>
@@ -9318,14 +9318,14 @@
       <c r="P19" s="41"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="103" t="str" cm="1">
+      <c r="A20" s="105" t="str" cm="1">
         <f t="array" ref="A20">_FV(A1,"Description")</f>
         <v>GitLab Inc. provides DevSecOps Platform, a single application that brings together development, operations, information technology, security, and business teams. The DevSecOps Platform is built on a single codebase, unified data model, and user interface. The Company allows organizations to deploy the DevSecOps Platform as a self-managed offering in their own hybrid-cloud, or on-premises environments, and as a software as a service offering, it is hosted in either the public cloud or in a private cloud based on the customer’s preference. The DevSecOps Platform enables its customers to move their DevOps workflow across any hybrid or multi-cloud environment. Its DevSecOps platform is used by teams of all sizes across a range of industries. It offers the DevSecOps Platform in three different subscription tiers, namely Free, Premium and Ultimate. Its Free tier platform includes significant functionality for individual users and the paid tiers are for managers, directors, and executives.</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="78"/>
       <c r="G20" s="78"/>
       <c r="H20" s="78"/>
@@ -9339,16 +9339,16 @@
       </c>
       <c r="O20" s="100">
         <f>A3</f>
-        <v>6553092000</v>
+        <v>6693869000</v>
       </c>
       <c r="P20" s="41"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="103"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
       <c r="F21" s="78"/>
       <c r="G21" s="78"/>
       <c r="H21" s="78"/>
@@ -9361,16 +9361,16 @@
       </c>
       <c r="O21" s="100">
         <f>O19+O20</f>
-        <v>6553847000</v>
+        <v>6694624000</v>
       </c>
       <c r="P21" s="41"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="103"/>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
       <c r="F22" s="78"/>
       <c r="G22" s="78"/>
       <c r="H22" s="78"/>
@@ -9384,16 +9384,16 @@
       </c>
       <c r="O22" s="101">
         <f>(O19/O21)</f>
-        <v>1.1519951564325502E-4</v>
+        <v>1.1277705812903009E-4</v>
       </c>
       <c r="P22" s="41"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="103"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
       <c r="F23" s="78"/>
       <c r="G23" s="78"/>
       <c r="H23" s="78"/>
@@ -9407,16 +9407,16 @@
       </c>
       <c r="O23" s="102">
         <f>O20/O21</f>
-        <v>0.99988480048435679</v>
+        <v>0.99988722294187093</v>
       </c>
       <c r="P23" s="41"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="103"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
       <c r="F24" s="78"/>
       <c r="G24" s="78"/>
       <c r="H24" s="78"/>
@@ -9425,18 +9425,18 @@
       <c r="K24" s="78"/>
       <c r="L24" s="78"/>
       <c r="M24" s="78"/>
-      <c r="N24" s="104" t="s">
+      <c r="N24" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="O24" s="105"/>
+      <c r="O24" s="107"/>
       <c r="P24" s="41"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="103"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="78"/>
       <c r="G25" s="78"/>
       <c r="H25" s="78"/>
@@ -9445,19 +9445,19 @@
       <c r="K25" s="78"/>
       <c r="L25" s="78"/>
       <c r="M25" s="78"/>
-      <c r="N25" s="106">
+      <c r="N25" s="108">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.13579756683488742</v>
-      </c>
-      <c r="O25" s="107"/>
+        <v>0.13403123887767501</v>
+      </c>
+      <c r="O25" s="109"/>
       <c r="P25" s="41"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="103"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
       <c r="F26" s="78"/>
       <c r="G26" s="78"/>
       <c r="H26" s="78"/>
@@ -9471,11 +9471,11 @@
       <c r="P26" s="41"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="103"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
       <c r="F27" s="78"/>
       <c r="G27" s="78"/>
       <c r="H27" s="78"/>

--- a/Technology/Software/GitLab.xlsx
+++ b/Technology/Software/GitLab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD04524D-C92B-EB46-B162-A8E89E6A24D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6848BD29-FC51-6B49-9464-3B6AC83BBF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="244">
   <si>
     <t>2020 Y</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>Daily Change (%)</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -815,7 +818,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -959,6 +962,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1042,7 +1056,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1087,68 +1101,86 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
       <bottom/>
@@ -1156,21 +1188,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,7 +1207,148 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1188,7 +1356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1251,252 +1419,262 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1534,6 +1712,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1551,7 +1730,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1563,6 +1742,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1690,11 +1870,11 @@
     <v>Powered by Refinitiv</v>
     <v>58.7</v>
     <v>26.24</v>
-    <v>2.4169999999999998</v>
-    <v>-1.47</v>
-    <v>-3.2856999999999997E-2</v>
-    <v>-0.11</v>
-    <v>-2.542E-3</v>
+    <v>2.3839999999999999</v>
+    <v>4.13</v>
+    <v>8.5435999999999998E-2</v>
+    <v>0.91</v>
+    <v>1.7343000000000001E-2</v>
     <v>USD</v>
     <v>GitLab Inc. provides DevSecOps Platform, a single application that brings together development, operations, information technology, security, and business teams. The DevSecOps Platform is built on a single codebase, unified data model, and user interface. The Company allows organizations to deploy the DevSecOps Platform as a self-managed offering in their own hybrid-cloud, or on-premises environments, and as a software as a service offering, it is hosted in either the public cloud or in a private cloud based on the customer’s preference. The DevSecOps Platform enables its customers to move their DevOps workflow across any hybrid or multi-cloud environment. Its DevSecOps platform is used by teams of all sizes across a range of industries. It offers the DevSecOps Platform in three different subscription tiers, namely Free, Premium and Ultimate. Its Free tier platform includes significant functionality for individual users and the paid tiers are for managers, directors, and executives.</v>
     <v>2170</v>
@@ -1702,24 +1882,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>268 BUSH STREET, #350, SAN FRANCISCO, CA, 94104 US</v>
-    <v>45.49</v>
+    <v>52.86</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45239.966375312499</v>
+    <v>45262.041129941405</v>
     <v>0</v>
-    <v>43.19</v>
-    <v>6693869000</v>
+    <v>48.704999999999998</v>
+    <v>8117109000</v>
     <v>Gitlab Inc.</v>
     <v>Gitlab Inc.</v>
-    <v>45.3</v>
-    <v>44.74</v>
-    <v>43.27</v>
-    <v>43.16</v>
+    <v>48.88</v>
+    <v>48.34</v>
+    <v>52.47</v>
+    <v>53.38</v>
     <v>154700000</v>
     <v>GTLB</v>
     <v>Gitlab Inc. (XNAS:GTLB)</v>
-    <v>1245238</v>
-    <v>1390489</v>
+    <v>3826734</v>
+    <v>1438560</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2327,7 +2507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A123" workbookViewId="0">
       <selection activeCell="B36" sqref="B36:E36"/>
     </sheetView>
   </sheetViews>
@@ -8562,8 +8742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFC7265-225C-234A-9539-BEA9F76F2028}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8571,1733 +8751,1794 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="e" vm="1">
+    <row r="1" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="112" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-    </row>
-    <row r="2" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+    </row>
+    <row r="2" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" cm="1">
+      <c r="A3" s="65" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>6693869000</v>
-      </c>
-      <c r="B3" s="35" t="s">
+        <v>8117109000</v>
+      </c>
+      <c r="B3" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="67">
         <f>Financials!F8*0.01</f>
         <v>0.88569999999999993</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="67">
         <f>SUM(C11:E11)/3</f>
         <v>0.73775167231468497</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="38">
-        <f>AVERAGE(Financials!C129:F129)</f>
-        <v>1.9703780196814624E-2</v>
-      </c>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="69">
+        <f>AVERAGE(Financials!E129:J129)</f>
+        <v>8.7684649469115996E-3</v>
+      </c>
+      <c r="H3" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="I3" s="39">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>4362052608.9186964</v>
-      </c>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="70">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>4221541949.1738925</v>
+      </c>
+      <c r="J3" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="103">
+      <c r="K3" s="72">
         <f>(Financials!F172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="112" t="s">
+      <c r="M3" s="34"/>
+      <c r="N3" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="O3" s="113"/>
-      <c r="P3" s="41"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42">
+      <c r="A4" s="74">
         <f>Financials!F56-Financials!F96-Financials!F105</f>
         <v>985528000</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="36">
         <f>Financials!F17*0.01</f>
         <v>-0.42899999999999999</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="36">
         <f>SUM(C13:E13)/3</f>
         <v>0.12930866203551761</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="77">
         <f>A5*(1+(5*G3))</f>
-        <v>169940873.98223609</v>
-      </c>
-      <c r="H4" s="47" t="s">
+        <v>161482407.63643613</v>
+      </c>
+      <c r="H4" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="I4" s="48">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>2833965370.813848</v>
-      </c>
-      <c r="J4" s="45" t="s">
+      <c r="I4" s="35">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>2739715409.0097561</v>
+      </c>
+      <c r="J4" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="K4" s="54" cm="1">
+      <c r="K4" s="78" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-3.2856999999999997E-2</v>
-      </c>
-      <c r="L4" s="47" t="s">
+        <v>8.5435999999999998E-2</v>
+      </c>
+      <c r="L4" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="114" t="s">
+      <c r="M4" s="34"/>
+      <c r="N4" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="O4" s="115"/>
-      <c r="P4" s="41"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" cm="1">
+      <c r="A5" s="74" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>154700000</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="49">
-        <f>Financials!F34*0.01</f>
-        <v>-0.37770000000000004</v>
-      </c>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="36">
+        <f>F14</f>
+        <v>3.5971223021582732E-2</v>
+      </c>
+      <c r="D5" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="44">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="36">
+        <f>SUM(C16:E16)/3</f>
         <v>0.17524515774161184</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="77">
         <f>Financials!F56</f>
         <v>986283000</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>3819493370.813848</v>
-      </c>
-      <c r="J5" s="45" t="s">
+        <v>3725243409.0097561</v>
+      </c>
+      <c r="J5" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="104" cm="1">
+      <c r="K5" s="81" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>43.27</v>
-      </c>
-      <c r="L5" s="43" t="s">
+        <v>52.47</v>
+      </c>
+      <c r="L5" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="50" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="96" t="s">
         <v>211</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="97">
         <f>Financials!F20</f>
         <v>-27333000</v>
       </c>
-      <c r="P5" s="41"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52">
+      <c r="A6" s="83">
         <f>O20/F10</f>
-        <v>12.03933273381295</v>
-      </c>
-      <c r="B6" s="43" t="s">
+        <v>14.599116906474821</v>
+      </c>
+      <c r="B6" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="44">
-        <f>Financials!F190</f>
-        <v>-2.7471050887135787E-4</v>
-      </c>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="36">
+        <f>F17</f>
+        <v>7.1942446043165464E-2</v>
+      </c>
+      <c r="D6" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="36">
         <f>Financials!F33/Financials!F126</f>
         <v>-0.22825778355228332</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="75" t="s">
         <v>213</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="77">
         <f>Financials!F96+Financials!F105</f>
         <v>755000</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="78">
         <f>N25</f>
-        <v>0.13403123887767501</v>
-      </c>
-      <c r="J6" s="47" t="s">
+        <v>0.13766025677965119</v>
+      </c>
+      <c r="J6" s="76" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="84">
         <f>I5/G4</f>
-        <v>22.475425018780943</v>
-      </c>
-      <c r="L6" s="56" t="s">
+        <v>23.069035590532089</v>
+      </c>
+      <c r="L6" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="57" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="O6" s="58">
+      <c r="O6" s="97">
         <f>Financials!F96</f>
         <v>617000</v>
       </c>
-      <c r="P6" s="41"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59">
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="86">
         <f>O20/F12</f>
-        <v>-669.38689999999997</v>
-      </c>
-      <c r="B7" s="60" t="s">
+        <v>405.85545000000002</v>
+      </c>
+      <c r="B7" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="61">
-        <f>F14/A3</f>
-        <v>2.091466086354543E-3</v>
-      </c>
-      <c r="D7" s="62" t="s">
+      <c r="C7" s="88">
+        <f>F15/A3</f>
+        <v>4.9278628634899443E-3</v>
+      </c>
+      <c r="D7" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="89">
         <f>(Financials!F16*(1-0.25))/(Financials!F126+Financials!F105+Financials!F96)</f>
         <v>-0.19428542238835569</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="90">
         <f>(Financials!F96+Financials!F105)/Financials!F126</f>
         <v>9.0828160338770995E-4</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="92">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="67" t="s">
+      <c r="J7" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="94">
         <f>K6/K5-1</f>
-        <v>-0.48057718930480842</v>
-      </c>
-      <c r="L7" s="69" t="s">
+        <v>-0.56033856316881858</v>
+      </c>
+      <c r="L7" s="95" t="s">
         <v>222</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="57" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="O7" s="58">
+      <c r="O7" s="97">
         <f>Financials!F105</f>
         <v>138000</v>
       </c>
-      <c r="P7" s="41"/>
+      <c r="P7" s="34"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="71" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="O8" s="72">
+      <c r="O8" s="99">
         <f>O5/(O6+O7)</f>
         <v>-36.202649006622515</v>
       </c>
-      <c r="P8" s="41"/>
+      <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74">
+      <c r="A9" s="45"/>
+      <c r="B9" s="46">
         <v>2020</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="46">
         <v>2021</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="46">
         <v>2022</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="47">
         <v>2023</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="48">
         <v>2024</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="49">
         <v>2025</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="49">
         <v>2026</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="49">
         <v>2027</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="50">
         <v>2028</v>
       </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="57" t="s">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="96" t="s">
         <v>224</v>
       </c>
-      <c r="O9" s="58">
+      <c r="O9" s="97">
         <f>Financials!F25</f>
         <v>5946000</v>
       </c>
-      <c r="P9" s="41"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="80">
+      <c r="B10" s="52">
         <v>81227000</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="52">
         <v>152176000</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="52">
         <v>252653000</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="53">
         <v>424336000</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="52">
         <v>556000000</v>
       </c>
-      <c r="G10" s="80">
+      <c r="G10" s="52">
         <v>707000000</v>
       </c>
-      <c r="H10" s="80">
+      <c r="H10" s="52">
         <v>909000000</v>
       </c>
-      <c r="I10" s="80">
+      <c r="I10" s="52">
         <v>1103000000</v>
       </c>
-      <c r="J10" s="80">
+      <c r="J10" s="53">
         <v>1660000000</v>
       </c>
-      <c r="K10" s="82" t="s">
+      <c r="K10" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="N10" s="57" t="s">
+      <c r="L10" s="38"/>
+      <c r="N10" s="96" t="s">
         <v>227</v>
       </c>
-      <c r="O10" s="58">
+      <c r="O10" s="97">
         <f>Financials!F24</f>
         <v>-190747000</v>
       </c>
-      <c r="P10" s="41"/>
+      <c r="P10" s="34"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="83"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84">
+      <c r="A11" s="55"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.87346571952675833</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="39">
         <f t="shared" si="0"/>
         <v>0.66026837346230671</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="39">
         <f t="shared" si="0"/>
         <v>0.67952092395498975</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="40">
         <f t="shared" si="0"/>
         <v>0.31028241770672293</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="39">
         <f t="shared" si="0"/>
         <v>0.27158273381294973</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="39">
         <f t="shared" si="0"/>
         <v>0.28571428571428581</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="39">
         <f t="shared" si="0"/>
         <v>0.21342134213421349</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="56">
         <f t="shared" si="0"/>
         <v>0.50498640072529466</v>
       </c>
-      <c r="K11" s="86">
+      <c r="K11" s="56">
         <f>SUM(F11:J11)/5</f>
         <v>0.31719743601869332</v>
       </c>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="57" t="s">
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="O11" s="87">
+      <c r="O11" s="100">
         <f>O9/O10</f>
         <v>-3.1172180951731875E-2</v>
       </c>
-      <c r="P11" s="41"/>
+      <c r="P11" s="34"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="80">
+      <c r="B12" s="52">
         <v>-130741000</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="52">
         <v>-192194000</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="52">
         <v>-155138000</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="52">
         <v>-172311000</v>
       </c>
-      <c r="F12" s="81">
-        <v>-10000000</v>
-      </c>
-      <c r="G12" s="80">
-        <v>23000000</v>
-      </c>
-      <c r="H12" s="80">
-        <v>65000000</v>
-      </c>
-      <c r="I12" s="80">
+      <c r="F12" s="57">
+        <v>20000000</v>
+      </c>
+      <c r="G12" s="52">
+        <v>40000000</v>
+      </c>
+      <c r="H12" s="52">
+        <v>75000000</v>
+      </c>
+      <c r="I12" s="52">
         <v>132000000</v>
       </c>
-      <c r="J12" s="80">
+      <c r="J12" s="53">
         <v>343000000</v>
       </c>
-      <c r="K12" s="82" t="s">
+      <c r="K12" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="88" t="s">
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="O12" s="89">
+      <c r="O12" s="100">
         <f>O8*(1-O11)</f>
         <v>-37.331164532388982</v>
       </c>
-      <c r="P12" s="41"/>
+      <c r="P12" s="34"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="83"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84">
+      <c r="A13" s="55"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.47003617839851319</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="39">
         <f t="shared" si="1"/>
         <v>-0.19280518642621514</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="39">
         <f t="shared" si="1"/>
         <v>0.11069499413425476</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="40">
         <f t="shared" si="1"/>
-        <v>-0.94196539977134364</v>
-      </c>
-      <c r="G13" s="84">
+        <v>-1.1160692004573127</v>
+      </c>
+      <c r="G13" s="39">
         <f t="shared" si="1"/>
-        <v>-3.3</v>
-      </c>
-      <c r="H13" s="84">
+        <v>1</v>
+      </c>
+      <c r="H13" s="39">
         <f t="shared" si="1"/>
-        <v>1.8260869565217392</v>
-      </c>
-      <c r="I13" s="84">
+        <v>0.875</v>
+      </c>
+      <c r="I13" s="39">
         <f t="shared" si="1"/>
-        <v>1.0307692307692307</v>
-      </c>
-      <c r="J13" s="84">
+        <v>0.76</v>
+      </c>
+      <c r="J13" s="56">
         <f t="shared" si="1"/>
         <v>1.5984848484848486</v>
       </c>
-      <c r="K13" s="86">
+      <c r="K13" s="56">
         <f>SUM(F13:J13)/5</f>
-        <v>4.2675127200894988E-2</v>
-      </c>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="114" t="s">
+        <v>0.62348312960550722</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="116" t="s">
         <v>231</v>
       </c>
-      <c r="O13" s="115"/>
-      <c r="P13" s="41"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="42">
+        <f>B12/B10</f>
+        <v>-1.6095756337178524</v>
+      </c>
+      <c r="C14" s="42">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>-1.2629718221007256</v>
+      </c>
+      <c r="D14" s="42">
+        <f t="shared" si="2"/>
+        <v>-0.61403585154342122</v>
+      </c>
+      <c r="E14" s="42">
+        <f t="shared" si="2"/>
+        <v>-0.40607207495946607</v>
+      </c>
+      <c r="F14" s="43">
+        <f t="shared" si="2"/>
+        <v>3.5971223021582732E-2</v>
+      </c>
+      <c r="G14" s="42">
+        <f t="shared" si="2"/>
+        <v>5.6577086280056574E-2</v>
+      </c>
+      <c r="H14" s="42">
+        <f t="shared" si="2"/>
+        <v>8.2508250825082508E-2</v>
+      </c>
+      <c r="I14" s="42">
+        <f t="shared" si="2"/>
+        <v>0.11967361740707162</v>
+      </c>
+      <c r="J14" s="44">
+        <f t="shared" si="2"/>
+        <v>0.20662650602409638</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="96" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="100">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="80">
+      <c r="B15" s="52">
         <v>-60166000</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C15" s="52">
         <v>-75446000</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D15" s="52">
         <v>-53355000</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E15" s="52">
         <v>-83478000</v>
       </c>
-      <c r="F14" s="81">
-        <v>14000000</v>
-      </c>
-      <c r="G14" s="80">
+      <c r="F15" s="57">
+        <v>40000000</v>
+      </c>
+      <c r="G15" s="52">
         <v>67000000</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H15" s="52">
         <v>125000000</v>
       </c>
-      <c r="I14" s="80">
+      <c r="I15" s="52">
         <v>183000000</v>
       </c>
-      <c r="J14" s="80">
+      <c r="J15" s="53">
         <v>464000000</v>
       </c>
-      <c r="K14" s="82" t="s">
+      <c r="K15" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="O14" s="87">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="41"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="90"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="96" t="s">
+        <v>234</v>
+      </c>
+      <c r="O15" s="101" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="P15" s="34"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.25396403284246927</v>
       </c>
-      <c r="D15" s="84">
-        <f t="shared" si="2"/>
+      <c r="D16" s="39">
+        <f t="shared" si="3"/>
         <v>-0.29280545025581206</v>
       </c>
-      <c r="E15" s="84">
-        <f t="shared" si="2"/>
+      <c r="E16" s="39">
+        <f t="shared" si="3"/>
         <v>0.56457689063817829</v>
       </c>
-      <c r="F15" s="85">
-        <f t="shared" si="2"/>
-        <v>-1.1677088574235128</v>
-      </c>
-      <c r="G15" s="84">
-        <f t="shared" si="2"/>
-        <v>3.7857142857142856</v>
-      </c>
-      <c r="H15" s="84">
-        <f t="shared" si="2"/>
+      <c r="F16" s="40">
+        <f t="shared" si="3"/>
+        <v>-1.4791681640671794</v>
+      </c>
+      <c r="G16" s="39">
+        <f t="shared" si="3"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H16" s="39">
+        <f t="shared" si="3"/>
         <v>0.86567164179104483</v>
       </c>
-      <c r="I15" s="84">
-        <f t="shared" si="2"/>
+      <c r="I16" s="39">
+        <f t="shared" si="3"/>
         <v>0.46399999999999997</v>
       </c>
-      <c r="J15" s="84">
-        <f t="shared" si="2"/>
+      <c r="J16" s="56">
+        <f t="shared" si="3"/>
         <v>1.5355191256830603</v>
       </c>
-      <c r="K15" s="86">
-        <f>SUM(F15:J15)/5</f>
-        <v>1.0966392391529756</v>
-      </c>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="O15" s="91" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>2.4169999999999998</v>
-      </c>
-      <c r="P15" s="41"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="79" t="s">
+      <c r="K16" s="56">
+        <f>SUM(F16:J16)/5</f>
+        <v>0.41220452068138513</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="O16" s="100">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="42">
+        <f>B15/B10</f>
+        <v>-0.74071429450798376</v>
+      </c>
+      <c r="C17" s="42">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>-0.49578120071496162</v>
+      </c>
+      <c r="D17" s="42">
+        <f t="shared" si="4"/>
+        <v>-0.21117896878327191</v>
+      </c>
+      <c r="E17" s="44">
+        <f t="shared" si="4"/>
+        <v>-0.19672617925417593</v>
+      </c>
+      <c r="F17" s="42">
+        <f t="shared" si="4"/>
+        <v>7.1942446043165464E-2</v>
+      </c>
+      <c r="G17" s="42">
+        <f t="shared" si="4"/>
+        <v>9.4766619519094764E-2</v>
+      </c>
+      <c r="H17" s="42">
+        <f t="shared" si="4"/>
+        <v>0.13751375137513752</v>
+      </c>
+      <c r="I17" s="42">
+        <f t="shared" si="4"/>
+        <v>0.16591115140525839</v>
+      </c>
+      <c r="J17" s="44">
+        <f t="shared" si="4"/>
+        <v>0.27951807228915665</v>
+      </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="O17" s="103">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>0.14114536</v>
+      </c>
+      <c r="P17" s="34"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="92">
+      <c r="B18" s="61">
         <v>0.71448900532108317</v>
       </c>
-      <c r="C16" s="92">
+      <c r="C18" s="61">
         <v>0.6937618392713496</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D18" s="61">
         <v>-0.12100775833918243</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E18" s="61">
         <v>-0.19199307625803108</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="O16" s="87">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="41"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="97" t="s">
-        <v>231</v>
-      </c>
-      <c r="O17" s="98">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.13825693</v>
-      </c>
-      <c r="P17" s="41"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="114" t="s">
+      <c r="F18" s="62"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="116" t="s">
         <v>236</v>
       </c>
-      <c r="O18" s="115"/>
-      <c r="P18" s="41"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="105" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="116" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2014</v>
-      </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="78" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="57" t="s">
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="O19" s="100">
+      <c r="O19" s="104">
         <f>O6+O7</f>
         <v>755000</v>
       </c>
-      <c r="P19" s="41"/>
+      <c r="P19" s="34"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="105" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" s="104">
+        <f>A3</f>
+        <v>8117109000</v>
+      </c>
+      <c r="P20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="118" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="B21" s="118"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="120" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2014</v>
+      </c>
+      <c r="E21" s="120"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="O21" s="104">
+        <f>O19+O20</f>
+        <v>8117864000</v>
+      </c>
+      <c r="P21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="119" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>GitLab Inc. provides DevSecOps Platform, a single application that brings together development, operations, information technology, security, and business teams. The DevSecOps Platform is built on a single codebase, unified data model, and user interface. The Company allows organizations to deploy the DevSecOps Platform as a self-managed offering in their own hybrid-cloud, or on-premises environments, and as a software as a service offering, it is hosted in either the public cloud or in a private cloud based on the customer’s preference. The DevSecOps Platform enables its customers to move their DevOps workflow across any hybrid or multi-cloud environment. Its DevSecOps platform is used by teams of all sizes across a range of industries. It offers the DevSecOps Platform in three different subscription tiers, namely Free, Premium and Ultimate. Its Free tier platform includes significant functionality for individual users and the paid tiers are for managers, directors, and executives.</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="O20" s="100">
-        <f>A3</f>
-        <v>6693869000</v>
-      </c>
-      <c r="P20" s="41"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="O21" s="100">
-        <f>O19+O20</f>
-        <v>6694624000</v>
-      </c>
-      <c r="P21" s="41"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="71" t="s">
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="98" t="s">
         <v>239</v>
       </c>
-      <c r="O22" s="101">
+      <c r="O22" s="105">
         <f>(O19/O21)</f>
-        <v>1.1277705812903009E-4</v>
-      </c>
-      <c r="P22" s="41"/>
+        <v>9.3004760858275031E-5</v>
+      </c>
+      <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="97" t="s">
+      <c r="A23" s="119"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="102" t="s">
         <v>240</v>
       </c>
-      <c r="O23" s="102">
+      <c r="O23" s="106">
         <f>O20/O21</f>
-        <v>0.99988722294187093</v>
-      </c>
-      <c r="P23" s="41"/>
+        <v>0.99990699523914173</v>
+      </c>
+      <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="105"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="106" t="s">
+      <c r="A24" s="119"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="O24" s="107"/>
-      <c r="P24" s="41"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="105"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="108">
+      <c r="A25" s="119"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.13403123887767501</v>
-      </c>
-      <c r="O25" s="109"/>
-      <c r="P25" s="41"/>
+        <v>0.13766025677965119</v>
+      </c>
+      <c r="O25" s="111"/>
+      <c r="P25" s="34"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="105"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="105"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="78"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="78"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="78"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="78"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="78"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="78"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="78"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="78"/>
-      <c r="P45" s="78"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="78"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="78"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="78"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="78"/>
-      <c r="O47" s="78"/>
-      <c r="P47" s="78"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="78"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="78"/>
-      <c r="O48" s="78"/>
-      <c r="P48" s="78"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="78"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="78"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="78"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="78"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
-      <c r="M52" s="78"/>
-      <c r="N52" s="78"/>
-      <c r="O52" s="78"/>
-      <c r="P52" s="78"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="78"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="78"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="78"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="78"/>
-      <c r="M54" s="78"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="78"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="78"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="78"/>
-      <c r="M55" s="78"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="78"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="78"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="78"/>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="78"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="78"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="78"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="78"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="78"/>
-      <c r="O58" s="78"/>
-      <c r="P58" s="78"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="78"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="78"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="78"/>
-      <c r="P60" s="78"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="78"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="41"/>
-      <c r="P74" s="41"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="41"/>
-      <c r="P75" s="41"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="41"/>
-      <c r="P76" s="41"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="41"/>
-      <c r="P79" s="41"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="41"/>
-      <c r="P80" s="41"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="41"/>
-      <c r="P81" s="41"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="41"/>
-      <c r="P82" s="41"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="41"/>
-      <c r="P83" s="41"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="41"/>
-      <c r="P84" s="41"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="41"/>
-      <c r="P85" s="41"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="41"/>
-      <c r="P90" s="41"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="41"/>
-      <c r="P94" s="41"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="41"/>
-      <c r="P95" s="41"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="41"/>
-      <c r="P96" s="41"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="34"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="41"/>
-      <c r="P98" s="41"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="41"/>
-      <c r="P100" s="41"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="41"/>
-      <c r="P103" s="41"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="41"/>
-      <c r="P104" s="41"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="34"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="41"/>
-      <c r="P105" s="41"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="41"/>
-      <c r="P106" s="41"/>
+      <c r="O106" s="34"/>
+      <c r="P106" s="34"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
+      <c r="O107" s="34"/>
+      <c r="P107" s="34"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="41"/>
-      <c r="P109" s="41"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="34"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="41"/>
-      <c r="P110" s="41"/>
+      <c r="O110" s="34"/>
+      <c r="P110" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -10305,8 +10546,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:E30"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:GTLB/explorer/revenue_proj" xr:uid="{0D687A57-DDD5-744E-90D3-5A36D862808D}"/>

--- a/Technology/Software/GitLab.xlsx
+++ b/Technology/Software/GitLab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6848BD29-FC51-6B49-9464-3B6AC83BBF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3CF5C8-27E3-0A40-A2F4-E073185D3E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1438,9 +1438,6 @@
     <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="10" fontId="12" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1637,6 +1634,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1711,6 +1711,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1730,7 +1732,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1743,6 +1745,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1868,13 +1872,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>58.7</v>
+    <v>62.21</v>
     <v>26.24</v>
-    <v>2.3839999999999999</v>
-    <v>4.13</v>
-    <v>8.5435999999999998E-2</v>
-    <v>0.91</v>
-    <v>1.7343000000000001E-2</v>
+    <v>2.3940000000000001</v>
+    <v>0.13</v>
+    <v>2.2009999999999998E-3</v>
+    <v>-0.1</v>
+    <v>-1.689E-3</v>
     <v>USD</v>
     <v>GitLab Inc. provides DevSecOps Platform, a single application that brings together development, operations, information technology, security, and business teams. The DevSecOps Platform is built on a single codebase, unified data model, and user interface. The Company allows organizations to deploy the DevSecOps Platform as a self-managed offering in their own hybrid-cloud, or on-premises environments, and as a software as a service offering, it is hosted in either the public cloud or in a private cloud based on the customer’s preference. The DevSecOps Platform enables its customers to move their DevOps workflow across any hybrid or multi-cloud environment. Its DevSecOps platform is used by teams of all sizes across a range of industries. It offers the DevSecOps Platform in three different subscription tiers, namely Free, Premium and Ultimate. Its Free tier platform includes significant functionality for individual users and the paid tiers are for managers, directors, and executives.</v>
     <v>2170</v>
@@ -1882,24 +1886,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>268 BUSH STREET, #350, SAN FRANCISCO, CA, 94104 US</v>
-    <v>52.86</v>
+    <v>59.49</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.041129941405</v>
+    <v>45269.040630416406</v>
     <v>0</v>
-    <v>48.704999999999998</v>
-    <v>8117109000</v>
+    <v>57.210999999999999</v>
+    <v>9217440000</v>
     <v>Gitlab Inc.</v>
     <v>Gitlab Inc.</v>
-    <v>48.88</v>
-    <v>48.34</v>
-    <v>52.47</v>
-    <v>53.38</v>
-    <v>154700000</v>
+    <v>57.9</v>
+    <v>59.07</v>
+    <v>59.2</v>
+    <v>59.1</v>
+    <v>155700000</v>
     <v>GTLB</v>
     <v>Gitlab Inc. (XNAS:GTLB)</v>
-    <v>3826734</v>
-    <v>1438560</v>
+    <v>2642835</v>
+    <v>2745720</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2061,9 +2065,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2507,7 +2511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
+    <sheetView topLeftCell="A119" workbookViewId="0">
       <selection activeCell="B36" sqref="B36:E36"/>
     </sheetView>
   </sheetViews>
@@ -8743,7 +8747,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8790,46 +8794,46 @@
       <c r="P2" s="112"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" cm="1">
+      <c r="A3" s="64" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>8117109000</v>
-      </c>
-      <c r="B3" s="66" t="s">
+        <v>9217440000</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="66">
         <f>Financials!F8*0.01</f>
         <v>0.88569999999999993</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="66">
         <f>SUM(C11:E11)/3</f>
         <v>0.73775167231468497</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="69">
-        <f>AVERAGE(Financials!E129:J129)</f>
-        <v>8.7684649469115996E-3</v>
-      </c>
-      <c r="H3" s="68" t="s">
+      <c r="G3" s="68">
+        <f>AVERAGE(Financials!C129:J129)</f>
+        <v>9.9399600083753814E-3</v>
+      </c>
+      <c r="H3" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="69">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>4221541949.1738925</v>
-      </c>
-      <c r="J3" s="71" t="s">
+        <v>4114900498.680078</v>
+      </c>
+      <c r="J3" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="72">
+      <c r="K3" s="71">
         <f>(Financials!F172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="72" t="s">
         <v>203</v>
       </c>
       <c r="M3" s="34"/>
@@ -8840,46 +8844,46 @@
       <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74">
+      <c r="A4" s="73">
         <f>Financials!F56-Financials!F96-Financials!F105</f>
         <v>985528000</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="74" t="s">
         <v>198</v>
       </c>
       <c r="C4" s="36">
         <f>Financials!F17*0.01</f>
         <v>-0.42899999999999999</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="74" t="s">
         <v>199</v>
       </c>
       <c r="E4" s="36">
         <f>SUM(C13:E13)/3</f>
         <v>0.12930866203551761</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="76">
         <f>A5*(1+(5*G3))</f>
-        <v>161482407.63643613</v>
-      </c>
-      <c r="H4" s="76" t="s">
+        <v>163438258.86652023</v>
+      </c>
+      <c r="H4" s="75" t="s">
         <v>201</v>
       </c>
       <c r="I4" s="35">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>2739715409.0097561</v>
-      </c>
-      <c r="J4" s="76" t="s">
+        <v>2651042593.7398157</v>
+      </c>
+      <c r="J4" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="K4" s="78" cm="1">
+      <c r="K4" s="77" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>8.5435999999999998E-2</v>
-      </c>
-      <c r="L4" s="79" t="s">
+        <v>2.2009999999999998E-3</v>
+      </c>
+      <c r="L4" s="78" t="s">
         <v>242</v>
       </c>
       <c r="M4" s="34"/>
@@ -8890,158 +8894,158 @@
       <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" cm="1">
+      <c r="A5" s="73" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>154700000</v>
-      </c>
-      <c r="B5" s="75" t="s">
+        <v>155700000</v>
+      </c>
+      <c r="B5" s="74" t="s">
         <v>205</v>
       </c>
       <c r="C5" s="36">
         <f>F14</f>
         <v>3.5971223021582732E-2</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="79" t="s">
         <v>206</v>
       </c>
       <c r="E5" s="36">
         <f>SUM(C16:E16)/3</f>
         <v>0.17524515774161184</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="76">
         <f>Financials!F56</f>
         <v>986283000</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="75" t="s">
         <v>208</v>
       </c>
       <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>3725243409.0097561</v>
-      </c>
-      <c r="J5" s="76" t="s">
+        <v>3636570593.7398157</v>
+      </c>
+      <c r="J5" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="81" cm="1">
+      <c r="K5" s="80" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>52.47</v>
-      </c>
-      <c r="L5" s="82" t="s">
+        <v>59.2</v>
+      </c>
+      <c r="L5" s="81" t="s">
         <v>210</v>
       </c>
       <c r="M5" s="34"/>
-      <c r="N5" s="96" t="s">
+      <c r="N5" s="95" t="s">
         <v>211</v>
       </c>
-      <c r="O5" s="97">
+      <c r="O5" s="96">
         <f>Financials!F20</f>
         <v>-27333000</v>
       </c>
       <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="83">
+      <c r="A6" s="82">
         <f>O20/F10</f>
-        <v>14.599116906474821</v>
-      </c>
-      <c r="B6" s="75" t="s">
+        <v>16.578129496402877</v>
+      </c>
+      <c r="B6" s="74" t="s">
         <v>212</v>
       </c>
       <c r="C6" s="36">
         <f>F17</f>
         <v>7.1942446043165464E-2</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="79" t="s">
         <v>191</v>
       </c>
       <c r="E6" s="36">
         <f>Financials!F33/Financials!F126</f>
         <v>-0.22825778355228332</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="76">
         <f>Financials!F96+Financials!F105</f>
         <v>755000</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="I6" s="78">
+      <c r="I6" s="77">
         <f>N25</f>
-        <v>0.13766025677965119</v>
-      </c>
-      <c r="J6" s="76" t="s">
+        <v>0.14057995148425981</v>
+      </c>
+      <c r="J6" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="84">
+      <c r="K6" s="83">
         <f>I5/G4</f>
-        <v>23.069035590532089</v>
-      </c>
-      <c r="L6" s="85" t="s">
+        <v>22.250424221110904</v>
+      </c>
+      <c r="L6" s="84" t="s">
         <v>216</v>
       </c>
       <c r="M6" s="34"/>
-      <c r="N6" s="96" t="s">
+      <c r="N6" s="95" t="s">
         <v>217</v>
       </c>
-      <c r="O6" s="97">
+      <c r="O6" s="96">
         <f>Financials!F96</f>
         <v>617000</v>
       </c>
       <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="86">
+      <c r="A7" s="85">
         <f>O20/F12</f>
-        <v>405.85545000000002</v>
-      </c>
-      <c r="B7" s="87" t="s">
+        <v>460.87200000000001</v>
+      </c>
+      <c r="B7" s="86" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="88">
+      <c r="C7" s="87">
         <f>F15/A3</f>
-        <v>4.9278628634899443E-3</v>
-      </c>
-      <c r="D7" s="87" t="s">
+        <v>4.3395997153222584E-3</v>
+      </c>
+      <c r="D7" s="86" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="89">
+      <c r="E7" s="88">
         <f>(Financials!F16*(1-0.25))/(Financials!F126+Financials!F105+Financials!F96)</f>
         <v>-0.19428542238835569</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="G7" s="90">
+      <c r="G7" s="89">
         <f>(Financials!F96+Financials!F105)/Financials!F126</f>
         <v>9.0828160338770995E-4</v>
       </c>
-      <c r="H7" s="91" t="s">
+      <c r="H7" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="I7" s="92">
+      <c r="I7" s="91">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="93" t="s">
+      <c r="J7" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="K7" s="94">
+      <c r="K7" s="93">
         <f>K6/K5-1</f>
-        <v>-0.56033856316881858</v>
-      </c>
-      <c r="L7" s="95" t="s">
+        <v>-0.62414823950826182</v>
+      </c>
+      <c r="L7" s="94" t="s">
         <v>222</v>
       </c>
       <c r="M7" s="34"/>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="95" t="s">
         <v>223</v>
       </c>
-      <c r="O7" s="97">
+      <c r="O7" s="96">
         <f>Financials!F105</f>
         <v>138000</v>
       </c>
@@ -9061,102 +9065,102 @@
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
-      <c r="N8" s="98" t="s">
+      <c r="N8" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="O8" s="99">
+      <c r="O8" s="98">
         <f>O5/(O6+O7)</f>
         <v>-36.202649006622515</v>
       </c>
       <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="46">
+      <c r="A9" s="44"/>
+      <c r="B9" s="45">
         <v>2020</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <v>2021</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>2022</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="46">
         <v>2023</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="47">
         <v>2024</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <v>2025</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <v>2026</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="48">
         <v>2027</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="49">
         <v>2028</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
-      <c r="N9" s="96" t="s">
+      <c r="N9" s="95" t="s">
         <v>224</v>
       </c>
-      <c r="O9" s="97">
+      <c r="O9" s="96">
         <f>Financials!F25</f>
         <v>5946000</v>
       </c>
       <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="51">
         <v>81227000</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="51">
         <v>152176000</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="51">
         <v>252653000</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="52">
         <v>424336000</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="51">
         <v>556000000</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="51">
         <v>707000000</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="51">
         <v>909000000</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="51">
         <v>1103000000</v>
       </c>
-      <c r="J10" s="53">
+      <c r="J10" s="52">
         <v>1660000000</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="53" t="s">
         <v>226</v>
       </c>
       <c r="L10" s="38"/>
-      <c r="N10" s="96" t="s">
+      <c r="N10" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="O10" s="97">
+      <c r="O10" s="96">
         <f>Financials!F24</f>
         <v>-190747000</v>
       </c>
       <c r="P10" s="34"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
@@ -9186,72 +9190,72 @@
         <f t="shared" si="0"/>
         <v>0.21342134213421349</v>
       </c>
-      <c r="J11" s="56">
+      <c r="J11" s="55">
         <f t="shared" si="0"/>
         <v>0.50498640072529466</v>
       </c>
-      <c r="K11" s="56">
+      <c r="K11" s="55">
         <f>SUM(F11:J11)/5</f>
         <v>0.31719743601869332</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
-      <c r="N11" s="96" t="s">
+      <c r="N11" s="95" t="s">
         <v>228</v>
       </c>
-      <c r="O11" s="100">
+      <c r="O11" s="99">
         <f>O9/O10</f>
         <v>-3.1172180951731875E-2</v>
       </c>
       <c r="P11" s="34"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="51">
         <v>-130741000</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="51">
         <v>-192194000</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="51">
         <v>-155138000</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="51">
         <v>-172311000</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="56">
         <v>20000000</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="51">
         <v>40000000</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="51">
         <v>75000000</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="51">
         <v>132000000</v>
       </c>
-      <c r="J12" s="53">
+      <c r="J12" s="52">
         <v>343000000</v>
       </c>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="57" t="s">
         <v>229</v>
       </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
-      <c r="N12" s="96" t="s">
+      <c r="N12" s="95" t="s">
         <v>230</v>
       </c>
-      <c r="O12" s="100">
+      <c r="O12" s="99">
         <f>O8*(1-O11)</f>
         <v>-37.331164532388982</v>
       </c>
       <c r="P12" s="34"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
@@ -9281,11 +9285,11 @@
         <f t="shared" si="1"/>
         <v>0.76</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="55">
         <f t="shared" si="1"/>
         <v>1.5984848484848486</v>
       </c>
-      <c r="K13" s="56">
+      <c r="K13" s="55">
         <f>SUM(F13:J13)/5</f>
         <v>0.62348312960550722</v>
       </c>
@@ -9298,104 +9302,104 @@
       <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="107" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="41">
         <f>B12/B10</f>
         <v>-1.6095756337178524</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="41">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>-1.2629718221007256</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <f t="shared" si="2"/>
         <v>-0.61403585154342122</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="41">
         <f t="shared" si="2"/>
         <v>-0.40607207495946607</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="42">
         <f t="shared" si="2"/>
         <v>3.5971223021582732E-2</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="41">
         <f t="shared" si="2"/>
         <v>5.6577086280056574E-2</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="41">
         <f t="shared" si="2"/>
         <v>8.2508250825082508E-2</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="41">
         <f t="shared" si="2"/>
         <v>0.11967361740707162</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="43">
         <f t="shared" si="2"/>
         <v>0.20662650602409638</v>
       </c>
-      <c r="K14" s="44"/>
+      <c r="K14" s="43"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
-      <c r="N14" s="96" t="s">
+      <c r="N14" s="95" t="s">
         <v>233</v>
       </c>
-      <c r="O14" s="100">
+      <c r="O14" s="99">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="34"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="51">
         <v>-60166000</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="51">
         <v>-75446000</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="51">
         <v>-53355000</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="51">
         <v>-83478000</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="56">
         <v>40000000</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="51">
         <v>67000000</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="51">
         <v>125000000</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="51">
         <v>183000000</v>
       </c>
-      <c r="J15" s="53">
+      <c r="J15" s="52">
         <v>464000000</v>
       </c>
-      <c r="K15" s="58" t="s">
+      <c r="K15" s="57" t="s">
         <v>232</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
-      <c r="N15" s="96" t="s">
+      <c r="N15" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="O15" s="101" cm="1">
+      <c r="O15" s="100" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>2.3839999999999999</v>
+        <v>2.3940000000000001</v>
       </c>
       <c r="P15" s="34"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
@@ -9425,98 +9429,98 @@
         <f t="shared" si="3"/>
         <v>0.46399999999999997</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="55">
         <f t="shared" si="3"/>
         <v>1.5355191256830603</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="55">
         <f>SUM(F16:J16)/5</f>
         <v>0.41220452068138513</v>
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
-      <c r="N16" s="96" t="s">
+      <c r="N16" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="O16" s="100">
+      <c r="O16" s="99">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="34"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="41">
         <f>B15/B10</f>
         <v>-0.74071429450798376</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="41">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>-0.49578120071496162</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="41">
         <f t="shared" si="4"/>
         <v>-0.21117896878327191</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="43">
         <f t="shared" si="4"/>
         <v>-0.19672617925417593</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="41">
         <f t="shared" si="4"/>
         <v>7.1942446043165464E-2</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="41">
         <f t="shared" si="4"/>
         <v>9.4766619519094764E-2</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="41">
         <f t="shared" si="4"/>
         <v>0.13751375137513752</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="41">
         <f t="shared" si="4"/>
         <v>0.16591115140525839</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="43">
         <f t="shared" si="4"/>
         <v>0.27951807228915665</v>
       </c>
-      <c r="K17" s="44"/>
+      <c r="K17" s="43"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
-      <c r="N17" s="102" t="s">
+      <c r="N17" s="101" t="s">
         <v>231</v>
       </c>
-      <c r="O17" s="103">
+      <c r="O17" s="102">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.14114536</v>
+        <v>0.14364926</v>
       </c>
       <c r="P17" s="34"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="61">
+      <c r="B18" s="60">
         <v>0.71448900532108317</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="60">
         <v>0.6937618392713496</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="60">
         <v>-0.12100775833918243</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="60">
         <v>-0.19199307625803108</v>
       </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
       <c r="N18" s="116" t="s">
@@ -9541,10 +9545,10 @@
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
-      <c r="N19" s="96" t="s">
+      <c r="N19" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="O19" s="104">
+      <c r="O19" s="103">
         <f>O6+O7</f>
         <v>755000</v>
       </c>
@@ -9564,12 +9568,12 @@
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
-      <c r="N20" s="96" t="s">
+      <c r="N20" s="95" t="s">
         <v>192</v>
       </c>
-      <c r="O20" s="104">
+      <c r="O20" s="103">
         <f>A3</f>
-        <v>8117109000</v>
+        <v>9217440000</v>
       </c>
       <c r="P20" s="34"/>
     </row>
@@ -9579,7 +9583,7 @@
         <v>Software &amp; IT Services</v>
       </c>
       <c r="B21" s="118"/>
-      <c r="C21" s="107"/>
+      <c r="C21" s="106"/>
       <c r="D21" s="120" cm="1">
         <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2014</v>
@@ -9592,12 +9596,12 @@
       <c r="J21" s="38"/>
       <c r="K21" s="38"/>
       <c r="M21" s="38"/>
-      <c r="N21" s="96" t="s">
+      <c r="N21" s="95" t="s">
         <v>238</v>
       </c>
-      <c r="O21" s="104">
+      <c r="O21" s="103">
         <f>O19+O20</f>
-        <v>8117864000</v>
+        <v>9218195000</v>
       </c>
       <c r="P21" s="34"/>
     </row>
@@ -9618,12 +9622,12 @@
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
-      <c r="N22" s="98" t="s">
+      <c r="N22" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="O22" s="105">
+      <c r="O22" s="104">
         <f>(O19/O21)</f>
-        <v>9.3004760858275031E-5</v>
+        <v>8.1903235937187273E-5</v>
       </c>
       <c r="P22" s="34"/>
     </row>
@@ -9641,12 +9645,12 @@
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
-      <c r="N23" s="102" t="s">
+      <c r="N23" s="101" t="s">
         <v>240</v>
       </c>
-      <c r="O23" s="106">
+      <c r="O23" s="105">
         <f>O20/O21</f>
-        <v>0.99990699523914173</v>
+        <v>0.99991809676406285</v>
       </c>
       <c r="P23" s="34"/>
     </row>
@@ -9686,7 +9690,7 @@
       <c r="M25" s="38"/>
       <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.13766025677965119</v>
+        <v>0.14057995148425981</v>
       </c>
       <c r="O25" s="111"/>
       <c r="P25" s="34"/>
